--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,102 +424,102 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(-5, 6)</t>
+          <t>(-4, -7)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>(-1, -8)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>(-9, -9)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>(-10, 1)</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(7, 2)</t>
+          <t>(-10, -2)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(2, -2)</t>
+          <t>(8, 4)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(3, -9)</t>
+          <t>(-3, -6)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(-9, -5)</t>
+          <t>(-3, 3)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(-8, -7)</t>
+          <t>(3, -6)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(-10, -7)</t>
+          <t>(4, 1)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(-10, 0)</t>
+          <t>(1, -1)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(7, -1)</t>
+          <t>(5, -7)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(-4, 4)</t>
+          <t>(6, 5)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(8, 0)</t>
+          <t>(-3, 2)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(-7, -7)</t>
+          <t>(-2, -9)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(0, -3)</t>
+          <t>(0, 8)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(-8, 0)</t>
+          <t>(6, 5)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(-3, -7)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(-2, -1)</t>
+          <t>(2, -8)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(-6, -9)</t>
+          <t>(-10, -5)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(7, 1)</t>
+          <t>(-1, 6)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(-5, 6)</t>
+          <t>(-4, -7)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19.991396338288382</t>
+          <t>4.733966956782423</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.133957785311807</t>
+          <t>8.015369526939493</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14.795801549649086</t>
+          <t>10.277981839665562</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.859810089352042</t>
+          <t>20.897989969954132</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.366647604711716</t>
+          <t>2.1009915223361175</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.394601263095705</t>
+          <t>11.13303429044064</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13.95652415888938</t>
+          <t>7.400703594583519</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16.005741490491303</t>
+          <t>12.014612002660126</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9.914878420058237</t>
+          <t>9.076246789795015</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17.732160490201807</t>
+          <t>13.494711323424193</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.2446822423926336</t>
+          <t>22.897287921269825</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16.941478150219965</t>
+          <t>9.476882504764484</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18.088419031303847</t>
+          <t>3.179167588795928</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>12.769445251310806</t>
+          <t>17.94790405354808</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.76944856562319</t>
+          <t>18.31427277840031</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>17.002331726150054</t>
+          <t>16.630855173236654</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>10.219067398344702</t>
+          <t>8.087438698467045</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>15.268433016563561</t>
+          <t>7.944026808318778</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>14.308463230684087</t>
+          <t>17.480456100808674</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>9.500158368155628</t>
+          <t>9.378255360017057</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(-9, -9)</t>
+          <t>(-1, -8)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17.457114201453567</t>
+          <t>4.6691476727959005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.724727460907136</t>
+          <t>11.770675009373248</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.10704036163713</t>
+          <t>16.207655048231103</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.436615992081359</t>
+          <t>18.237777146879488</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.673882622380315</t>
+          <t>3.9081489150504534</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.549089704173191</t>
+          <t>12.143267110872433</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.959414390527752</t>
+          <t>6.497065868291133</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.3152084209465578</t>
+          <t>15.194802356329605</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12.62524615058382</t>
+          <t>7.37492201855192</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>25.20258244370407</t>
+          <t>6.1530531376493025</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14.681025208815955</t>
+          <t>20.326107948490126</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>20.61379781268723</t>
+          <t>10.424416029328185</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4.123282941016868</t>
+          <t>1.4868812122766146</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10.937698153426666</t>
+          <t>19.89057394837356</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12.871733856583674</t>
+          <t>18.126935582672893</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>9.472347468983628</t>
+          <t>17.99581230878601</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>14.537797442200123</t>
+          <t>3.3167288015139462</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.300871951265884</t>
+          <t>13.423284037451763</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23.17236076252706</t>
+          <t>16.239098656016385</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>17.817383180906113</t>
+          <t>12.017989083961403</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-10, 1)</t>
+          <t>(-9, -9)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.354173276370704</t>
+          <t>6.854598881010465</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14.650130347464847</t>
+          <t>8.552712158854211</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.70111538222221</t>
+          <t>10.440351894683674</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.801725808612272</t>
+          <t>28.553417381524127</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19.01832716275512</t>
+          <t>7.101780063695489</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.267645779657627</t>
+          <t>16.365788489659256</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.542536691095266</t>
+          <t>15.900123802119088</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.336401652724144</t>
+          <t>17.886533714303553</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0561159208851574</t>
+          <t>18.952700312255445</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19.10433549695286</t>
+          <t>15.68496358468844</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9.39346871691311</t>
+          <t>21.709018900714184</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>23.445250869373893</t>
+          <t>13.137527262097679</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>9.435796826675334</t>
+          <t>9.258374751308523</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>14.873211473087272</t>
+          <t>25.309118205930858</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.3435048015743933</t>
+          <t>25.616570853072155</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>15.563538829380587</t>
+          <t>24.16113544384515</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.517853508073127</t>
+          <t>16.043393987009427</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>15.91998360495682</t>
+          <t>4.453386217030231</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>22.55975638967814</t>
+          <t>25.077420177435883</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>13.53784621991401</t>
+          <t>17.25565021639555</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(7, 2)</t>
+          <t>(-10, -2)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15.831870821405241</t>
+          <t>11.576355853494643</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27.140431875297512</t>
+          <t>11.82975688125768</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.941366481262943</t>
+          <t>8.60060183802852</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.429304687714639</t>
+          <t>26.165416266074807</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.756081294100333</t>
+          <t>9.34497446385344</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.17258225690906</t>
+          <t>10.4074328783674</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>23.577401509501744</t>
+          <t>19.614028820502003</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>27.904493042016888</t>
+          <t>20.328803019776483</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>18.19285612794887</t>
+          <t>14.752886655344245</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.3314694891545065</t>
+          <t>19.033318473492308</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12.076452657506684</t>
+          <t>18.415996064038115</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.5702123836653117</t>
+          <t>9.65073233119659</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>18.03231360572692</t>
+          <t>15.608888001320215</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>10.407928541761073</t>
+          <t>16.278395551754926</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15.883929865436794</t>
+          <t>22.82105029364513</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>15.235351181936904</t>
+          <t>14.869192411936703</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>14.216336608754418</t>
+          <t>19.83329286261554</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>20.428129869488906</t>
+          <t>3.9560546502492486</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.4884010011813205</t>
+          <t>17.04839911869132</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>8.471826733814584</t>
+          <t>13.326078873880075</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(2, -2)</t>
+          <t>(8, 4)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.244092520562594</t>
+          <t>16.486111920791398</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18.841622453292313</t>
+          <t>17.41364914925881</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.46629993949208</t>
+          <t>23.08557762183101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.718940280703905</t>
+          <t>25.5479284052871</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.444629696147768</t>
+          <t>20.836838244950357</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.902176253828063</t>
+          <t>15.089103772906515</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13.369965318802572</t>
+          <t>13.727537536417325</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18.7637688604662</t>
+          <t>6.6310422447193265</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15.597965765939515</t>
+          <t>9.475293896910722</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5.733987201379057</t>
+          <t>13.684480444608585</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.108397615173619</t>
+          <t>2.9702987277668886</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9.339894044196253</t>
+          <t>14.701315554248618</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>13.866415205842513</t>
+          <t>24.409836469101002</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2.3656918531354334</t>
+          <t>11.025976540548902</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>10.663890949787818</t>
+          <t>2.5400909861011267</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>10.25346160517169</t>
+          <t>7.770473437059241</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>6.1801522558460835</t>
+          <t>19.471139176987958</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>13.081230399476716</t>
+          <t>29.337945230282656</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.425673705928948</t>
+          <t>10.451941205667856</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3.487047074585203</t>
+          <t>12.24637262156155</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(3, -9)</t>
+          <t>(-3, -6)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.96268222212646</t>
+          <t>1.6811464960009108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15.563448349554784</t>
+          <t>3.886927873601625</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.53705518192119</t>
+          <t>7.258314658155386</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13.92304448400713</t>
+          <t>8.735553601389979</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.65930192676816</t>
+          <t>15.092664934570927</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17.968221190497164</t>
+          <t>9.74161423232496</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11.209216963469249</t>
+          <t>7.494089259876532</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.587002019701135</t>
+          <t>13.795403567312048</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21.491659097721044</t>
+          <t>9.157828815462992</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.930695024576298</t>
+          <t>8.557799179141343</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.569461249565464</t>
+          <t>15.237105507363983</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>13.918098320755437</t>
+          <t>10.336678150064401</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12.512591494102034</t>
+          <t>3.79933684691948</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>9.071718547458705</t>
+          <t>15.238095478270516</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>17.973143976886046</t>
+          <t>18.775987635956113</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6.959528628758129</t>
+          <t>15.285271536567148</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11.459397858557871</t>
+          <t>6.508510513078259</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>9.220479395994342</t>
+          <t>8.60943149851708</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>10.923408357230386</t>
+          <t>12.845064293247656</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>12.897449481565387</t>
+          <t>9.723701668060157</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(-9, -5)</t>
+          <t>(-3, 3)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.853568416295625</t>
+          <t>14.211700457702138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.05771650526263</t>
+          <t>16.04107610202554</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.945769288548817</t>
+          <t>15.015752049435697</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.708180419145442</t>
+          <t>10.187616491554104</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.200349419932886</t>
+          <t>13.191656858054232</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13.035708435533337</t>
+          <t>11.33634824671596</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.5651328085072183</t>
+          <t>15.266402613519176</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.978955403987437</t>
+          <t>8.313297916814925</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.904652961312294</t>
+          <t>7.407338993846633</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17.558291684723795</t>
+          <t>18.24824293917719</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12.753343262395052</t>
+          <t>10.394997474939807</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>19.27950557825656</t>
+          <t>1.094358439932625</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.924233057113025</t>
+          <t>16.47008121646136</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>13.124066156939525</t>
+          <t>6.740906316253234</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5.827790512304217</t>
+          <t>10.654623433955253</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7.507870927260139</t>
+          <t>5.556480522150657</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>10.441447220700828</t>
+          <t>12.657993026965112</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>6.2488904179443905</t>
+          <t>12.164459745073495</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22.13647685150598</t>
+          <t>5.372205140255581</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>11.140305481078313</t>
+          <t>5.997900500089424</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(-8, -7)</t>
+          <t>(3, -6)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13.480271573832042</t>
+          <t>9.811273018686652</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.3958140489192483</t>
+          <t>5.926231362751035</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.61215511149234</t>
+          <t>16.400448654158506</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17.99448592437618</t>
+          <t>15.985213561386761</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16.737570799353474</t>
+          <t>13.569220139361297</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16.59342586462642</t>
+          <t>8.863360667440073</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.250288447773335</t>
+          <t>16.02679327912475</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,114 +1360,114 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.6648760106131637</t>
+          <t>9.04583981399979</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.864405226836414</t>
+          <t>7.913709259610334</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21.385351342381938</t>
+          <t>2.496234780261732</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14.062093075663213</t>
+          <t>16.135689234444616</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>25.464126857656996</t>
+          <t>11.481785288939193</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.0391333959799494</t>
+          <t>7.367515625218192</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>10.076854774652398</t>
+          <t>14.725963480789373</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8.839738999950168</t>
+          <t>14.569805889917848</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5.374024829204873</t>
+          <t>10.815251088659751</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11.005947907822582</t>
+          <t>2.336761568261587</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3.554973250480565</t>
+          <t>13.9137758319474</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>23.46905327781006</t>
+          <t>17.684681099589042</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>11.599066055839407</t>
+          <t>9.959074447337148</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(-10, -7)</t>
+          <t>(4, 1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.813125410324666</t>
+          <t>13.550642579747958</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4521761338314922</t>
+          <t>13.38318737960903</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.60952840448478</t>
+          <t>23.665781010394355</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.372415300846793</t>
+          <t>21.4306855735813</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19.304818128347343</t>
+          <t>6.462369503289449</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16.6276242550834</t>
+          <t>10.025669754693311</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.0306596915284088</t>
+          <t>9.464054182100416</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.098651356467251</t>
+          <t>7.703688971227096</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1477,114 +1477,114 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9.16174454241824</t>
+          <t>4.687758392622723</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23.252968102390994</t>
+          <t>11.85503020712197</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12.685031684592946</t>
+          <t>5.423994710549995</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>22.035301344873385</t>
+          <t>8.984964357182921</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.5814358728389966</t>
+          <t>15.972760031733703</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>13.55121172101395</t>
+          <t>11.381880077113737</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7.473175363239407</t>
+          <t>6.314061974555888</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>7.178522666429441</t>
+          <t>5.088849281107346</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>13.064335238843052</t>
+          <t>10.94950207325012</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>5.587076400870096</t>
+          <t>15.750619474612222</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>23.938227261853335</t>
+          <t>9.709117374568068</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>17.675353583348613</t>
+          <t>4.303190710082971</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(-10, 0)</t>
+          <t>(1, -1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10.655512255574493</t>
+          <t>10.179131980149684</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.585061810239578</t>
+          <t>9.294315780804336</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.446364132695624</t>
+          <t>15.88104283769049</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23.17315672895871</t>
+          <t>13.444179868657999</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13.303238363885479</t>
+          <t>12.017197512113198</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20.447903481302635</t>
+          <t>7.117141019056876</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.133767454686841</t>
+          <t>7.6761866092299655</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7.357643174511673</t>
+          <t>7.560349138621822</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.941882418606452</t>
+          <t>4.853317599495342</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>23.522243930999878</t>
+          <t>8.931242308915415</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.429913031405642</t>
+          <t>10.791070096788975</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>19.472209344015653</t>
+          <t>6.38606060959535</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9.278108700186399</t>
+          <t>9.325605991097737</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>12.32342005774452</t>
+          <t>13.41797212443972</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.9008385298316757</t>
+          <t>9.68284399321344</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12.781588071184347</t>
+          <t>7.198153932850672</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>8.722641729434688</t>
+          <t>10.487070115520075</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>10.379529288194396</t>
+          <t>15.642577415222416</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>25.27999700978561</t>
+          <t>9.443811575721774</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>14.749382428803681</t>
+          <t>1.5896695099595954</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(7, -1)</t>
+          <t>(5, -7)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16.670451805539596</t>
+          <t>11.753648120703511</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.501847225228154</t>
+          <t>6.927292673942942</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.518963596241033</t>
+          <t>19.72068484082657</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.1688194170927324</t>
+          <t>18.552496367605503</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.279139857301717</t>
+          <t>15.397958322007261</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.299075717960259</t>
+          <t>11.248771131003846</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22.40838857491198</t>
+          <t>17.478437831722708</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21.43471329562968</t>
+          <t>3.1902395281164444</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.463692422445778</t>
+          <t>9.04391344479119</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.878810835455806</t>
+          <t>7.708642843538002</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16.675506832815476</t>
+          <t>12.523557338399328</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.778620808095986</t>
+          <t>14.328137615875146</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>16.964342009015688</t>
+          <t>8.752290025363646</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>9.954195895730152</t>
+          <t>23.48328003298138</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18.91918797335383</t>
+          <t>17.66524090351575</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>16.593536698866608</t>
+          <t>15.578538321576634</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>10.76001332329872</t>
+          <t>3.3758921785964175</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>19.08367273427375</t>
+          <t>21.696409950723123</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2.072219880205219</t>
+          <t>18.20330885581559</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>9.017331114503653</t>
+          <t>11.363901846212014</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(-4, 4)</t>
+          <t>(6, 5)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.582202994893256</t>
+          <t>21.620117364192353</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19.29129079851621</t>
+          <t>19.134837460212065</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.16825563990762</t>
+          <t>21.328441549438697</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.207573494847315</t>
+          <t>21.11063946793615</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.661845322314845</t>
+          <t>2.2471801401360016</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20.48985279469015</t>
+          <t>15.91536750930568</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.189773058435476</t>
+          <t>12.517196349287829</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12.296091237268762</t>
+          <t>14.590042795594467</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18.637670941079076</t>
+          <t>6.205869096245884</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>7.57967375872826</t>
+          <t>11.459168722312038</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16.047070336774514</t>
+          <t>16.35205478124288</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>15.109451762442898</t>
+          <t>10.231168974003465</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>13.226957180590013</t>
+          <t>23.644065764285937</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9.980674965414511</t>
+          <t>9.131413746379161</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>7.775029997006356</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>13.188358574030339</t>
+          <t>5.70212628643491</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>7.764313351962585</t>
+          <t>19.836189472495825</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>18.203441321812527</t>
+          <t>20.62544132009308</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>11.598708537299085</t>
+          <t>10.438907065272993</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>8.13998785200721</t>
+          <t>9.595973324186996</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(8, 0)</t>
+          <t>(-3, 2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16.803918699646207</t>
+          <t>11.47328199724073</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19.60679042150121</t>
+          <t>14.189352947939144</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.118344060868193</t>
+          <t>16.429988657518482</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.257111442905927</t>
+          <t>10.789621067796228</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.192179717102195</t>
+          <t>15.558573622865612</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12.173728308308808</t>
+          <t>8.722118800437489</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24.347811260995982</t>
+          <t>1.2861246147798697</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25.489840589512646</t>
+          <t>14.68989727156702</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28.623386500814433</t>
+          <t>7.158558365301251</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21.632012987881726</t>
+          <t>7.335014697249942</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.5150205885062473</t>
+          <t>16.58261617845424</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18.511779919229625</t>
+          <t>11.112268064448267</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20.77424602965438</t>
+          <t>16.466236739023234</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>12.689129315371856</t>
+          <t>8.621986150410374</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20.850827948301188</t>
+          <t>11.846234394348272</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>17.81565393540703</t>
+          <t>6.481810100808984</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>10.051949527238808</t>
+          <t>12.878578195627135</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>23.781156943676304</t>
+          <t>14.173033671887906</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.8410088268082054</t>
+          <t>4.5126116934373135</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>11.275062031013988</t>
+          <t>5.071267982375398</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(-7, -7)</t>
+          <t>(-2, -9)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18.660278654242415</t>
+          <t>2.9329462770168675</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.9176847925232288</t>
+          <t>1.525699588219337</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.457477586341113</t>
+          <t>8.76887778189764</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.463498337814457</t>
+          <t>11.619637666621852</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14.87326735845864</t>
+          <t>20.922483379433157</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14.61480404070948</t>
+          <t>4.493373312309904</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.0287368410266353</t>
+          <t>15.369634663422584</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.0550488705896428</t>
+          <t>5.874745266402849</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.190499499074811</t>
+          <t>16.713642391550923</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.85524751124601</t>
+          <t>9.076149650192326</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21.387074157099672</t>
+          <t>7.43085536742162</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16.262655163055587</t>
+          <t>20.82071769329445</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>23.636312993096162</t>
+          <t>12.71802745908184</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>11.109406137735707</t>
+          <t>17.409950975413906</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10.11740370927753</t>
+          <t>22.983868716249226</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.949765299117676</t>
+          <t>15.757054906894195</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>10.231618620174933</t>
+          <t>6.109313396257539</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3.191175349230602</t>
+          <t>11.472083646615227</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>23.85844428604808</t>
+          <t>17.42947259613516</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>13.384047398493642</t>
+          <t>13.115107836309278</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(0, -3)</t>
+          <t>(0, 8)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13.197585007895688</t>
+          <t>18.29244884740764</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.327115892851394</t>
+          <t>20.797628291619915</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.301822528870881</t>
+          <t>26.76910843635655</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.06463713836106</t>
+          <t>14.614646717715502</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.3894679462264707</t>
+          <t>9.930352195429837</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7.748090571793976</t>
+          <t>20.503725100012236</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.623860698578923</t>
+          <t>7.839408789079213</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.199230852369787</t>
+          <t>19.940274413489206</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.991496079514956</t>
+          <t>10.13365990521678</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13.068329819440718</t>
+          <t>11.214816935438924</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.340394093654398</t>
+          <t>18.53454296375494</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9.336166538430723</t>
+          <t>8.485906833650313</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9.283062599582959</t>
+          <t>9.057193988596058</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>9.311976128417763</t>
+          <t>21.669618144146362</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,114 +2179,114 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>8.906419512039093</t>
+          <t>9.456762001908125</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.828925576225226</t>
+          <t>6.329770731858269</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3.2029140038186332</t>
+          <t>21.974384561218365</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>8.909976545307456</t>
+          <t>16.856437755656323</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>11.207846813829088</t>
+          <t>3.2360688957624477</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>3.193133130275024</t>
+          <t>9.0348073502629</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(-8, 0)</t>
+          <t>(6, 5)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.983462356661171</t>
+          <t>18.935066061417327</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13.023731655240923</t>
+          <t>15.599147659733596</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.456113237650378</t>
+          <t>22.48478820553482</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18.50340140242779</t>
+          <t>21.26818105467837</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.584822339163386</t>
+          <t>2.5047001067640235</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16.62494577084046</t>
+          <t>15.387821596511907</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.036953666622714</t>
+          <t>12.770832609318592</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.063463809398954</t>
+          <t>12.551082941720027</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8.052556413551512</t>
+          <t>5.706069767769299</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.5384472280031787</t>
+          <t>8.403196892280489</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>20.80199849840056</t>
+          <t>12.390839720952561</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6.792628366213505</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>19.899579481113776</t>
+          <t>11.202816761197576</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7.195990528021278</t>
+          <t>18.05164104915793</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>9.882100284717195</t>
+          <t>9.373179213600485</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2296,114 +2296,114 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>10.047414272599111</t>
+          <t>5.252454695904311</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>6.331337924884955</t>
+          <t>17.819596486453687</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>13.781026712382246</t>
+          <t>20.822113986129054</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>16.977081413526914</t>
+          <t>9.356472394182605</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>11.961642884328754</t>
+          <t>10.444931045580313</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(-3, -7)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19.44639779746881</t>
+          <t>13.874466750343617</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6.875125828523115</t>
+          <t>18.03943308320117</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.789774681289456</t>
+          <t>20.629663927741333</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.081796258682683</t>
+          <t>18.904075080415748</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.096763805129072</t>
+          <t>6.943841700516151</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.369090554129714</t>
+          <t>12.271098679143202</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7.3446756549335985</t>
+          <t>6.476459385885519</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7.099985922391369</t>
+          <t>11.659954624087955</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.699390260478625</t>
+          <t>4.0416362459027395</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10.534529097908633</t>
+          <t>6.278419337206161</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>12.57714287773325</t>
+          <t>14.709103982461398</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>15.794636169598535</t>
+          <t>4.880660423604098</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15.125599657832188</t>
+          <t>7.338881599815321</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>4.25741312068666</t>
+          <t>19.837227962895202</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>5.18731450611525</t>
+          <t>6.485911021004478</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10.300672175081996</t>
+          <t>4.250822322689715</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>6.701755290776229</t>
+          <t>15.35934855870509</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>5.21545373854181</t>
+          <t>22.431919832157764</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18.58118959008477</t>
+          <t>5.158228857604072</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>11.163722804654514</t>
+          <t>5.7411913189412545</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(-2, -1)</t>
+          <t>(2, -8)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11.169118200372807</t>
+          <t>6.857446569451285</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11.78213816233319</t>
+          <t>4.008758269857956</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.063380427251186</t>
+          <t>11.920764331361552</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11.747207213187204</t>
+          <t>15.85602585837063</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.139265514936398</t>
+          <t>14.109385202308708</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11.201560815639967</t>
+          <t>6.310061353671707</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.219410351179032</t>
+          <t>13.807338980057606</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.15779399187903</t>
+          <t>2.245088834289905</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>14.163011013248582</t>
+          <t>9.40227453053594</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8.545696893623004</t>
+          <t>10.02221934926719</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.318889420280167</t>
+          <t>3.6601744921171244</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6.02588085676652</t>
+          <t>18.30422460523138</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12.144267106849364</t>
+          <t>12.199776669670971</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10.166690881753981</t>
+          <t>5.05524097174016</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3.007501380083573</t>
+          <t>21.617557461173327</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>7.849739807753975</t>
+          <t>18.691324411303295</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>7.350761412728806</t>
+          <t>14.818297900397349</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>9.837790002676735</t>
+          <t>18.20798058895046</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>11.03634671019163</t>
+          <t>16.115981147142058</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2.340024790588205</t>
+          <t>8.688619568318385</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(-6, -9)</t>
+          <t>(-10, -5)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16.591772153361916</t>
+          <t>9.234676258275613</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.22675247456242</t>
+          <t>10.015063274147382</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13.938067906608378</t>
+          <t>5.998482558694625</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.728120109656686</t>
+          <t>4.217038652014047</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.947870277418067</t>
+          <t>22.248021002773797</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.056404571853275</t>
+          <t>8.023188072585754</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.432703489141581</t>
+          <t>10.714454491226348</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.343660642693644</t>
+          <t>16.708905358270943</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.171559723175088</t>
+          <t>20.29383517434963</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10.893901589049118</t>
+          <t>14.74399133820651</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>16.326968384307204</t>
+          <t>20.368884568208653</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13.266567856275875</t>
+          <t>22.123352089738127</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>23.79726805412848</t>
+          <t>14.538233307365505</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.6525016410146147</t>
+          <t>13.302758339960254</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>12.242467486467318</t>
+          <t>24.159656628246747</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10.488008392021571</t>
+          <t>19.878377456700786</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>3.977678028673216</t>
+          <t>16.906036248804966</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12.990443691600296</t>
+          <t>13.874245868291872</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23.326042252843912</t>
+          <t>16.237348380931948</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>15.575944213766848</t>
+          <t>15.412183732939754</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(7, 1)</t>
+          <t>(-1, 6)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16.608624688523946</t>
+          <t>18.71480536649473</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28.034834243912623</t>
+          <t>19.61066787137504</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23.219044940233637</t>
+          <t>21.868846460722835</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.1872588581219297</t>
+          <t>17.562177910422083</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.1601951761072735</t>
+          <t>10.26274587353511</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11.536432757398655</t>
+          <t>13.211934412301373</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20.291840151761242</t>
+          <t>4.568035636620738</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>24.630812813980512</t>
+          <t>14.792825448076975</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>25.975653566305418</t>
+          <t>10.478310819122129</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21.299427068262773</t>
+          <t>10.057762172471094</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.4557978373049583</t>
+          <t>21.10805064025889</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13.029433972866215</t>
+          <t>7.484491598613203</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1.681942499816453</t>
+          <t>6.622028644547569</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18.609290868639903</t>
+          <t>15.208884300213443</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>11.33106833384649</t>
+          <t>3.3102633921079576</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>21.207020218169298</t>
+          <t>8.953823616828876</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>18.85079655365222</t>
+          <t>4.6676419836966</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>11.279977351036472</t>
+          <t>16.66530912126259</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>18.947869950764908</t>
+          <t>18.212345696440416</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>10.12315916525801</t>
+          <t>6.860366309427202</t>
         </is>
       </c>
     </row>
@@ -2776,102 +2776,102 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10.069379013796324</t>
+          <t>10.633246182027854</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15.188541791880128</t>
+          <t>9.47487536655706</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.141579385604853</t>
+          <t>14.158491111906322</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.753987000088536</t>
+          <t>13.884670247873682</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.0283377087491905</t>
+          <t>12.648302912833621</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13.06693159733756</t>
+          <t>7.436987742261846</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.883497289558584</t>
+          <t>5.385992774220469</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>13.566426876703066</t>
+          <t>6.811064210768353</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18.29051102546208</t>
+          <t>5.466926393675051</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13.214842679268681</t>
+          <t>1.7926361037956422</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8.932900151090504</t>
+          <t>11.29185505908756</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7.405115901695359</t>
+          <t>8.192278104716081</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11.482229711225498</t>
+          <t>3.734114048285418</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>11.454175886375875</t>
+          <t>11.692023262631526</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3.6812067072265457</t>
+          <t>10.11116294139894</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>9.91781676937299</t>
+          <t>8.152800625618937</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>9.33680863368825</t>
+          <t>5.138719079623564</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.1853002192459545</t>
+          <t>12.095136028462383</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>15.578974885022246</t>
+          <t>16.290126661198606</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>10.231610483165595</t>
+          <t>6.1196068219548385</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,114 +424,114 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(-4, -7)</t>
+          <t>(203957296, Omri Ben Shabat: 8,-1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(-1, -8)</t>
+          <t>(206532695, Matan Vakrat: 7,-7)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(-9, -9)</t>
+          <t>(302962915, Asher  Odeh: -5,-6)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(-10, -2)</t>
+          <t>(308035542, Anastasia  Kubi: 8,8)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(8, 4)</t>
+          <t>(311177802, Christina  Uksusman: -10,-1)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(-3, -6)</t>
+          <t>(305251175, Or  Leder: 6,6)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(-3, 3)</t>
+          <t>(308051846, Eyal  Sofer: 3,-3)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(3, -6)</t>
+          <t>(312049950, Molham  Peretz: 7,8)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(4, 1)</t>
+          <t>(308073899, Anan  Kirshenbaum: 3,2)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(1, -1)</t>
+          <t>(318869187, Soaad  Leibovich: 9,2)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(5, -7)</t>
+          <t>(205898513, Asaf  Braymok: 3,6)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(6, 5)</t>
+          <t>(318428158, Tal  Asulin: 7,-7)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(-3, 2)</t>
+          <t>(316028364, Sami  Castro: -3,-10)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(-2, -9)</t>
+          <t>(318294931, Shalev  Afanasenko: -3,-8)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(0, 8)</t>
+          <t>(305487936, Avihai  Kipnis: -5,-1)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(6, 5)</t>
+          <t>(313227928, Aviv  Levi: 2,6)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(205807308, Sariel  Basis: 7,-1)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(2, -8)</t>
+          <t>(315891549, Raz  Halaby: -10,-4)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(-10, -5)</t>
+          <t>(315060103, Dan  Mshelh: -3,4)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(-1, 6)</t>
+          <t>(313925141, Elad   Amer: -1,-7)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(326598423, Ron Cohen: -4,-2)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(-4, -7)</t>
+          <t>(8, -1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.733966956782423</t>
+          <t>7.898213308854446</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.015369526939493</t>
+          <t>14.236933825018486</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.277981839665562</t>
+          <t>11.942174679173057</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20.897989969954132</t>
+          <t>18.66332732996939</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1009915223361175</t>
+          <t>10.787565280044111</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.13303429044064</t>
+          <t>6.537975604076272</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.400703594583519</t>
+          <t>10.787808889225355</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.014612002660126</t>
+          <t>7.97112774003501</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9.076246789795015</t>
+          <t>3.6917514062489647</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13.494711323424193</t>
+          <t>10.646524596683964</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22.897287921269825</t>
+          <t>7.156577575140573</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9.476882504764484</t>
+          <t>19.354724598069907</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.179167588795928</t>
+          <t>13.09556722857835</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17.94790405354808</t>
+          <t>19.437395667224617</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18.31427277840031</t>
+          <t>11.135628586291963</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16.630855173236654</t>
+          <t>1.4058852499596326</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>8.087438698467045</t>
+          <t>20.503180907083703</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>7.944026808318778</t>
+          <t>16.699714187829002</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>17.480456100808674</t>
+          <t>14.673696404358836</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>9.378255360017057</t>
+          <t>17.100456984789087</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(-1, -8)</t>
+          <t>(7, -7)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.6691476727959005</t>
+          <t>7.752179655267539</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.770675009373248</t>
+          <t>16.47722735546299</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16.207655048231103</t>
+          <t>22.16996494443332</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.237777146879488</t>
+          <t>22.927250000807646</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.9081489150504534</t>
+          <t>16.65176136475982</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.143267110872433</t>
+          <t>7.748764456444524</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.497065868291133</t>
+          <t>20.339147417825078</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15.194802356329605</t>
+          <t>13.446627709633033</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7.37492201855192</t>
+          <t>13.219146496813636</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.1530531376493025</t>
+          <t>19.899198792720597</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20.326107948490126</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10.424416029328185</t>
+          <t>14.49441936690024</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.4868812122766146</t>
+          <t>13.99890317685425</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>19.89057394837356</t>
+          <t>15.129198716046888</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>18.126935582672893</t>
+          <t>16.412037668689216</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>17.99581230878601</t>
+          <t>7.291309307878745</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.3167288015139462</t>
+          <t>23.461825149090245</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>13.423284037451763</t>
+          <t>16.839407792642955</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>16.239098656016385</t>
+          <t>11.03437101008266</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>12.017989083961403</t>
+          <t>16.64526205294978</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-9, -9)</t>
+          <t>(-5, -6)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.854598881010465</t>
+          <t>19.631706496848462</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.552712158854211</t>
+          <t>13.907049274278334</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.440351894683674</t>
+          <t>24.27985730103902</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28.553417381524127</t>
+          <t>8.430850516621978</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.101780063695489</t>
+          <t>17.110762429286737</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.365788489659256</t>
+          <t>10.909281180353224</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15.900123802119088</t>
+          <t>26.37489510837888</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>17.886533714303553</t>
+          <t>16.84586015942383</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>18.952700312255445</t>
+          <t>17.433785021789415</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.68496358468844</t>
+          <t>21.19433259739011</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21.709018900714184</t>
+          <t>12.746408516432213</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13.137527262097679</t>
+          <t>5.0100539879598305</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>9.258374751308523</t>
+          <t>3.696072935621004</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>25.309118205930858</t>
+          <t>5.328682608728597</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>25.616570853072155</t>
+          <t>14.636030898559817</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>24.16113544384515</t>
+          <t>17.052140029409287</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>16.043393987009427</t>
+          <t>5.632306511141566</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4.453386217030231</t>
+          <t>13.359529621721547</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>25.077420177435883</t>
+          <t>5.877285574205522</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>17.25565021639555</t>
+          <t>6.108531404514527</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(-10, -2)</t>
+          <t>(8, 8)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11.576355853494643</t>
+          <t>9.615068464054932</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.82975688125768</t>
+          <t>21.418664232197692</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.60060183802852</t>
+          <t>24.109722008565104</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26.165416266074807</t>
+          <t>28.750715288441054</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.34497446385344</t>
+          <t>4.241204834344622</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.4074328783674</t>
+          <t>17.21233066602969</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19.614028820502003</t>
+          <t>1.2098774239510948</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20.328803019776483</t>
+          <t>10.645842546600237</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14.752886655344245</t>
+          <t>7.91284236502518</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19.033318473492308</t>
+          <t>6.601647959443223</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18.415996064038115</t>
+          <t>15.754482323141618</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.65073233119659</t>
+          <t>31.49626143802988</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>15.608888001320215</t>
+          <t>19.44736320927381</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>16.278395551754926</t>
+          <t>16.100670641905598</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>22.82105029364513</t>
+          <t>9.354417657649265</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>14.869192411936703</t>
+          <t>11.357173904481922</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>19.83329286261554</t>
+          <t>25.81309786200798</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3.9560546502492486</t>
+          <t>15.14121460247477</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>17.04839911869132</t>
+          <t>20.185121432089776</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>13.326078873880075</t>
+          <t>18.40719333410102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(8, 4)</t>
+          <t>(-10, -1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.486111920791398</t>
+          <t>21.127872873190853</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17.41364914925881</t>
+          <t>26.895720956641547</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.08557762183101</t>
+          <t>8.052514014940444</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.5479284052871</t>
+          <t>24.648577018873453</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.836838244950357</t>
+          <t>25.283593825074906</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.089103772906515</t>
+          <t>16.151992349250314</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13.727537536417325</t>
+          <t>20.934143710244175</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.6310422447193265</t>
+          <t>15.436691559682275</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.475293896910722</t>
+          <t>20.357916046590937</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13.684480444608585</t>
+          <t>16.883806923926944</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2.9702987277668886</t>
+          <t>23.344576707214372</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>14.701315554248618</t>
+          <t>12.856009747507892</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>24.409836469101002</t>
+          <t>13.962163451546866</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>11.025976540548902</t>
+          <t>7.496060405696438</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.5400909861011267</t>
+          <t>18.421098826627762</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>7.770473437059241</t>
+          <t>17.980065010321134</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>19.471139176987958</t>
+          <t>4.430439510571227</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>29.337945230282656</t>
+          <t>12.214063378829131</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>10.451941205667856</t>
+          <t>12.03476351564219</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>12.24637262156155</t>
+          <t>8.60055809969493</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(-3, -6)</t>
+          <t>(6, 6)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.6811464960009108</t>
+          <t>7.727484195495477</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.886927873601625</t>
+          <t>19.483893752850282</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.258314658155386</t>
+          <t>16.638705349527882</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.735553601389979</t>
+          <t>3.339604482937302</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.092664934570927</t>
+          <t>19.520264616655833</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.74161423232496</t>
+          <t>12.304876924921553</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.494089259876532</t>
+          <t>3.2035777614459024</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13.795403567312048</t>
+          <t>5.046791936741995</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9.157828815462992</t>
+          <t>5.48705149025417</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.557799179141343</t>
+          <t>3.633926950414247</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15.237105507363983</t>
+          <t>15.276237734905203</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>10.336678150064401</t>
+          <t>25.77341410727419</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.79933684691948</t>
+          <t>18.552960662942205</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>15.238095478270516</t>
+          <t>15.280686431787474</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>18.775987635956113</t>
+          <t>5.124672028946164</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>15.285271536567148</t>
+          <t>8.773334186654484</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>6.508510513078259</t>
+          <t>19.718620551058535</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>8.60943149851708</t>
+          <t>12.113389098695771</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12.845064293247656</t>
+          <t>21.54505147426461</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>9.723701668060157</t>
+          <t>16.25264055351223</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(-3, 3)</t>
+          <t>(3, -3)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.211700457702138</t>
+          <t>5.513425247274204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.04107610202554</t>
+          <t>5.851925682237904</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.015752049435697</t>
+          <t>12.596120009358243</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.187616491554104</t>
+          <t>13.012859323011577</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.191656858054232</t>
+          <t>19.472091908423053</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11.33634824671596</t>
+          <t>10.023512386638469</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15.266402613519176</t>
+          <t>15.156360599264099</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8.313297916814925</t>
+          <t>7.212229835283766</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7.407338993846633</t>
+          <t>11.11193960255856</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>18.24824293917719</t>
+          <t>12.003807025981844</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.394997474939807</t>
+          <t>6.716795891875029</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.094358439932625</t>
+          <t>12.222414908416084</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>16.47008121646136</t>
+          <t>8.248718841272531</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>6.740906316253234</t>
+          <t>9.973798348594743</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>10.654623433955253</t>
+          <t>11.926317261590441</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5.556480522150657</t>
+          <t>5.071188148107457</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12.657993026965112</t>
+          <t>18.25091216502794</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>12.164459745073495</t>
+          <t>11.737641485754573</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>5.372205140255581</t>
+          <t>7.396499337326263</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5.997900500089424</t>
+          <t>9.327536965920345</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(3, -6)</t>
+          <t>(7, 8)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9.811273018686652</t>
+          <t>10.299001340284253</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.926231362751035</t>
+          <t>17.576775384932485</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.400448654158506</t>
+          <t>24.733599267180463</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15.985213561386761</t>
+          <t>1.3128850932763598</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.569220139361297</t>
+          <t>25.40663178115263</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.863360667440073</t>
+          <t>2.276972606462333</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.02679327912475</t>
+          <t>15.362151033582894</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,114 +1360,114 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9.04583981399979</t>
+          <t>7.391146038761565</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.913709259610334</t>
+          <t>7.146760415091531</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.496234780261732</t>
+          <t>6.167275630737493</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16.135689234444616</t>
+          <t>22.14708390806463</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11.481785288939193</t>
+          <t>23.99041530228656</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>7.367515625218192</t>
+          <t>22.93199040336515</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>14.725963480789373</t>
+          <t>20.724633883434617</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>14.569805889917848</t>
+          <t>5.710112709921555</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10.815251088659751</t>
+          <t>11.359213134098304</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.336761568261587</t>
+          <t>26.185600419900048</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>13.9137758319474</t>
+          <t>15.960404276533652</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>17.684681099589042</t>
+          <t>23.614539535402812</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>9.959074447337148</t>
+          <t>15.68638477201515</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(4, 1)</t>
+          <t>(3, 2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13.550642579747958</t>
+          <t>8.233595171067984</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13.38318737960903</t>
+          <t>11.894453096839579</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.665781010394355</t>
+          <t>15.454891127562991</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.4306855735813</t>
+          <t>11.224104716083474</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.462369503289449</t>
+          <t>17.07666730391976</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.025669754693311</t>
+          <t>5.546654218711037</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.464054182100416</t>
+          <t>7.187721813704528</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7.703688971227096</t>
+          <t>9.14501497402965</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1477,114 +1477,114 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.687758392622723</t>
+          <t>7.107899959883285</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11.85503020712197</t>
+          <t>4.087241025450599</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5.423994710549995</t>
+          <t>13.923091989722339</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>8.984964357182921</t>
+          <t>14.595930992109434</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>15.972760031733703</t>
+          <t>16.69300082103772</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>11.381880077113737</t>
+          <t>9.510960530382967</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>6.314061974555888</t>
+          <t>4.195765864591454</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>5.088849281107346</t>
+          <t>5.547604441257925</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10.94950207325012</t>
+          <t>21.10951866423593</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>15.750619474612222</t>
+          <t>6.57647849551603</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>9.709117374568068</t>
+          <t>12.376478105168946</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>4.303190710082971</t>
+          <t>9.545358547812654</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(1, -1)</t>
+          <t>(9, 2)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10.179131980149684</t>
+          <t>4.11375241866792</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.294315780804336</t>
+          <t>10.530787185718692</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.88104283769049</t>
+          <t>23.65895200788699</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.444179868657999</t>
+          <t>8.63517834236313</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.017197512113198</t>
+          <t>20.535039252152956</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.117141019056876</t>
+          <t>5.900094287149164</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.6761866092299655</t>
+          <t>7.879475246938664</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7.560349138621822</t>
+          <t>7.1470494464091034</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.853317599495342</t>
+          <t>6.370497222488403</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.931242308915415</t>
+          <t>8.378211390492329</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.791070096788975</t>
+          <t>13.71048307094461</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6.38606060959535</t>
+          <t>18.053909015777666</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9.325605991097737</t>
+          <t>20.628755276496943</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>13.41797212443972</t>
+          <t>18.224154830849447</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9.68284399321344</t>
+          <t>8.65704172886788</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>7.198153932850672</t>
+          <t>4.084449847262764</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>10.487070115520075</t>
+          <t>23.185529103747683</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>15.642577415222416</t>
+          <t>15.036190136086805</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>9.443811575721774</t>
+          <t>17.183528280617413</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.5896695099595954</t>
+          <t>16.415893282872396</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(5, -7)</t>
+          <t>(3, 6)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11.753648120703511</t>
+          <t>9.778941530783602</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.927292673942942</t>
+          <t>15.837873591451528</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.72068484082657</t>
+          <t>16.00142866634599</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18.552496367605503</t>
+          <t>7.490930741082674</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.397958322007261</t>
+          <t>17.430232271680087</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.248771131003846</t>
+          <t>3.589228087779596</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17.478437831722708</t>
+          <t>10.173637127774454</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.1902395281164444</t>
+          <t>6.517403127267027</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.04391344479119</t>
+          <t>4.923003103365288</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.708642843538002</t>
+          <t>7.797626224678401</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12.523557338399328</t>
+          <t>18.514337747397853</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>14.328137615875146</t>
+          <t>23.207544048647634</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>8.752290025363646</t>
+          <t>22.432575858669363</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>23.48328003298138</t>
+          <t>15.67652546119262</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>17.66524090351575</t>
+          <t>1.2741460896500747</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>15.578538321576634</t>
+          <t>11.234429117120822</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3.3758921785964175</t>
+          <t>17.161981844936104</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>21.696409950723123</t>
+          <t>6.6313074171707775</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18.20330885581559</t>
+          <t>20.26193089982255</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>11.363901846212014</t>
+          <t>12.68624082968785</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(6, 5)</t>
+          <t>(7, -7)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.620117364192353</t>
+          <t>7.403700503928024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19.134837460212065</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.328441549438697</t>
+          <t>14.365812092785713</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.11063946793615</t>
+          <t>21.73926199181603</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.2471801401360016</t>
+          <t>18.435955957276096</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15.91536750930568</t>
+          <t>16.180591008823573</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.517196349287829</t>
+          <t>8.423864795991465</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14.590042795594467</t>
+          <t>19.688154304718886</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.205869096245884</t>
+          <t>10.821685354008183</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11.459168722312038</t>
+          <t>13.012798189906782</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16.35205478124288</t>
+          <t>17.47728365027575</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10.231168974003465</t>
+          <t>15.24386515416147</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>23.644065764285937</t>
+          <t>12.567930288863604</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9.131413746379161</t>
+          <t>16.01443997184553</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>17.93280929428385</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>5.70212628643491</t>
+          <t>6.384635227046825</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>19.836189472495825</t>
+          <t>20.562603731545273</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>20.62544132009308</t>
+          <t>18.01205702395263</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>10.438907065272993</t>
+          <t>10.60020634405987</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>9.595973324186996</t>
+          <t>15.855371843704576</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(-3, 2)</t>
+          <t>(-3, -10)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11.47328199724073</t>
+          <t>14.987695662412063</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14.189352947939144</t>
+          <t>15.001060680930197</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.429988657518482</t>
+          <t>6.314981111707078</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10.789621067796228</t>
+          <t>25.446294776652636</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15.558573622865612</t>
+          <t>16.145468386538948</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8.722118800437489</t>
+          <t>23.11362636537972</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.2861246147798697</t>
+          <t>13.472182251935617</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14.68989727156702</t>
+          <t>23.00345674934365</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.158558365301251</t>
+          <t>13.932248578202826</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7.335014697249942</t>
+          <t>20.17747377119647</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16.58261617845424</t>
+          <t>20.320546255022883</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>11.112268064448267</t>
+          <t>14.252565535449923</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>16.466236739023234</t>
+          <t>2.9994679400146635</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>8.621986150410374</t>
+          <t>12.011794756932591</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>11.846234394348272</t>
+          <t>24.22215588281997</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>6.481810100808984</t>
+          <t>15.36907764513591</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12.878578195627135</t>
+          <t>10.113115641147846</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>14.173033671887906</t>
+          <t>19.89310105955992</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>4.5126116934373135</t>
+          <t>4.363142805885438</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>5.071267982375398</t>
+          <t>8.312685486704806</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(-2, -9)</t>
+          <t>(-3, -8)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.9329462770168675</t>
+          <t>18.356883869907286</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.525699588219337</t>
+          <t>10.324181989386725</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.76887778189764</t>
+          <t>4.061740656954816</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11.619637666621852</t>
+          <t>19.763680929509647</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>20.922483379433157</t>
+          <t>13.51091460614822</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.493373312309904</t>
+          <t>20.73033713107588</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15.369634663422584</t>
+          <t>10.637323887258974</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.874745266402849</t>
+          <t>25.850327035483506</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.713642391550923</t>
+          <t>17.054839442799793</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.076149650192326</t>
+          <t>22.016646080204403</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.43085536742162</t>
+          <t>21.946178529513517</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20.82071769329445</t>
+          <t>11.826832089458703</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.71802745908184</t>
+          <t>2.503245941637441</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>17.409950975413906</t>
+          <t>8.72357855144717</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22.983868716249226</t>
+          <t>16.070610630736365</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>15.757054906894195</t>
+          <t>13.300397482043701</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>6.109313396257539</t>
+          <t>8.084688073054553</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>11.472083646615227</t>
+          <t>15.274063416916793</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>17.42947259613516</t>
+          <t>2.9099342011347726</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>13.115107836309278</t>
+          <t>6.678908239749663</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(0, 8)</t>
+          <t>(-5, -1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18.29244884740764</t>
+          <t>19.050033225330818</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20.797628291619915</t>
+          <t>17.48217554201058</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26.76910843635655</t>
+          <t>7.144659779799122</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14.614646717715502</t>
+          <t>19.885290581817788</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.930352195429837</t>
+          <t>5.372021688699245</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20.503725100012236</t>
+          <t>14.846238030157165</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7.839408789079213</t>
+          <t>8.444533343651186</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>19.940274413489206</t>
+          <t>18.81945914222918</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10.13365990521678</t>
+          <t>12.149746992466856</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11.214816935438924</t>
+          <t>16.771778781709273</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18.53454296375494</t>
+          <t>13.090074015120274</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8.485906833650313</t>
+          <t>17.672571434890724</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9.057193988596058</t>
+          <t>11.983294303413476</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>21.669618144146362</t>
+          <t>9.923588575072612</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,231 +2179,231 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>9.456762001908125</t>
+          <t>10.643816189851698</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.329770731858269</t>
+          <t>13.652266238824048</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>21.974384561218365</t>
+          <t>6.475894307792576</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>16.856437755656323</t>
+          <t>5.669332084560362</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3.2360688957624477</t>
+          <t>9.358365981141764</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>9.0348073502629</t>
+          <t>1.4535904259357166</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(6, 5)</t>
+          <t>(2, 6)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18.935066061417327</t>
+          <t>12.375152143332846</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15.599147659733596</t>
+          <t>16.125300749908373</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.48478820553482</t>
+          <t>20.79174108040883</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.26818105467837</t>
+          <t>7.96199809889643</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.5047001067640235</t>
+          <t>15.320814231873646</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15.387821596511907</t>
+          <t>4.266330095127545</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12.770832609318592</t>
+          <t>10.165993268365867</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12.551082941720027</t>
+          <t>6.318445901150138</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.706069767769299</t>
+          <t>5.835788846909508</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.403196892280489</t>
+          <t>8.20548710404785</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.390839720952561</t>
+          <t>1.1688033250518646</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>17.2007962113665</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>24.90582954338558</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>17.618292002633304</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>9.970046198756817</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>11.202816761197576</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>18.05164104915793</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>9.373179213600485</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>5.252454695904311</t>
+          <t>11.287219252652077</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>17.819596486453687</t>
+          <t>16.810874936346274</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>20.822113986129054</t>
+          <t>6.898980058257028</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>9.356472394182605</t>
+          <t>14.18404469300795</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>10.444931045580313</t>
+          <t>14.754624230293556</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(7, -1)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13.874466750343617</t>
+          <t>1.414833780403324</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18.03943308320117</t>
+          <t>7.910647470358217</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.629663927741333</t>
+          <t>17.389157597688147</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.904075080415748</t>
+          <t>9.138018557194444</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.943841700516151</t>
+          <t>20.69079732825843</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12.271098679143202</t>
+          <t>9.311749894250665</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6.476459385885519</t>
+          <t>4.649653649957095</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11.659954624087955</t>
+          <t>9.665951836366888</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.0416362459027395</t>
+          <t>7.436994653361779</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6.278419337206161</t>
+          <t>4.28366089987873</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>14.709103982461398</t>
+          <t>9.690345704904296</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4.880660423604098</t>
+          <t>8.203346802239984</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>7.338881599815321</t>
+          <t>16.316144381922587</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19.837227962895202</t>
+          <t>14.651320736046577</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>6.485911021004478</t>
+          <t>16.552393859614675</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4.250822322689715</t>
+          <t>10.006163219553907</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>15.35934855870509</t>
+          <t>25.769574983584647</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>22.431919832157764</t>
+          <t>14.689721656967492</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5.158228857604072</t>
+          <t>14.288868558790185</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>5.7411913189412545</t>
+          <t>11.983018071872205</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(2, -8)</t>
+          <t>(-10, -4)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6.857446569451285</t>
+          <t>23.814122308369672</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.008758269857956</t>
+          <t>21.37325527521304</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.920764331361552</t>
+          <t>7.998612055031223</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15.85602585837063</t>
+          <t>25.898545628661203</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14.109385202308708</t>
+          <t>3.902816336825839</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.310061353671707</t>
+          <t>25.966685817746228</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13.807338980057606</t>
+          <t>14.62149958020716</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.245088834289905</t>
+          <t>30.554576975231097</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.40227453053594</t>
+          <t>20.99343637742369</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10.02221934926719</t>
+          <t>27.036359958863294</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.6601744921171244</t>
+          <t>18.358518690998427</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18.30422460523138</t>
+          <t>23.435729652403904</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12.199776669670971</t>
+          <t>10.301453922536973</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5.05524097174016</t>
+          <t>9.29445343015221</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>21.617557461173327</t>
+          <t>8.036346230173827</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18.691324411303295</t>
+          <t>17.430533761180474</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>14.818297900397349</t>
+          <t>21.44638958933651</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>18.20798058895046</t>
+          <t>15.15755363191253</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>16.115981147142058</t>
+          <t>13.887294492640475</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>8.688619568318385</t>
+          <t>6.54024056501552</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(-10, -5)</t>
+          <t>(-3, 4)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9.234676258275613</t>
+          <t>15.74441633613425</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.015063274147382</t>
+          <t>20.477702506722505</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.998482558694625</t>
+          <t>12.48231580737016</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.217038652014047</t>
+          <t>15.044961321880503</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>22.248021002773797</t>
+          <t>12.148613262358525</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8.023188072585754</t>
+          <t>13.369343925994132</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10.714454491226348</t>
+          <t>10.077955082184376</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16.708905358270943</t>
+          <t>12.142621206253187</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20.29383517434963</t>
+          <t>9.360087333830004</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>14.74399133820651</t>
+          <t>13.910650865983236</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>20.368884568208653</t>
+          <t>6.952105795033334</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>22.123352089738127</t>
+          <t>22.095373249550832</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14.538233307365505</t>
+          <t>19.712035938519538</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13.302758339960254</t>
+          <t>12.432479369111947</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>24.159656628246747</t>
+          <t>6.0058492111204735</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19.878377456700786</t>
+          <t>5.907850332483153</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>16.906036248804966</t>
+          <t>15.826640940713899</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>13.874245868291872</t>
+          <t>11.1056390577237</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16.237348380931948</t>
+          <t>12.227687185201894</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>15.412183732939754</t>
+          <t>7.927666846512134</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(-1, 6)</t>
+          <t>(-1, -7)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18.71480536649473</t>
+          <t>11.163419893106235</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19.61066787137504</t>
+          <t>9.142381158003573</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.868846460722835</t>
+          <t>4.14681241188375</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17.562177910422083</t>
+          <t>22.15917952745555</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.26274587353511</t>
+          <t>13.312786142540137</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.211934412301373</t>
+          <t>20.87460415172932</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.568035636620738</t>
+          <t>6.822649095071369</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14.792825448076975</t>
+          <t>24.307069020107804</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.478310819122129</t>
+          <t>10.30186248709791</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10.057762172471094</t>
+          <t>15.821345669342739</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>21.10805064025889</t>
+          <t>18.184845434919495</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7.484491598613203</t>
+          <t>9.04861933397815</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>6.622028644547569</t>
+          <t>4.362312213464579</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>15.208884300213443</t>
+          <t>2.330048830824032</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3.3102633921079576</t>
+          <t>7.584338542964877</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>8.953823616828876</t>
+          <t>17.815680684629356</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>4.6676419836966</t>
+          <t>13.157693866021278</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>16.66530912126259</t>
+          <t>10.844534300533518</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>18.212345696440416</t>
+          <t>15.649735230117193</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,119 +2764,231 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>6.860366309427202</t>
+          <t>7.25171765675457</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>(-4, -2)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16.0629122850996</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17.406931327005406</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.986054052685384</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.298412454673194</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.839017537478416</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>13.929147999321199</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7.321414683633304</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>15.373485154113544</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10.086353679453218</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>19.35199620950979</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>14.408820903055274</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>17.853862548758958</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>8.3970278232044</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>8.444552986701192</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.5744209707662478</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>13.393787351525123</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>14.800719145045543</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>7.274671626308403</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>6.759729995523357</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>8.480028066007524</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>(0, 0)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>10.633246182027854</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>9.47487536655706</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.158491111906322</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13.884670247873682</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>12.648302912833621</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>7.436987742261846</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>5.385992774220469</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>6.811064210768353</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>5.466926393675051</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1.7926361037956422</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>11.29185505908756</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>8.192278104716081</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>3.734114048285418</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>11.692023262631526</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>10.11116294139894</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>8.152800625618937</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>5.138719079623564</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>12.095136028462383</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>16.290126661198606</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>6.1196068219548385</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10.355994988636473</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11.279201529872848</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.660414910292568</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15.301834965550679</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12.644924712257648</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10.730954804928102</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5.3084677453069204</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>13.81980447313703</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>5.120741517763794</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10.338432284777841</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>7.118202501246149</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9.944500540528477</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>14.625112099630629</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>9.783450183963321</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>7.135436776158753</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9.294799583806348</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>9.361395909863464</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>14.293910378678055</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>5.501244131540086</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>10.50303271746004</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>4.8464903846277</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,114 +424,114 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(203957296, Omri Ben Shabat: -9,-1)</t>
+          <t>(203957296, Omri Ben Shabat: 4,1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(206532695, Matan Vakrat: -8,5)</t>
+          <t>(206532695, Matan Vakrat: -9,0)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(302962915, Asher  Odeh: 5,9)</t>
+          <t>(302962915, Asher  Odeh: 0,-5)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: 7,0)</t>
+          <t>(308035542, Anastasia  Kubi: 0,-2)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(311177802, Christina  Uksusman: -9,6)</t>
+          <t>(311177802, Christina  Uksusman: 9,-1)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: -5,-2)</t>
+          <t>(305251175, Or  Leder: -5,0)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -7,-9)</t>
+          <t>(308051846, Eyal  Sofer: -10,-9)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -3,0)</t>
+          <t>(312049950, Molham  Peretz: 9,3)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -4,-1)</t>
+          <t>(308073899, Anan  Kirshenbaum: 9,3)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 4,-3)</t>
+          <t>(318869187, Soaad  Leibovich: -9,-3)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -9,-7)</t>
+          <t>(205898513, Asaf  Braymok: -5,8)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 6,2)</t>
+          <t>(318428158, Tal  Asulin: -2,9)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -7,7)</t>
+          <t>(316028364, Sami  Castro: -3,9)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,-5)</t>
+          <t>(318294931, Shalev  Afanasenko: -1,1)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 8,8)</t>
+          <t>(305487936, Avihai  Kipnis: 6,0)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 9,5)</t>
+          <t>(313227928, Aviv  Levi: 1,8)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -10,-1)</t>
+          <t>(205807308, Sariel  Basis: 5,4)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 7,-2)</t>
+          <t>(315891549, Raz  Halaby: 0,4)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 2,-6)</t>
+          <t>(315060103, Dan  Mshelh: 2,6)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -2,3)</t>
+          <t>(313925141, Elad   Amer: 2,-3)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 6,5)</t>
+          <t>(326598423, Ron Cohen: 3,8)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(-9, -1)</t>
+          <t>(4, 1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.693325568864539</t>
+          <t>14.297150389110111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.367138820762893</t>
+          <t>7.708337203856862</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.92629536166542</t>
+          <t>5.708458223791746</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.373810605249794</t>
+          <t>6.1237506610876515</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.940608342985118</t>
+          <t>11.298671914639964</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12.317699773989633</t>
+          <t>24.911034925901873</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.260121045164334</t>
+          <t>6.60585209470525</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.1427959476656655</t>
+          <t>5.429047008938896</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14.123111315317072</t>
+          <t>15.859589022911344</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6.445615100306286</t>
+          <t>16.26223528607895</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16.44876824692689</t>
+          <t>10.77660861058095</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9.869976585232042</t>
+          <t>13.516034879687929</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.979693585544399</t>
+          <t>5.879151103719296</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>28.666840018804887</t>
+          <t>3.1695828217921163</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>23.206064552647646</t>
+          <t>11.128558964251278</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.2617242158945765</t>
+          <t>3.8873007364485015</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20.54417053104489</t>
+          <t>5.317967490020522</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>13.044633457001355</t>
+          <t>6.53835507032619</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>11.95816454376655</t>
+          <t>4.91593352946069</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>16.86174164993893</t>
+          <t>9.437724389564032</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(-8, 5)</t>
+          <t>(-9, 0)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8.480636485861451</t>
+          <t>17.382183890646925</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.069744994113908</t>
+          <t>10.446403325675673</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.413998686318042</t>
+          <t>12.396376981230393</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.9037449801784796</t>
+          <t>26.90518977235221</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.305794471842608</t>
+          <t>4.714626569911405</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.783002918036972</t>
+          <t>13.477791872531567</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8.217800390172094</t>
+          <t>20.701287580487513</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.138926375458398</t>
+          <t>18.611835268215852</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15.216662755137746</t>
+          <t>3.5318551777690366</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.310877133910033</t>
+          <t>12.916891039274635</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21.15365556314708</t>
+          <t>15.664182321943805</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.9955009753298873</t>
+          <t>14.754676237596719</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>12.820829425284618</t>
+          <t>8.622355653375704</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>21.670640206922222</t>
+          <t>22.322142745699825</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19.463106738407518</t>
+          <t>14.189636326546424</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6.749876146428848</t>
+          <t>15.839071762854422</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>23.535542591209474</t>
+          <t>10.062311154628789</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>19.16493262300758</t>
+          <t>17.849894311050534</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>6.654426687240964</t>
+          <t>12.209997538681803</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>17.968744616180455</t>
+          <t>20.96891274454099</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(5, 9)</t>
+          <t>(0, -5)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20.409074757484426</t>
+          <t>7.324217696571776</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.028548290230725</t>
+          <t>12.503996172198748</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.705746702186891</t>
+          <t>3.908063304332725</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21.363050173500543</t>
+          <t>13.753750494362528</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19.428248683369493</t>
+          <t>7.261629065735804</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23.348538588075563</t>
+          <t>11.242386028235048</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16.323080319903458</t>
+          <t>12.363785568527971</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.981591572574967</t>
+          <t>14.230019917705793</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14.330743388807166</t>
+          <t>10.270400616289105</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30.59279846873026</t>
+          <t>16.32520543781869</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9.264300105943821</t>
+          <t>19.70254550592344</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12.205816201876853</t>
+          <t>16.20221144537467</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>21.161158346549854</t>
+          <t>6.862619666084537</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3.264904732114158</t>
+          <t>8.298244927861086</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>7.759485183185882</t>
+          <t>18.276156154092572</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>20.362639976310426</t>
+          <t>13.751966501624326</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11.676628490707014</t>
+          <t>13.108465002794462</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>17.245658327796722</t>
+          <t>12.606017307650166</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>11.97099801156941</t>
+          <t>2.9367603995043776</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>6.015029375594607</t>
+          <t>13.854192462232135</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(7, 0)</t>
+          <t>(0, -2)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19.666398841305398</t>
+          <t>6.2278359717805305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.230082204631653</t>
+          <t>12.981597224211347</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.684811838611134</t>
+          <t>3.5433704888845963</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23.064386343814043</t>
+          <t>10.142173073198155</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14.255409174220258</t>
+          <t>7.784611630275355</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.514391006541235</t>
+          <t>14.417483006118449</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12.645213523616121</t>
+          <t>14.353122184850827</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13.905488489580186</t>
+          <t>13.370833460227635</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6.1580691771286595</t>
+          <t>12.03171344429725</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21.656100300610518</t>
+          <t>12.793052184968657</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.548134187032559</t>
+          <t>14.930635183698769</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>23.012512895815462</t>
+          <t>13.729835538276095</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>20.98710352255716</t>
+          <t>4.336884279591602</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>9.718583108526028</t>
+          <t>7.14561894960423</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5.993016473369261</t>
+          <t>13.6661071013632</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>23.339503395193834</t>
+          <t>8.545082808011735</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.273322658950061</t>
+          <t>7.129332877653859</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>10.351230480544157</t>
+          <t>9.054233647154522</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13.145041905960797</t>
+          <t>2.7917893020483193</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>7.342703046671747</t>
+          <t>14.797558384023642</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(-9, 6)</t>
+          <t>(9, -1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.586894071260698</t>
+          <t>5.949607612528492</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.063795888191096</t>
+          <t>22.389220887796824</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.443509753333174</t>
+          <t>11.017930834321843</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.424556498918232</t>
+          <t>10.14867263747995</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11.115507904969201</t>
+          <t>17.572652860823535</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.617321389115023</t>
+          <t>28.139484095511456</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8.5023815132439</t>
+          <t>5.312700104065561</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.057508200402344</t>
+          <t>5.030299274841544</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>19.878616112694413</t>
+          <t>18.714157227265332</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>14.367597925078606</t>
+          <t>22.04174664893907</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.18635284179293</t>
+          <t>16.94829340344844</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.3041167733203154</t>
+          <t>18.729487222186865</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>15.316321729889502</t>
+          <t>12.74532826704495</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>22.79631117973381</t>
+          <t>3.994909151205836</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23.444322072880762</t>
+          <t>14.98720526524788</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>7.902287508119861</t>
+          <t>9.59865598464455</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>22.46243590186658</t>
+          <t>13.495398474948344</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>17.722893866140513</t>
+          <t>12.860685430346253</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11.305761828242105</t>
+          <t>10.740322246731195</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>15.960584726593586</t>
+          <t>11.01560742958092</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(-5, -2)</t>
+          <t>(-5, 0)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.032354162294968</t>
+          <t>9.434053585328105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.170136679175863</t>
+          <t>4.991060724901198</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.851210586712048</t>
+          <t>10.498606050854146</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16.4239102125781</t>
+          <t>5.9579259698524325</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.730817557947976</t>
+          <t>14.819156260601906</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.24184802388391</t>
+          <t>12.326645118800915</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.0030829855681596</t>
+          <t>17.332904902919346</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.9704370245251512</t>
+          <t>20.020173836379897</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.98470870367292</t>
+          <t>7.281813175788873</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.379512177893352</t>
+          <t>9.633154658022153</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16.0974100441146</t>
+          <t>13.535239359230733</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>12.234482792848747</t>
+          <t>10.358753956188762</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.7624159334366376</t>
+          <t>4.925055615058787</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>22.798934874462624</t>
+          <t>11.04315694873384</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19.67975356750305</t>
+          <t>11.803055201974571</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6.012426377675107</t>
+          <t>14.135951460612851</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>16.39803032026123</t>
+          <t>7.981100497957743</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>9.276673749616341</t>
+          <t>11.66805829323501</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>6.861884767882309</t>
+          <t>10.626945870131157</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>15.024694592470135</t>
+          <t>12.021052044437752</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(-7, -9)</t>
+          <t>(-10, -9)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.861952364808353</t>
+          <t>17.706335181198607</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.99074009865016</t>
+          <t>11.786584176522748</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.160666573033634</t>
+          <t>13.5554603499824</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.350694426808065</t>
+          <t>14.106242417262193</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>18.2757047050988</t>
+          <t>25.342617394731082</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.602442860247883</t>
+          <t>14.246622346331316</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11.269181196427486</t>
+          <t>31.30888354030408</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.076122704967156</t>
+          <t>26.07605824114535</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14.30454246057001</t>
+          <t>7.701812742106752</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3.4997412956976817</t>
+          <t>24.009743146008745</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22.284282759085148</t>
+          <t>23.575697533930857</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>23.75575030420617</t>
+          <t>26.33822433230735</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>4.1707382963888096</t>
+          <t>15.568564733228902</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>33.222137697839486</t>
+          <t>21.72955439082962</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>23.29420895656444</t>
+          <t>25.365647679947323</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>11.969177599434529</t>
+          <t>25.9104729390297</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>21.139568222014343</t>
+          <t>20.91604895796405</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>10.943667798149816</t>
+          <t>22.205949810740275</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>18.982972124172527</t>
+          <t>16.54152783584111</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>22.522580865262324</t>
+          <t>29.046143765825967</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(-3, 0)</t>
+          <t>(9, 3)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6.7580920743149395</t>
+          <t>7.110691218995058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.052831030744406</t>
+          <t>23.85820046166086</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.287104641612284</t>
+          <t>16.94270163640346</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.83231686967022</t>
+          <t>10.415604976105291</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.597727747534432</t>
+          <t>4.992246094093846</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.479176372169999</t>
+          <t>20.244496283485176</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.185115527055439</t>
+          <t>24.919104643240185</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,114 +1360,114 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.9663462792238966</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10.78992941186626</t>
+          <t>22.942033940364606</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.82413831415058</t>
+          <t>18.68402056310336</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11.036018400629434</t>
+          <t>16.596355421164365</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9.712572804994265</t>
+          <t>19.403112338230958</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>9.036907661275198</t>
+          <t>11.975017719651955</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>17.19867638727668</t>
+          <t>5.427010342048558</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>17.73213868519957</t>
+          <t>13.583080188419693</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>8.869935225069783</t>
+          <t>4.737044281627821</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>14.308027270187164</t>
+          <t>13.101309821181394</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>9.97603469456497</t>
+          <t>9.905880201374204</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.921335746302968</t>
+          <t>10.013136722115338</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>10.418939363175413</t>
+          <t>10.199497121468806</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(-4, -1)</t>
+          <t>(9, 3)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6.400313154236303</t>
+          <t>7.360711813072156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8.94220176637662</t>
+          <t>26.987018508901166</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.277837205570181</t>
+          <t>12.244207224956106</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15.068203725119503</t>
+          <t>14.345907144765972</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.520385061174501</t>
+          <t>5.3846224995736955</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.8571700249554859</t>
+          <t>21.302497039010614</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.148688414056776</t>
+          <t>29.322584850534945</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.8070419830471585</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1477,114 +1477,114 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.17324747867677</t>
+          <t>19.989887022427222</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11.529372221147032</t>
+          <t>18.807257326684468</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11.543752395287704</t>
+          <t>14.946748022260602</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>8.603569963369816</t>
+          <t>17.646153484858566</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>5.9905972701380215</t>
+          <t>13.787288333866563</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>18.10999337874263</t>
+          <t>5.506181933822833</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>21.032000672506722</t>
+          <t>12.377526107947077</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.077160123657739</t>
+          <t>5.007114739785431</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>15.314449759063665</t>
+          <t>12.150785064271036</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>10.301135673114299</t>
+          <t>7.728733297226326</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>6.30265956115365</t>
+          <t>13.554017014097704</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>14.537842969028953</t>
+          <t>10.75744101030837</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(4, -3)</t>
+          <t>(-9, -3)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.539025818475261</t>
+          <t>13.971510935509064</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.405838759851914</t>
+          <t>3.7627411359698297</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.97721468987747</t>
+          <t>13.491209169525598</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.640636024166037</t>
+          <t>9.245215443027016</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22.81305707040415</t>
+          <t>24.52448518927685</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13.344109748319243</t>
+          <t>5.899914864369321</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.288410984163688</t>
+          <t>7.506893641601106</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.978111093184582</t>
+          <t>25.5253393747143</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.189076997390021</t>
+          <t>20.75311581250647</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>19.846922673269955</t>
+          <t>14.819289419868841</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7.687689913931013</t>
+          <t>15.98418813241172</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17.1823390788976</t>
+          <t>14.260727497182168</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>14.591804438446568</t>
+          <t>11.493512058365008</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>14.792728362946576</t>
+          <t>21.068637997151114</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11.58788316421945</t>
+          <t>18.633909128932167</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>20.817149788576266</t>
+          <t>19.172834507304646</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3.9694282330565303</t>
+          <t>11.920611904484579</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>4.8504926394062835</t>
+          <t>19.774811052586887</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11.662771253531284</t>
+          <t>14.663425748807242</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>12.258218268095513</t>
+          <t>18.54935333711243</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(-9, -7)</t>
+          <t>(-5, 8)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.150048647954781</t>
+          <t>16.339746365295873</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12.53091682568572</t>
+          <t>10.70159539002405</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.891427013965494</t>
+          <t>16.448841498602878</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18.39949636585921</t>
+          <t>16.57976940313481</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.144321990859016</t>
+          <t>17.900650501674367</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8.588090984954855</t>
+          <t>11.497884123880096</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.065190851997608</t>
+          <t>25.025465378169653</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13.772028930261907</t>
+          <t>16.072049612499953</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.727503359999423</t>
+          <t>15.102578360925794</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>19.07211176449481</t>
+          <t>12.493837312990227</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21.766908904472853</t>
+          <t>4.497621969816236</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17.97564558044731</t>
+          <t>3.3492356498230587</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.102212570999314</t>
+          <t>11.285890971806937</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>29.21445242181246</t>
+          <t>15.777820135016025</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26.691327583549256</t>
+          <t>8.832623297387645</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>7.542544043954769</t>
+          <t>14.025262772109397</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>20.399754654519576</t>
+          <t>9.426101490665543</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>15.699180920189578</t>
+          <t>10.648538810061325</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>14.85764556963008</t>
+          <t>14.193993387069439</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>25.113851454749465</t>
+          <t>8.942978270707696</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(6, 2)</t>
+          <t>(-2, 9)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.492460922017035</t>
+          <t>11.232022290290455</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14.456025303479628</t>
+          <t>15.391013892455161</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.005088332919781</t>
+          <t>19.009882745018892</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.7988980012845883</t>
+          <t>15.038761447982994</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21.083662206904716</t>
+          <t>19.968219131234857</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13.153866197921595</t>
+          <t>9.906985463269294</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.511579074708397</t>
+          <t>27.44559538937527</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10.536617536790727</t>
+          <t>14.462113208755724</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.64900587464896</t>
+          <t>17.176594499763986</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6.212849476396082</t>
+          <t>16.009109882673577</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21.477748895436545</t>
+          <t>3.831927234653919</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>19.88073992973214</t>
+          <t>1.3908035501708413</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>19.460451071496653</t>
+          <t>8.368590733882604</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>7.489302894787156</t>
+          <t>14.255370690158326</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>5.495385973463569</t>
+          <t>4.50711346745965</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>23.181622447471675</t>
+          <t>11.705191438884565</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>4.252535451637224</t>
+          <t>6.36149879418812</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>12.956068531338135</t>
+          <t>6.944638017193828</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>11.71650304201798</t>
+          <t>17.9935029670079</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>4.435065223465223</t>
+          <t>5.451017455104128</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(-7, 7)</t>
+          <t>(-3, 9)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10.236858309761436</t>
+          <t>12.294626095352767</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.6313121870418796</t>
+          <t>13.203383511511838</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.75953552029638</t>
+          <t>14.83840072937629</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18.51681241469883</t>
+          <t>11.966758319488823</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.721545571595282</t>
+          <t>16.41672698958266</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11.691709071624452</t>
+          <t>13.38448616533594</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16.3627053972735</t>
+          <t>27.94070560914243</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11.22748191610284</t>
+          <t>17.61636204622988</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10.037702297344545</t>
+          <t>15.11340862085692</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16.44577751500039</t>
+          <t>19.72848579388298</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17.109782027389308</t>
+          <t>2.83764945420219</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16.315306933083015</t>
+          <t>1.0887731301178416</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>15.883457760707973</t>
+          <t>8.734394939666474</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>16.763801769157897</t>
+          <t>17.923834275693455</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>21.357705497153756</t>
+          <t>4.83189399949816</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>9.792608161281475</t>
+          <t>12.761870926583986</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>23.047437693950744</t>
+          <t>7.278301158715333</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>19.937054222589193</t>
+          <t>8.028666174934026</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>8.602653267301484</t>
+          <t>19.40490528174825</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>15.137386748484573</t>
+          <t>8.754828087543697</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(-7, -5)</t>
+          <t>(-1, 1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.668455208776045</t>
+          <t>6.9753712016066105</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12.951108101081607</t>
+          <t>9.564071441687808</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24.0976507306831</t>
+          <t>6.916284339652133</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15.732671956749307</t>
+          <t>3.5914712438213767</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15.499195311117502</t>
+          <t>14.371721317910515</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.035746519807932</t>
+          <t>4.865755853795801</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.233036186008469</t>
+          <t>19.247863670116953</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.082036601498313</t>
+          <t>12.823970384295901</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.304162839161977</t>
+          <t>10.938247549607635</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16.006961916137165</t>
+          <t>11.96455140517422</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3.2428315311930516</t>
+          <t>10.521474834696452</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21.992096549963083</t>
+          <t>8.989213135269374</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.8113704374389</t>
+          <t>10.968222935609512</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>24.33508258593405</t>
+          <t>9.045626258858913</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>25.701277211242154</t>
+          <t>10.816861401657178</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.036005119096293</t>
+          <t>8.743436041853851</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>18.893382093890825</t>
+          <t>3.794324176539989</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>11.166222020395931</t>
+          <t>5.914828642580516</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>11.546738351190337</t>
+          <t>7.086209097807875</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>24.0058290247033</t>
+          <t>10.752783633723963</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(8, 8)</t>
+          <t>(6, 0)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23.023570975747823</t>
+          <t>2.5489708113898266</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>24.173062176177936</t>
+          <t>21.745854128706</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.169800207894954</t>
+          <t>9.855979268146102</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.144338959384664</t>
+          <t>7.936635280308501</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18.352993240042537</t>
+          <t>3.4863953217916075</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22.604985557259536</t>
+          <t>16.123960617644087</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30.88188397755296</t>
+          <t>24.702111317458506</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14.887703613733754</t>
+          <t>5.5480536858776</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17.738180244887882</t>
+          <t>4.613139504022334</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16.820895917467105</t>
+          <t>20.805518707229364</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>31.72641193624298</t>
+          <t>18.85672841800205</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8.188869197059558</t>
+          <t>15.953968871903527</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>19.40836071994617</t>
+          <t>13.412200726412722</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>28.638506048743565</t>
+          <t>9.328943462543366</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,114 +2179,114 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4.447743904771437</t>
+          <t>13.554912347100663</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>24.862560369863765</t>
+          <t>5.510328442019207</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11.126205811198933</t>
+          <t>7.7979153187320245</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>15.442240051541589</t>
+          <t>10.369743213215818</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>16.094222504758257</t>
+          <t>6.952796793811351</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>4.206803827925521</t>
+          <t>11.525802173007756</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(9, 5)</t>
+          <t>(1, 8)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24.33098008571528</t>
+          <t>8.393351722233568</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19.48104541942239</t>
+          <t>14.35764356290913</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.65950459699122</t>
+          <t>18.936845051179098</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.682536481528523</t>
+          <t>10.963709425631315</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>25.37739707005697</t>
+          <t>17.776715425575304</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16.838290436024682</t>
+          <t>12.968435016811528</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30.98868764275777</t>
+          <t>29.207021665860143</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14.200585760508591</t>
+          <t>13.583652056491566</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.243030894287513</t>
+          <t>11.467677703069274</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12.234019660883023</t>
+          <t>16.20537316488099</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>31.993379203406423</t>
+          <t>6.317157248423236</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5.051302718303515</t>
+          <t>3.6818189619388133</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>22.166046465297892</t>
+          <t>6.072454544059644</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>28.07403693443267</t>
+          <t>8.333159125731205</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>4.169157474573906</t>
+          <t>10.600103287816072</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2296,114 +2296,114 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25.609320326174604</t>
+          <t>6.257054393444087</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>7.4762255259148755</t>
+          <t>5.7247021705872525</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>13.448547517772495</t>
+          <t>2.7656486239847013</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>11.300260784732881</t>
+          <t>13.628390306829655</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>3.375076650956479</t>
+          <t>2.1282577720655436</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(-10, -1)</t>
+          <t>(5, 4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.2698039716686504</t>
+          <t>4.291926477814014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.38627263353</t>
+          <t>19.998130254954887</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.101145405778357</t>
+          <t>12.249682469825645</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17.33714129741642</t>
+          <t>10.928465445948158</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.287000839750476</t>
+          <t>6.767927285119788</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.889395055378973</t>
+          <t>16.05571632139819</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10.51216264772768</t>
+          <t>24.07812568444103</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9.023722440412309</t>
+          <t>6.13070237064687</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.549644316710349</t>
+          <t>6.16599625538491</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18.395997129508793</t>
+          <t>18.71384391557199</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>8.971992136684007</t>
+          <t>11.326097025784481</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20.36924493273344</t>
+          <t>9.950044362180217</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>12.478455030585254</t>
+          <t>10.12412675051772</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5.554479245202042</t>
+          <t>8.087761322973927</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>22.923665291493514</t>
+          <t>5.088240446209402</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23.606598895576596</t>
+          <t>6.1326853425306975</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>17.23922963485931</t>
+          <t>6.660732820768848</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>15.382196737808506</t>
+          <t>4.043280805257109</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>10.528202220615096</t>
+          <t>8.92222372301998</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>19.052907819962947</t>
+          <t>5.943047364208579</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(7, -2)</t>
+          <t>(0, 4)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18.811360914410933</t>
+          <t>6.290052870702444</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21.97890322707328</t>
+          <t>14.722738045092118</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.295595990415968</t>
+          <t>10.017563528425477</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.863127149376878</t>
+          <t>7.346155675478185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24.570404143913233</t>
+          <t>15.364847031121837</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14.455248316635029</t>
+          <t>8.584703233878109</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18.043817124842217</t>
+          <t>23.098058375432853</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13.838447607806293</t>
+          <t>12.655579301398122</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11.58280041168988</t>
+          <t>11.86614091985062</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.9850236387273514</t>
+          <t>12.615456473744828</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18.98606652088878</t>
+          <t>6.460944286579619</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5.641469761346416</t>
+          <t>6.327367863772764</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19.95583482787239</t>
+          <t>6.879071502518945</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18.690369784209658</t>
+          <t>3.7110392955946585</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>13.077479423234253</t>
+          <t>7.814254166037022</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>7.6971102056833764</t>
+          <t>4.246886044047334</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>17.169201397171534</t>
+          <t>6.149777247539423</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>7.514861763510878</t>
+          <t>3.878822028891643</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>11.741324165562858</t>
+          <t>9.13508686045753</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>9.644103573729902</t>
+          <t>6.013195558698574</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(2, -6)</t>
+          <t>(2, 6)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.293944657506067</t>
+          <t>5.877451137402235</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17.035152611718093</t>
+          <t>16.62216237952312</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19.24890243766232</t>
+          <t>14.64151825825221</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.315634619766094</t>
+          <t>11.055752893297203</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>24.25687330134992</t>
+          <t>13.06153365734736</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9.806902134983336</t>
+          <t>9.419484180503897</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13.717945551206881</t>
+          <t>28.68666592320129</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10.114321595429825</t>
+          <t>9.23880110867007</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.874155194161108</t>
+          <t>7.739732107332343</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.567646314102331</t>
+          <t>19.89388657593123</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11.354657984276725</t>
+          <t>9.075358354667518</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11.726812316640023</t>
+          <t>6.236961511324991</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>19.292859226431936</t>
+          <t>5.849507311883926</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13.355647795131894</t>
+          <t>6.452734795383475</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>22.24221263690014</t>
+          <t>8.680070830607777</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15.514591514843621</t>
+          <t>2.5241174379093243</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>18.504659448123714</t>
+          <t>4.817659100848856</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>7.766643675902301</t>
+          <t>4.174565323933999</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12.745880912591584</t>
+          <t>11.708033964229717</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>13.491104431026386</t>
+          <t>2.56140636975885</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(-2, 3)</t>
+          <t>(2, -3)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8.844692465305208</t>
+          <t>4.751464858319505</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8.92262987725753</t>
+          <t>17.053538621030526</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.905859436111882</t>
+          <t>3.44872774095853</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12.636059173006299</t>
+          <t>3.2321876170179973</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.513075039494222</t>
+          <t>8.731807508008423</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6.145963613604627</t>
+          <t>8.27242869472075</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17.22598245278245</t>
+          <t>19.272067667413175</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.3755312841457146</t>
+          <t>12.73276835460619</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6.477750496368975</t>
+          <t>13.01591293867413</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>9.098945502907895</t>
+          <t>13.166093577408304</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>17.465135050085003</t>
+          <t>17.350296348274046</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10.033164118026107</t>
+          <t>18.299341839464493</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>9.088895195660319</t>
+          <t>15.187103344573638</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>11.2198399289941</t>
+          <t>7.470764455337938</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>14.393889968211816</t>
+          <t>6.476064826528925</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15.612832529003441</t>
+          <t>16.23341864386756</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10.94325795391873</t>
+          <t>9.405710868817598</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>14.175474685423028</t>
+          <t>10.914130428558643</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>12.83388146284634</t>
+          <t>12.90876054514462</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,114 +2764,114 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>10.85861954038863</t>
+          <t>15.515191387137463</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(6, 5)</t>
+          <t>(3, 8)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20.4649068598568</t>
+          <t>8.471534425107492</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18.650452347595376</t>
+          <t>18.47464861623169</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.223009428302868</t>
+          <t>17.81614632781476</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.762620136004971</t>
+          <t>14.150115717148175</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>22.028810906829246</t>
+          <t>15.215660249372457</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16.53289377955196</t>
+          <t>13.749689876672276</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>24.58990064361139</t>
+          <t>29.521227847122617</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12.664520171292924</t>
+          <t>10.272355337325497</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16.77856082046209</t>
+          <t>9.365761768999777</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.375637255451066</t>
+          <t>21.64291325727449</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>27.981233255607837</t>
+          <t>11.950748829487562</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3.83974686108113</t>
+          <t>6.775770530834665</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>17.018855366351254</t>
+          <t>7.7344037579189875</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>22.5435880601677</t>
+          <t>8.350479094968085</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>4.864101996770908</t>
+          <t>11.720008574890327</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.338405711994791</t>
+          <t>2.8077733281908053</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>20.174506004020344</t>
+          <t>4.911415970561088</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>7.7552460329696675</t>
+          <t>7.398647240758859</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>12.759391250964578</t>
+          <t>2.8259736433504394</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>10.959391990929833</t>
+          <t>12.270436730386734</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2888,107 +2888,107 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12.513197411368614</t>
+          <t>4.493856524536646</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11.374040452163877</t>
+          <t>10.554678163515144</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14.522826853486242</t>
+          <t>5.302416672175079</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.473223463821743</t>
+          <t>2.6032409562982606</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12.805323171430377</t>
+          <t>9.072174923418656</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.4758711475677675</t>
+          <t>6.609421867188896</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12.797042476176392</t>
+          <t>18.984505082265994</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.2996620349764916</t>
+          <t>9.889361683027504</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.591953783681874</t>
+          <t>9.89521340226308</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6.379706408620306</t>
+          <t>13.842339031861478</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13.429889161829012</t>
+          <t>11.6489150712742</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8.854875383247327</t>
+          <t>9.367866427312302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>10.076201781989504</t>
+          <t>13.965435722942455</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12.696246058619586</t>
+          <t>1.847408367549727</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>15.885040734891797</t>
+          <t>8.317870738112536</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11.435940176604722</t>
+          <t>8.85011092836329</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12.725920788912424</t>
+          <t>6.5912027134982525</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>8.762888778475919</t>
+          <t>5.986481518621355</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>8.59896186589199</t>
+          <t>9.301885149544884</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>4.280581835488246</t>
+          <t>3.619361733205344</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>7.925701238666617</t>
+          <t>12.062407803622232</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,114 +424,114 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(203957296, Omri Ben Shabat: 4,1)</t>
+          <t>(203957296, Omri Ben Shabat: 1,4)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(206532695, Matan Vakrat: -9,0)</t>
+          <t>(206532695, Matan Vakrat: 3,0)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(302962915, Asher  Odeh: 0,-5)</t>
+          <t>(302962915, Asher  Odeh: -9,-6)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: 0,-2)</t>
+          <t>(308035542, Anastasia  Kubi: 0,2)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(311177802, Christina  Uksusman: 9,-1)</t>
+          <t>(311177802, Christina  Uksusman: -7,8)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: -5,0)</t>
+          <t>(305251175, Or  Leder: 2,-6)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -10,-9)</t>
+          <t>(308051846, Eyal  Sofer: -5,3)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 9,3)</t>
+          <t>(312049950, Molham  Peretz: 7,2)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 9,3)</t>
+          <t>(308073899, Anan  Kirshenbaum: 5,-1)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -9,-3)</t>
+          <t>(318869187, Soaad  Leibovich: 4,-4)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -5,8)</t>
+          <t>(205898513, Asaf  Braymok: 3,-4)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -2,9)</t>
+          <t>(318428158, Tal  Asulin: -6,2)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -3,9)</t>
+          <t>(316028364, Sami  Castro: -1,6)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -1,1)</t>
+          <t>(318294931, Shalev  Afanasenko: -7,-4)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 6,0)</t>
+          <t>(305487936, Avihai  Kipnis: -4,1)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 1,8)</t>
+          <t>(313227928, Aviv  Levi: 1,-10)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 5,4)</t>
+          <t>(205807308, Sariel  Basis: -2,-8)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 0,4)</t>
+          <t>(315891549, Raz  Halaby: -10,5)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 2,6)</t>
+          <t>(315060103, Dan  Mshelh: -6,1)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 2,-3)</t>
+          <t>(313925141, Elad   Amer: -6,4)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 3,8)</t>
+          <t>(326598423, Ron Cohen: -3,8)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(4, 1)</t>
+          <t>(1, 4)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.297150389110111</t>
+          <t>5.098823773394889</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.708337203856862</t>
+          <t>17.493023894457426</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.708458223791746</t>
+          <t>2.5621253837982434</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.1237506610876515</t>
+          <t>12.781464118469275</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.298671914639964</t>
+          <t>14.17370224441576</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24.911034925901873</t>
+          <t>7.321762902084794</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.60585209470525</t>
+          <t>6.798014158852737</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5.429047008938896</t>
+          <t>8.009117148653873</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.859589022911344</t>
+          <t>8.869997827611614</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16.26223528607895</t>
+          <t>11.158391303809745</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10.77660861058095</t>
+          <t>9.586938896232075</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13.516034879687929</t>
+          <t>3.0256186353659085</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.879151103719296</t>
+          <t>11.366679528105074</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3.1695828217921163</t>
+          <t>7.5386040847448905</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>11.128558964251278</t>
+          <t>17.26178125163537</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.8873007364485015</t>
+          <t>17.181289215968626</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5.317967490020522</t>
+          <t>14.177158207475795</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>6.53835507032619</t>
+          <t>10.526668045070064</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.91593352946069</t>
+          <t>8.717791010450831</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>9.437724389564032</t>
+          <t>6.232275627652778</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(-9, 0)</t>
+          <t>(3, 0)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17.382183890646925</t>
+          <t>4.7493112012088226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.446403325675673</t>
+          <t>14.583659545906984</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12.396376981230393</t>
+          <t>4.757296534238818</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26.90518977235221</t>
+          <t>15.296461848807747</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.714626569911405</t>
+          <t>6.636081725583204</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13.477791872531567</t>
+          <t>10.721351354863325</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20.701287580487513</t>
+          <t>5.951156444807301</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18.611835268215852</t>
+          <t>2.277276430193288</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.5318551777690366</t>
+          <t>5.886634920348182</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12.916891039274635</t>
+          <t>5.3979241204934505</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15.664182321943805</t>
+          <t>10.812170855264503</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>14.754676237596719</t>
+          <t>10.647007593747555</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>8.622355653375704</t>
+          <t>12.07375023521022</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>22.322142745699825</t>
+          <t>8.731132484832132</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>14.189636326546424</t>
+          <t>12.598135245410496</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>15.839071762854422</t>
+          <t>13.678700656983736</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>10.062311154628789</t>
+          <t>14.46670344267261</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>17.849894311050534</t>
+          <t>10.46930841647467</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12.209997538681803</t>
+          <t>12.578440555772946</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>20.96891274454099</t>
+          <t>13.664415504766751</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(0, -5)</t>
+          <t>(-9, -6)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.324217696571776</t>
+          <t>17.512410322287145</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.503996172198748</t>
+          <t>19.03135109324704</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.908063304332725</t>
+          <t>13.513506640159394</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.753750494362528</t>
+          <t>18.833377365380613</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.261629065735804</t>
+          <t>15.516502643514068</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.242386028235048</t>
+          <t>14.68890848466598</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12.363785568527971</t>
+          <t>21.380210085848585</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.230019917705793</t>
+          <t>18.142355004558798</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10.270400616289105</t>
+          <t>17.951762535807802</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16.32520543781869</t>
+          <t>15.830115544201995</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19.70254550592344</t>
+          <t>12.756065639422419</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>16.20221144537467</t>
+          <t>20.50230678614727</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6.862619666084537</t>
+          <t>3.557914174843168</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>8.298244927861086</t>
+          <t>11.978434055871007</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>18.276156154092572</t>
+          <t>11.668218915091696</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>13.751966501624326</t>
+          <t>7.781121247757869</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>13.108465002794462</t>
+          <t>13.12721606909391</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>12.606017307650166</t>
+          <t>9.166384456498472</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.9367603995043776</t>
+          <t>12.472954751754518</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>13.854192462232135</t>
+          <t>18.12218375880082</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(0, -2)</t>
+          <t>(0, 2)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.2278359717805305</t>
+          <t>2.538638877447707</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.981597224211347</t>
+          <t>4.3398161707828535</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.5433704888845963</t>
+          <t>16.814814671966946</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.142173073198155</t>
+          <t>11.702671700739943</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.784611630275355</t>
+          <t>11.767340562961317</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.417483006118449</t>
+          <t>6.945004301970917</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14.353122184850827</t>
+          <t>7.41101799786546</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13.370833460227635</t>
+          <t>6.750912501239162</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.03171344429725</t>
+          <t>7.845374210092855</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12.793052184968657</t>
+          <t>7.071456364386929</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14.930635183698769</t>
+          <t>6.150347464685661</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>13.729835538276095</t>
+          <t>4.770513991486008</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.336884279591602</t>
+          <t>12.604518743033104</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>7.14561894960423</t>
+          <t>5.101062630182778</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13.6661071013632</t>
+          <t>14.332564929611674</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>8.545082808011735</t>
+          <t>11.251667418292167</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>7.129332877653859</t>
+          <t>15.060405699271422</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>9.054233647154522</t>
+          <t>6.116799740781832</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.7917893020483193</t>
+          <t>8.353520345386704</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>14.797558384023642</t>
+          <t>10.018095731731535</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(9, -1)</t>
+          <t>(-7, 8)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.949607612528492</t>
+          <t>12.26343633864148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22.389220887796824</t>
+          <t>16.66108215435768</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.017930834321843</t>
+          <t>20.809152041469414</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.14867263747995</t>
+          <t>13.345047679168347</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17.572652860823535</t>
+          <t>17.49975801677891</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28.139484095511456</t>
+          <t>6.190979147008408</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.312700104065561</t>
+          <t>15.830193004845171</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5.030299274841544</t>
+          <t>18.433989086891977</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>18.714157227265332</t>
+          <t>21.678048963247118</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>22.04174664893907</t>
+          <t>18.006804140126103</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.94829340344844</t>
+          <t>6.804103605243424</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>18.729487222186865</t>
+          <t>8.317575486416647</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12.74532826704495</t>
+          <t>14.36388020918496</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3.994909151205836</t>
+          <t>9.444475293227967</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>14.98720526524788</t>
+          <t>29.517797279119783</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>9.59865598464455</t>
+          <t>21.36297714738465</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>13.495398474948344</t>
+          <t>4.437452579236696</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>12.860685430346253</t>
+          <t>10.15409211106543</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>10.740322246731195</t>
+          <t>5.475576894606837</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>11.01560742958092</t>
+          <t>4.848831538886404</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(-5, 0)</t>
+          <t>(2, -6)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.434053585328105</t>
+          <t>12.575421756471064</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.991060724901198</t>
+          <t>7.523011091781661</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.498606050854146</t>
+          <t>11.885165235160704</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.9579259698524325</t>
+          <t>11.964650104998077</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.819156260601906</t>
+          <t>18.413057826105913</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.326645118800915</t>
+          <t>11.614330965224521</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17.332904902919346</t>
+          <t>12.66751163707961</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20.020173836379897</t>
+          <t>8.653766484093234</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7.281813175788873</t>
+          <t>4.047945819033846</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.633154658022153</t>
+          <t>3.290537821299991</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13.535239359230733</t>
+          <t>13.316873373150592</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>10.358753956188762</t>
+          <t>17.809099471409525</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.925055615058787</t>
+          <t>12.927671952512378</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>11.04315694873384</t>
+          <t>10.936136678169696</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11.803055201974571</t>
+          <t>4.945037769049691</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>14.135951460612851</t>
+          <t>6.0319576404337365</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>7.981100497957743</t>
+          <t>23.74550693478903</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>11.66805829323501</t>
+          <t>11.769500251988948</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>10.626945870131157</t>
+          <t>16.338930455877033</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>12.021052044437752</t>
+          <t>22.027444024192896</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(-10, -9)</t>
+          <t>(-5, 3)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17.706335181198607</t>
+          <t>6.262199845769213</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11.786584176522748</t>
+          <t>9.388710360236997</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.5554603499824</t>
+          <t>10.06446432006162</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14.106242417262193</t>
+          <t>5.218154446097364</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>25.342617394731082</t>
+          <t>6.990151496520497</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14.246622346331316</t>
+          <t>12.709798581296717</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31.30888354030408</t>
+          <t>17.709643722342506</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>26.07605824114535</t>
+          <t>10.839110631372817</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7.701812742106752</t>
+          <t>15.67939532129834</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>24.009743146008745</t>
+          <t>13.122659786556241</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23.575697533930857</t>
+          <t>1.8680711574967483</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>26.33822433230735</t>
+          <t>6.704246820239508</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>15.568564733228902</t>
+          <t>9.567535060550298</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>21.72955439082962</t>
+          <t>2.372542548694021</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>25.365647679947323</t>
+          <t>18.94847731294397</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25.9104729390297</t>
+          <t>15.70233453902472</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>20.91604895796405</t>
+          <t>5.808139576015094</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>22.205949810740275</t>
+          <t>2.3350137154830057</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16.54152783584111</t>
+          <t>1.586140587969215</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>29.046143765825967</t>
+          <t>6.628531942152762</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(9, 3)</t>
+          <t>(7, 2)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.110691218995058</t>
+          <t>8.16778156363814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23.85820046166086</t>
+          <t>4.506152435624574</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.94270163640346</t>
+          <t>21.842456011210356</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.415604976105291</t>
+          <t>7.217670702145515</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.992246094093846</t>
+          <t>20.443299592319832</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20.244496283485176</t>
+          <t>13.448876060707565</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.919104643240185</t>
+          <t>15.127288745868302</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,231 +1360,231 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.132489239149415</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>22.942033940364606</t>
+          <t>7.246657492273195</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>18.68402056310336</t>
+          <t>9.952899862010025</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16.596355421164365</t>
+          <t>15.887970459122117</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.403112338230958</t>
+          <t>13.222571773592673</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11.975017719651955</t>
+          <t>20.127503852770772</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5.427010342048558</t>
+          <t>16.02775952413776</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13.583080188419693</t>
+          <t>19.805513833925545</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>4.737044281627821</t>
+          <t>15.881985155585708</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>13.101309821181394</t>
+          <t>21.43753494661876</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>9.905880201374204</t>
+          <t>18.080768001326838</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>10.013136722115338</t>
+          <t>19.55572680432481</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>10.199497121468806</t>
+          <t>17.239333643155646</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(9, 3)</t>
+          <t>(5, -1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.360711813072156</t>
+          <t>8.306527528878446</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26.987018508901166</t>
+          <t>2.527299293915304</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.244207224956106</t>
+          <t>16.82446504356111</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14.345907144765972</t>
+          <t>7.3698619934926315</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.3846224995736955</t>
+          <t>17.64054730688481</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21.302497039010614</t>
+          <t>6.969375183595496</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>29.322584850534945</t>
+          <t>11.776045308936785</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>4.471499437959596</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19.989887022427222</t>
+          <t>3.1622984822646893</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18.807257326684468</t>
+          <t>4.212484954790544</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14.946748022260602</t>
+          <t>16.398462863776516</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>17.646153484858566</t>
+          <t>12.700649902872142</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>13.787288333866563</t>
+          <t>17.1622466988288</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>5.506181933822833</t>
+          <t>13.795743599744155</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12.377526107947077</t>
+          <t>13.095808321549855</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>5.007114739785431</t>
+          <t>12.24149456749774</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12.150785064271036</t>
+          <t>19.10812550765219</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>7.728733297226326</t>
+          <t>15.647904053207322</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13.554017014097704</t>
+          <t>14.124281464951315</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>10.75744101030837</t>
+          <t>14.053690347526661</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(-9, -3)</t>
+          <t>(4, -4)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13.971510935509064</t>
+          <t>11.902986331996717</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.7627411359698297</t>
+          <t>4.481478680443118</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.491209169525598</t>
+          <t>13.319705903025124</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.245215443027016</t>
+          <t>9.82449149935687</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24.52448518927685</t>
+          <t>19.86204663168443</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5.899914864369321</t>
+          <t>3.20268135212031</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.506893641601106</t>
+          <t>16.16409862370689</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25.5253393747143</t>
+          <t>9.881774649752607</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20.75311581250647</t>
+          <t>4.56859526631489</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14.819289419868841</t>
+          <t>1.434578339296972</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>15.98418813241172</t>
+          <t>16.320851936809238</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>14.260727497182168</t>
+          <t>15.450211146965925</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11.493512058365008</t>
+          <t>12.95188361468579</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>21.068637997151114</t>
+          <t>13.079363834983852</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18.633909128932167</t>
+          <t>8.42760362539554</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>19.172834507304646</t>
+          <t>10.265064239970677</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11.920611904484579</t>
+          <t>17.68646134036727</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>19.774811052586887</t>
+          <t>15.970474275237075</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>14.663425748807242</t>
+          <t>17.768383329140466</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>18.54935333711243</t>
+          <t>19.256960446666454</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(-5, 8)</t>
+          <t>(3, -4)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16.339746365295873</t>
+          <t>8.840711980031152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.70159539002405</t>
+          <t>5.138652898911106</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.448841498602878</t>
+          <t>16.737898318574544</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16.57976940313481</t>
+          <t>8.65379115296384</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17.900650501674367</t>
+          <t>19.193722520369704</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.497884123880096</t>
+          <t>2.9636679504624133</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25.025465378169653</t>
+          <t>12.277554681719392</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16.072049612499953</t>
+          <t>10.724883828285444</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15.102578360925794</t>
+          <t>4.903932287844736</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.493837312990227</t>
+          <t>1.314926552681961</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4.497621969816236</t>
+          <t>11.39564703590683</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.3492356498230587</t>
+          <t>11.260066486243916</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>11.285890971806937</t>
+          <t>12.837451462876306</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>15.777820135016025</t>
+          <t>10.786670144437952</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8.832623297387645</t>
+          <t>8.211818926998413</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>14.025262772109397</t>
+          <t>8.333086916952402</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>9.426101490665543</t>
+          <t>17.753841443771954</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>10.648538810061325</t>
+          <t>10.517511558298562</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>14.193993387069439</t>
+          <t>17.880410200825832</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>8.942978270707696</t>
+          <t>13.692784738615883</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(-2, 9)</t>
+          <t>(-6, 2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11.232022290290455</t>
+          <t>7.639232528764555</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15.391013892455161</t>
+          <t>10.277948452233915</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19.009882745018892</t>
+          <t>12.529491926393787</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.038761447982994</t>
+          <t>6.283037772912852</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19.968219131234857</t>
+          <t>8.38292504408489</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9.906985463269294</t>
+          <t>11.686809481133798</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>27.44559538937527</t>
+          <t>1.4290774453532533</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14.462113208755724</t>
+          <t>13.092501565228257</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.176594499763986</t>
+          <t>12.79349510425861</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16.009109882673577</t>
+          <t>13.720733355044528</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3.831927234653919</t>
+          <t>11.286382544014838</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.3908035501708413</t>
+          <t>7.770293245626123</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>8.368590733882604</t>
+          <t>8.685512525292872</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>14.255370690158326</t>
+          <t>2.6710522154904863</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>4.50711346745965</t>
+          <t>14.648520808712517</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>11.705191438884565</t>
+          <t>15.602494288744298</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>6.36149879418812</t>
+          <t>7.335954848151152</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>6.944638017193828</t>
+          <t>1.3284816478125003</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>17.9935029670079</t>
+          <t>2.4957508556327586</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>5.451017455104128</t>
+          <t>9.55287815742904</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(-3, 9)</t>
+          <t>(-1, 6)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.294626095352767</t>
+          <t>2.8443805835958154</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.203383511511838</t>
+          <t>8.873057880881987</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14.83840072937629</t>
+          <t>19.02056013049891</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11.966758319488823</t>
+          <t>4.487890660193928</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16.41672698958266</t>
+          <t>6.748536803775344</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13.38448616533594</t>
+          <t>14.285602963359311</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27.94070560914243</t>
+          <t>6.461190693069833</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17.61636204622988</t>
+          <t>12.168984343492976</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>15.11340862085692</t>
+          <t>11.604764496047078</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19.72848579388298</t>
+          <t>16.3296067311078</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.83764945420219</t>
+          <t>12.183254633684161</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.0887731301178416</t>
+          <t>8.599299642483428</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>8.734394939666474</t>
+          <t>15.011769228422398</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>17.923834275693455</t>
+          <t>7.914072605683963</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>4.83189399949816</t>
+          <t>22.3357815638004</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>12.761870926583986</t>
+          <t>21.02800484739334</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>7.278301158715333</t>
+          <t>10.738908615331638</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>8.028666174934026</t>
+          <t>7.71566313346517</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19.40490528174825</t>
+          <t>7.7825960524920195</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>8.754828087543697</t>
+          <t>3.441140689873558</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(-1, 1)</t>
+          <t>(-7, -4)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6.9753712016066105</t>
+          <t>12.609797576905144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.564071441687808</t>
+          <t>13.836126761572629</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.916284339652133</t>
+          <t>2.926959646752101</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.5914712438213767</t>
+          <t>11.074004178213011</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14.371721317910515</t>
+          <t>16.68329809172696</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.865755853795801</t>
+          <t>12.452194506214095</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19.247863670116953</t>
+          <t>8.930322171663793</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12.823970384295901</t>
+          <t>15.641370989894241</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.938247549607635</t>
+          <t>13.79729125509249</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11.96455140517422</t>
+          <t>14.930177284192094</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.521474834696452</t>
+          <t>10.163185297918712</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8.989213135269374</t>
+          <t>8.27493980251607</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.968222935609512</t>
+          <t>15.118517397292807</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>9.045626258858913</t>
+          <t>8.241590054784877</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10.816861401657178</t>
+          <t>12.802529482175256</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8.743436041853851</t>
+          <t>8.612315708626177</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>3.794324176539989</t>
+          <t>11.797194209551924</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>5.914828642580516</t>
+          <t>6.865568501612049</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>7.086209097807875</t>
+          <t>10.014800573189465</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>10.752783633723963</t>
+          <t>13.837923834253404</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(6, 0)</t>
+          <t>(-4, 1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.5489708113898266</t>
+          <t>7.959571417441657</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21.745854128706</t>
+          <t>9.969537809835439</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.855979268146102</t>
+          <t>12.580021464818268</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.936635280308501</t>
+          <t>4.363065519807341</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.4863953217916075</t>
+          <t>8.905903876091378</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16.123960617644087</t>
+          <t>10.070667482031196</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.702111317458506</t>
+          <t>2.5582187651713957</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.5480536858776</t>
+          <t>12.218362279240964</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.613139504022334</t>
+          <t>13.288835844023465</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20.805518707229364</t>
+          <t>9.528081851501135</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18.85672841800205</t>
+          <t>9.01690681107184</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15.953968871903527</t>
+          <t>3.285543657369099</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>13.412200726412722</t>
+          <t>7.144410575163625</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>9.328943462543366</t>
+          <t>8.70481057076282</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,114 +2179,114 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13.554912347100663</t>
+          <t>12.196676716138052</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5.510328442019207</t>
+          <t>11.210681136896493</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>7.7979153187320245</t>
+          <t>9.960392523948789</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>10.369743213215818</t>
+          <t>2.310745261277507</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>6.952796793811351</t>
+          <t>4.402009247486925</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11.525802173007756</t>
+          <t>9.596900995083162</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(1, 8)</t>
+          <t>(1, -10)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.393351722233568</t>
+          <t>14.813491977766834</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14.35764356290913</t>
+          <t>13.83073148965265</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.936845051179098</t>
+          <t>12.294228686886266</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.963709425631315</t>
+          <t>17.570678301355873</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>17.776715425575304</t>
+          <t>21.541206419349642</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12.968435016811528</t>
+          <t>5.4943332230456425</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>29.207021665860143</t>
+          <t>17.75638437811357</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13.583652056491566</t>
+          <t>16.343754115376502</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.467677703069274</t>
+          <t>14.480857522147254</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>16.20537316488099</t>
+          <t>6.877780431550169</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6.317157248423236</t>
+          <t>7.143020397453572</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3.6818189619388133</t>
+          <t>15.029429558191435</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6.072454544059644</t>
+          <t>17.361300325571317</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>8.333159125731205</t>
+          <t>14.473902124615572</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>10.600103287816072</t>
+          <t>13.784446190706403</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2296,114 +2296,114 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>6.257054393444087</t>
+          <t>4.293645358919736</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5.7247021705872525</t>
+          <t>18.957968192795597</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2.7656486239847013</t>
+          <t>17.005257510451333</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13.628390306829655</t>
+          <t>21.015612488166674</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2.1282577720655436</t>
+          <t>21.251171317670554</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(5, 4)</t>
+          <t>(-2, -8)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.291926477814014</t>
+          <t>15.026585445111358</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19.998130254954887</t>
+          <t>10.772788741028334</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.249682469825645</t>
+          <t>7.9804308946121125</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.928465445948158</t>
+          <t>13.862514560358107</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.767927285119788</t>
+          <t>19.301244172761198</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16.05571632139819</t>
+          <t>6.510651190287197</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.07812568444103</t>
+          <t>12.452009145062817</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.13070237064687</t>
+          <t>13.494101155619504</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.16599625538491</t>
+          <t>11.749802270632909</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18.71384391557199</t>
+          <t>9.474070105983621</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11.326097025784481</t>
+          <t>7.78483318540468</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9.950044362180217</t>
+          <t>12.207277015693224</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.12412675051772</t>
+          <t>16.165951891914563</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>8.087761322973927</t>
+          <t>8.114418117068393</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>5.088240446209402</t>
+          <t>11.56304135263499</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>6.1326853425306975</t>
+          <t>3.6950681382920645</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>6.660732820768848</t>
+          <t>21.678768631074128</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>4.043280805257109</t>
+          <t>12.074735364719869</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>8.92222372301998</t>
+          <t>15.224361474639146</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>5.943047364208579</t>
+          <t>20.996626713667162</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(0, 4)</t>
+          <t>(-10, 5)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6.290052870702444</t>
+          <t>13.842779997582504</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.722738045092118</t>
+          <t>14.35033146774</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.017563528425477</t>
+          <t>12.8982900322996</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.346155675478185</t>
+          <t>15.143891005023495</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15.364847031121837</t>
+          <t>5.33570980101643</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8.584703233878109</t>
+          <t>18.65154354131481</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23.098058375432853</t>
+          <t>5.732458296036561</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.655579301398122</t>
+          <t>21.330664510663414</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11.86614091985062</t>
+          <t>20.025535701398546</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12.615456473744828</t>
+          <t>21.55576934148856</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>6.460944286579619</t>
+          <t>17.321675960874</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6.327367863772764</t>
+          <t>5.487751700994281</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6.879071502518945</t>
+          <t>11.162477898831584</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3.7110392955946585</t>
+          <t>10.354713647558238</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>7.814254166037022</t>
+          <t>10.081788904758314</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4.246886044047334</t>
+          <t>21.352900843793435</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6.149777247539423</t>
+          <t>16.221111583979713</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>3.878822028891643</t>
+          <t>7.506808358576844</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>9.13508686045753</t>
+          <t>4.448021038989227</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>6.013195558698574</t>
+          <t>10.93824451518468</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(2, 6)</t>
+          <t>(-6, 1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.877451137402235</t>
+          <t>9.555540531762384</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16.62216237952312</t>
+          <t>10.766597180509068</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14.64151825825221</t>
+          <t>7.8541356127545745</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11.055752893297203</t>
+          <t>6.9191322734266825</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13.06153365734736</t>
+          <t>8.446441846003454</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9.419484180503897</t>
+          <t>15.142096241521003</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>28.68666592320129</t>
+          <t>3.263233864839512</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.23880110867007</t>
+          <t>14.594552542200052</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.739732107332343</t>
+          <t>11.606363083507448</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19.89388657593123</t>
+          <t>16.47901278798856</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.075358354667518</t>
+          <t>10.548715349710813</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6.236961511324991</t>
+          <t>1.0575984024458729</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5.849507311883926</t>
+          <t>10.443251165325771</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>6.452734795383475</t>
+          <t>6.077552900413656</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>8.680070830607777</t>
+          <t>2.2364013525404065</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.5241174379093243</t>
+          <t>17.37015099970083</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>4.817659100848856</t>
+          <t>11.732954557694331</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>4.174565323933999</t>
+          <t>7.517289375764283</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>11.708033964229717</t>
+          <t>3.2944243892268004</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2.56140636975885</t>
+          <t>9.023873360032908</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(2, -3)</t>
+          <t>(-6, 4)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.751464858319505</t>
+          <t>7.552309171185692</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17.053538621030526</t>
+          <t>12.962118524848616</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.44872774095853</t>
+          <t>13.923459330241176</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.2321876170179973</t>
+          <t>8.423372065409312</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.731807508008423</t>
+          <t>5.354931115338227</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.27242869472075</t>
+          <t>17.69443899900313</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19.272067667413175</t>
+          <t>2.110809661148006</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12.73276835460619</t>
+          <t>14.33466152155157</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13.01591293867413</t>
+          <t>14.311343954574841</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13.166093577408304</t>
+          <t>12.80935708787052</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>17.350296348274046</t>
+          <t>13.150208169769085</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>18.299341839464493</t>
+          <t>2.5690540434121925</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>15.187103344573638</t>
+          <t>8.038969187013619</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>7.470764455337938</t>
+          <t>11.009378782732806</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>6.476064826528925</t>
+          <t>4.944646872045019</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>16.23341864386756</t>
+          <t>17.216589858398613</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>9.405710868817598</t>
+          <t>15.257476866823437</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>10.914130428558643</t>
+          <t>5.6821164127302835</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>12.90876054514462</t>
+          <t>3.9457623565263655</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,114 +2764,114 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>15.515191387137463</t>
+          <t>6.214514766875312</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(3, 8)</t>
+          <t>(-3, 8)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8.471534425107492</t>
+          <t>8.232184623537938</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18.47464861623169</t>
+          <t>10.070379222461003</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.81614632781476</t>
+          <t>22.035868847530775</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14.150115717148175</t>
+          <t>8.395383964751124</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15.215660249372457</t>
+          <t>4.685341705284075</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13.749689876672276</t>
+          <t>19.779124730896395</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29.521227847122617</t>
+          <t>5.778320978346658</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.272355337325497</t>
+          <t>12.872343987490199</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.365761768999777</t>
+          <t>16.396620301573506</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21.64291325727449</t>
+          <t>15.33816535503918</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.950748829487562</t>
+          <t>18.14774794188608</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6.775770530834665</t>
+          <t>7.992685614642391</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>7.7344037579189875</t>
+          <t>3.23879301349093</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>8.350479094968085</t>
+          <t>15.52564384264525</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>11.720008574890327</t>
+          <t>9.988303730798368</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2.8077733281908053</t>
+          <t>27.42170736496511</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>4.911415970561088</t>
+          <t>17.363581640654264</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>7.398647240758859</t>
+          <t>9.57755724855367</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2.8259736433504394</t>
+          <t>7.667792340304858</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12.270436730386734</t>
+          <t>5.826129893623166</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2888,107 +2888,107 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.493856524536646</t>
+          <t>5.520527110974393</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.554678163515144</t>
+          <t>3.763799393527141</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.302416672175079</t>
+          <t>12.8884026636372</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.6032409562982606</t>
+          <t>2.6259189200255664</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9.072174923418656</t>
+          <t>11.330218394818356</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.609421867188896</t>
+          <t>6.859173342575318</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18.984505082265994</t>
+          <t>5.959399598474281</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9.889361683027504</t>
+          <t>8.677048894158329</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9.89521340226308</t>
+          <t>5.273274899327934</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13.842339031861478</t>
+          <t>7.287394248540312</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11.6489150712742</t>
+          <t>7.38037984456144</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9.367866427312302</t>
+          <t>7.020262555175579</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.965435722942455</t>
+          <t>7.925850527908936</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.847408367549727</t>
+          <t>9.297789829918843</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>8.317870738112536</t>
+          <t>4.295157523034168</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8.85011092836329</t>
+          <t>11.653294478734338</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>6.5912027134982525</t>
+          <t>10.482818563670731</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5.986481518621355</t>
+          <t>11.760402300294409</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>9.301885149544884</t>
+          <t>6.346144051550125</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>3.619361733205344</t>
+          <t>7.766882046930084</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>12.062407803622232</t>
+          <t>10.801982303294544</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,114 +424,114 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(203957296, Omri Ben Shabat: 1,4)</t>
+          <t>(203957296, Omri Ben Shabat: 6,4)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(206532695, Matan Vakrat: 3,0)</t>
+          <t>(206532695, Matan Vakrat: 9,1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(302962915, Asher  Odeh: -9,-6)</t>
+          <t>(302962915, Asher  Odeh: -3,-7)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: 0,2)</t>
+          <t>(308035542, Anastasia  Kubi: -4,9)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(311177802, Christina  Uksusman: -7,8)</t>
+          <t>(311177802, Christina  Uksusman: -2,-8)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: 2,-6)</t>
+          <t>(305251175, Or  Leder: -2,6)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -5,3)</t>
+          <t>(308051846, Eyal  Sofer: 5,1)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 7,2)</t>
+          <t>(312049950, Molham  Peretz: 2,-6)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 5,-1)</t>
+          <t>(308073899, Anan  Kirshenbaum: -6,-7)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 4,-4)</t>
+          <t>(318869187, Soaad  Leibovich: -8,-6)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 3,-4)</t>
+          <t>(205898513, Asaf  Braymok: -3,8)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -6,2)</t>
+          <t>(318428158, Tal  Asulin: 5,-3)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -1,6)</t>
+          <t>(316028364, Sami  Castro: -9,-4)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,-4)</t>
+          <t>(318294931, Shalev  Afanasenko: 3,8)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -4,1)</t>
+          <t>(305487936, Avihai  Kipnis: 1,1)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 1,-10)</t>
+          <t>(313227928, Aviv  Levi: 8,1)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -2,-8)</t>
+          <t>(205807308, Sariel  Basis: -10,-8)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -10,5)</t>
+          <t>(315891549, Raz  Halaby: -4,-5)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -6,1)</t>
+          <t>(315060103, Dan  Mshelh: -1,9)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -6,4)</t>
+          <t>(313925141, Elad   Amer: 2,6)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: -3,8)</t>
+          <t>(326598423, Ron Cohen: 3,-10)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(1, 4)</t>
+          <t>(6, 4)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.098823773394889</t>
+          <t>4.541183685682339</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.493023894457426</t>
+          <t>20.70686570340796</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.5621253837982434</t>
+          <t>16.452244582353817</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.781464118469275</t>
+          <t>21.028143539135943</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.17370224441576</t>
+          <t>10.104612737764173</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.321762902084794</t>
+          <t>4.706199566971304</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.798014158852737</t>
+          <t>10.878019848000598</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.009117148653873</t>
+          <t>19.76040658798868</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.869997827611614</t>
+          <t>18.977740474095334</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.158391303809745</t>
+          <t>14.375334900700105</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9.586938896232075</t>
+          <t>8.867402945553115</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3.0256186353659085</t>
+          <t>22.53029571433957</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>11.366679528105074</t>
+          <t>5.728106191193419</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7.5386040847448905</t>
+          <t>6.543040510394439</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17.26178125163537</t>
+          <t>5.3897816267416525</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>17.181289215968626</t>
+          <t>29.15508569028286</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>14.177158207475795</t>
+          <t>18.820982487467667</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10.526668045070064</t>
+          <t>11.178937340439774</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>8.717791010450831</t>
+          <t>5.4165801140789585</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>6.232275627652778</t>
+          <t>14.639900427111725</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(3, 0)</t>
+          <t>(9, 1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.7493112012088226</t>
+          <t>4.328894406977952</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.583659545906984</t>
+          <t>18.691959932731447</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.757296534238818</t>
+          <t>19.590561549444995</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.296461848807747</t>
+          <t>19.700988000034148</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.636081725583204</t>
+          <t>15.965854387098666</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.721351354863325</t>
+          <t>4.267826403832025</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.951156444807301</t>
+          <t>13.535754486407539</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.277276430193288</t>
+          <t>22.059434594720408</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5.886634920348182</t>
+          <t>25.433091902827744</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.3979241204934505</t>
+          <t>14.185125252680708</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10.812170855264503</t>
+          <t>5.702035969774197</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10.647007593747555</t>
+          <t>24.32901434786461</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>12.07375023521022</t>
+          <t>12.32792302355786</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>8.731132484832132</t>
+          <t>9.033079509033996</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12.598135245410496</t>
+          <t>1.367026524531033</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>13.678700656983736</t>
+          <t>28.621814133893313</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>14.46670344267261</t>
+          <t>19.197226854617085</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>10.46930841647467</t>
+          <t>18.200346591252575</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12.578440555772946</t>
+          <t>11.540060284731283</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>13.664415504766751</t>
+          <t>18.093928608215922</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-9, -6)</t>
+          <t>(-3, -7)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17.512410322287145</t>
+          <t>16.85199973421702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19.03135109324704</t>
+          <t>20.53030339274948</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.513506640159394</t>
+          <t>18.571862923500085</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.833377365380613</t>
+          <t>2.020138376000168</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.516502643514068</t>
+          <t>15.533084282648861</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.68890848466598</t>
+          <t>14.453067963588468</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21.380210085848585</t>
+          <t>5.844030022426413</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18.142355004558798</t>
+          <t>4.309320754523749</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17.951762535807802</t>
+          <t>5.462237380294773</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.830115544201995</t>
+          <t>19.031203686465044</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12.756065639422419</t>
+          <t>13.19203631275038</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>20.50230678614727</t>
+          <t>6.956928581814824</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.557914174843168</t>
+          <t>21.844896815702157</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>11.978434055871007</t>
+          <t>12.228851785088112</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11.668218915091696</t>
+          <t>19.640371173877288</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.781121247757869</t>
+          <t>8.876701276663464</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>13.12721606909391</t>
+          <t>3.312742458302667</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>9.166384456498472</t>
+          <t>22.482943954697042</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12.472954751754518</t>
+          <t>17.400157841713305</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>18.12218375880082</t>
+          <t>7.144845549582144</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(0, 2)</t>
+          <t>(-4, 9)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.538638877447707</t>
+          <t>16.470203787883246</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.3398161707828535</t>
+          <t>22.87181950256295</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.814814671966946</t>
+          <t>23.654871697798733</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.702671700739943</t>
+          <t>25.551907468381852</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.767340562961317</t>
+          <t>4.2465334181594026</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.945004301970917</t>
+          <t>15.86535519714599</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.41101799786546</t>
+          <t>16.504264547935698</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6.750912501239162</t>
+          <t>16.899965100803016</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7.845374210092855</t>
+          <t>17.96079424381975</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.071456364386929</t>
+          <t>1.4289013957610115</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6.150347464685661</t>
+          <t>16.06302164203394</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.770513991486008</t>
+          <t>20.196178652076025</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12.604518743033104</t>
+          <t>10.160521430485002</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5.101062630182778</t>
+          <t>12.370946077802538</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14.332564929611674</t>
+          <t>14.779349262074055</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>11.251667418292167</t>
+          <t>22.044489998881378</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>15.060405699271422</t>
+          <t>17.882411321773304</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>6.116799740781832</t>
+          <t>3.396148050525407</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>8.353520345386704</t>
+          <t>9.092457783167932</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>10.018095731731535</t>
+          <t>29.141864729971957</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(-7, 8)</t>
+          <t>(-2, -8)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.26343633864148</t>
+          <t>16.038401455302274</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.66108215435768</t>
+          <t>19.551176236158803</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.809152041469414</t>
+          <t>1.4567624876030472</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.345047679168347</t>
+          <t>19.890384548425875</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17.49975801677891</t>
+          <t>19.540481442135214</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.190979147008408</t>
+          <t>11.984587598254498</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15.830193004845171</t>
+          <t>5.728265628547259</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18.433989086891977</t>
+          <t>4.239817555087672</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21.678048963247118</t>
+          <t>7.123193243577903</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18.006804140126103</t>
+          <t>21.804975151421793</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.804103605243424</t>
+          <t>11.758200434272673</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8.317575486416647</t>
+          <t>11.369035616431692</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>14.36388020918496</t>
+          <t>19.48125457271306</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>9.444475293227967</t>
+          <t>10.639649638139177</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29.517797279119783</t>
+          <t>17.60758192344488</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>21.36297714738465</t>
+          <t>10.268682544359766</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4.437452579236696</t>
+          <t>4.385409339386197</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>10.15409211106543</t>
+          <t>24.416737054550946</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.475576894606837</t>
+          <t>19.63001140726489</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.848831538886404</t>
+          <t>6.65540734473746</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(2, -6)</t>
+          <t>(-2, 6)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.575421756471064</t>
+          <t>8.722043676954492</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.523011091781661</t>
+          <t>14.722381542933855</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.885165235160704</t>
+          <t>19.15655440310195</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.964650104998077</t>
+          <t>5.385386661646978</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.413057826105913</t>
+          <t>15.600482676476492</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.614330965224521</t>
+          <t>11.591781114652786</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.66751163707961</t>
+          <t>13.73264332574402</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.653766484093234</t>
+          <t>18.961987946748103</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.047945819033846</t>
+          <t>17.791295597651214</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.290537821299991</t>
+          <t>2.7351820340388446</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13.316873373150592</t>
+          <t>14.51912465146788</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17.809099471409525</t>
+          <t>16.540636914200277</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12.927671952512378</t>
+          <t>7.22864139205299</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>10.936136678169696</t>
+          <t>6.193688186637933</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.945037769049691</t>
+          <t>16.33151881939759</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6.0319576404337365</t>
+          <t>19.034940577898578</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23.74550693478903</t>
+          <t>11.423803875262026</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>11.769500251988948</t>
+          <t>4.3508741471383985</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16.338930455877033</t>
+          <t>5.308180865379228</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>22.027444024192896</t>
+          <t>23.542020643364825</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(-5, 3)</t>
+          <t>(5, 1)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6.262199845769213</t>
+          <t>3.949693323757518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.388710360236997</t>
+          <t>5.651908432822619</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.06446432006162</t>
+          <t>14.52748611829943</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.218154446097364</t>
+          <t>17.4683542205505</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.990151496520497</t>
+          <t>15.341044073745884</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12.709798581296717</t>
+          <t>11.730337296300654</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17.709643722342506</t>
+          <t>9.962363643548459</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.839110631372817</t>
+          <t>14.135656250926084</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>15.67939532129834</t>
+          <t>17.3855323476323</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13.122659786556241</t>
+          <t>15.31663751337898</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.8680711574967483</t>
+          <t>5.569429969548616</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6.704246820239508</t>
+          <t>19.663368658014477</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.567535060550298</t>
+          <t>9.665614338665405</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2.372542548694021</t>
+          <t>4.20282065296701</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>18.94847731294397</t>
+          <t>3.552115078027775</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>15.70233453902472</t>
+          <t>19.363009942657943</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5.808139576015094</t>
+          <t>12.121323310115562</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.3350137154830057</t>
+          <t>10.003261916484123</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.586140587969215</t>
+          <t>7.455894140657686</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6.628531942152762</t>
+          <t>16.368813033875913</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(7, 2)</t>
+          <t>(2, -6)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.16778156363814</t>
+          <t>11.808952379313693</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.506152435624574</t>
+          <t>10.869856959584265</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.842456011210356</t>
+          <t>5.659613931351428</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.217670702145515</t>
+          <t>23.687062822364208</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>20.443299592319832</t>
+          <t>6.700741063728838</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13.448876060707565</t>
+          <t>16.198677002481528</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.127288745868302</t>
+          <t>10.560832250612096</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,114 +1360,114 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.132489239149415</t>
+          <t>8.746143784641035</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.246657492273195</t>
+          <t>11.114752740796462</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.952899862010025</t>
+          <t>17.72330316703581</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.887970459122117</t>
+          <t>6.292691428456626</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>13.222571773592673</t>
+          <t>14.921374807384092</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>20.127503852770772</t>
+          <t>19.887179127088835</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>16.02775952413776</t>
+          <t>8.074087866430036</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>19.805513833925545</t>
+          <t>13.690516298052525</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>15.881985155585708</t>
+          <t>12.546666580535687</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>21.43753494661876</t>
+          <t>8.876784962455607</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>18.080768001326838</t>
+          <t>21.274373413193093</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>19.55572680432481</t>
+          <t>14.657892364280881</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>17.239333643155646</t>
+          <t>4.649967832719618</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(5, -1)</t>
+          <t>(-6, -7)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.306527528878446</t>
+          <t>17.01829540809517</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.527299293915304</t>
+          <t>23.559049526725737</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.82446504356111</t>
+          <t>4.48900762594935</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.3698619934926315</t>
+          <t>21.140050577209333</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17.64054730688481</t>
+          <t>4.816137684035528</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.969375183595496</t>
+          <t>20.22774467800148</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.776045308936785</t>
+          <t>14.41694439533992</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.471499437959596</t>
+          <t>11.48294483496183</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1477,114 +1477,114 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3.1622984822646893</t>
+          <t>2.9798316819079087</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4.212484954790544</t>
+          <t>22.404969829681118</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16.398462863776516</t>
+          <t>12.830405763109749</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>12.700649902872142</t>
+          <t>5.875483954566854</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17.1622466988288</t>
+          <t>25.382077092785718</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>13.795743599744155</t>
+          <t>13.988547039228662</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13.095808321549855</t>
+          <t>17.208672289193334</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12.24149456749774</t>
+          <t>6.122772637233207</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>19.10812550765219</t>
+          <t>3.9246210575079483</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>15.647904053207322</t>
+          <t>21.47469710322364</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14.124281464951315</t>
+          <t>19.65037189319844</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>14.053690347526661</t>
+          <t>10.612242126869301</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(4, -4)</t>
+          <t>(-8, -6)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11.902986331996717</t>
+          <t>23.071935829400775</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.481478680443118</t>
+          <t>23.758853991628328</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.319705903025124</t>
+          <t>5.992676256991477</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.82449149935687</t>
+          <t>16.43570027056015</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19.86204663168443</t>
+          <t>7.532939973254936</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.20268135212031</t>
+          <t>18.72365746874076</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>16.16409862370689</t>
+          <t>18.677266345349633</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9.881774649752607</t>
+          <t>14.734343763647592</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.56859526631489</t>
+          <t>2.94242808976498</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.434578339296972</t>
+          <t>15.689818440075081</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16.320851936809238</t>
+          <t>15.32847814912898</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>15.450211146965925</t>
+          <t>3.0354529962299</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12.95188361468579</t>
+          <t>21.613038308420176</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>13.079363834983852</t>
+          <t>16.674633431818467</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>8.42760362539554</t>
+          <t>22.930518906344513</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>10.265064239970677</t>
+          <t>4.051672301328409</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>17.68646134036727</t>
+          <t>4.7680892106557184</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>15.970474275237075</t>
+          <t>20.75511209524957</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>17.768383329140466</t>
+          <t>21.7699086997139</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>19.256960446666454</t>
+          <t>17.032943626001174</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(3, -4)</t>
+          <t>(-3, 8)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.840711980031152</t>
+          <t>11.495644933922181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.138652898911106</t>
+          <t>16.198968545895195</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.737898318574544</t>
+          <t>21.34821325753402</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.65379115296384</t>
+          <t>2.0197441016351374</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.193722520369704</t>
+          <t>16.046707413373205</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.9636679504624133</t>
+          <t>3.0637034693417693</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12.277554681719392</t>
+          <t>11.658152265382396</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.724883828285444</t>
+          <t>19.27329980412855</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.903932287844736</t>
+          <t>20.587776707731756</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.314926552681961</t>
+          <t>17.408720777723598</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11.39564703590683</t>
+          <t>18.117644238869964</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11.260066486243916</t>
+          <t>13.572487453463825</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12.837451462876306</t>
+          <t>8.30897984445246</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>10.786670144437952</t>
+          <t>11.369704046504847</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8.211818926998413</t>
+          <t>17.375083615526414</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>8.333086916952402</t>
+          <t>25.576195141123197</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>17.753841443771954</t>
+          <t>15.419933629425115</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>10.517511558298562</t>
+          <t>2.5072735535889343</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>17.880410200825832</t>
+          <t>6.084264199731447</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>13.692784738615883</t>
+          <t>28.076631035588466</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(-6, 2)</t>
+          <t>(5, -3)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.639232528764555</t>
+          <t>7.52308457524964</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.277948452233915</t>
+          <t>7.912625511371892</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.529491926393787</t>
+          <t>12.783509625817794</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.283037772912852</t>
+          <t>15.856017436619986</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.38292504408489</t>
+          <t>8.657002177670472</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11.686809481133798</t>
+          <t>15.133042786979113</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.4290774453532533</t>
+          <t>5.943308722075743</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13.092501565228257</t>
+          <t>6.196186365213956</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.79349510425861</t>
+          <t>17.312872469902253</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13.720733355044528</t>
+          <t>18.876057820276248</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.286382544014838</t>
+          <t>17.329751374050467</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7.770293245626123</t>
+          <t>20.058945400572167</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>8.685512525292872</t>
+          <t>11.951844350509951</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.6710522154904863</t>
+          <t>5.797232929323594</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>14.648520808712517</t>
+          <t>5.636451468504953</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>15.602494288744298</t>
+          <t>19.886412487362698</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>7.335954848151152</t>
+          <t>10.101505279135713</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.3284816478125003</t>
+          <t>16.566532640994016</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2.4957508556327586</t>
+          <t>11.838626670572202</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>9.55287815742904</t>
+          <t>9.653805666531682</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(-1, 6)</t>
+          <t>(-9, -4)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.8443805835958154</t>
+          <t>18.28839005655915</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8.873057880881987</t>
+          <t>26.602034000245038</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19.02056013049891</t>
+          <t>6.962556704774945</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.487890660193928</t>
+          <t>14.864900250481616</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.748536803775344</t>
+          <t>11.86127120112629</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14.285602963359311</t>
+          <t>13.784193554076547</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.461190693069833</t>
+          <t>21.54260869217283</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12.168984343492976</t>
+          <t>12.261117935628615</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.604764496047078</t>
+          <t>5.779020085202467</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16.3296067311078</t>
+          <t>2.346661930898041</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12.183254633684161</t>
+          <t>16.892702245734014</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>8.599299642483428</t>
+          <t>16.045751114483327</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>15.011769228422398</t>
+          <t>23.2606906530245</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>7.914072605683963</t>
+          <t>11.88711535224032</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22.3357815638004</t>
+          <t>23.837145339319278</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>21.02800484739334</t>
+          <t>4.3039733214939835</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>10.738908615331638</t>
+          <t>5.488828051031365</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>7.71566313346517</t>
+          <t>17.705347574072615</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>7.7825960524920195</t>
+          <t>18.33563896897413</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3.441140689873558</t>
+          <t>18.86094773120587</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(-7, -4)</t>
+          <t>(3, 8)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.609797576905144</t>
+          <t>5.632365064867889</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13.836126761572629</t>
+          <t>10.59332328596168</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.926959646752101</t>
+          <t>20.294321110534863</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11.074004178213011</t>
+          <t>9.669186351423694</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16.68329809172696</t>
+          <t>16.77376642491693</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12.452194506214095</t>
+          <t>5.890985413873272</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.930322171663793</t>
+          <t>10.451688977156437</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15.641370989894241</t>
+          <t>15.730183384497803</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.79729125509249</t>
+          <t>21.666492191885684</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.930177284192094</t>
+          <t>26.30054748811053</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.163185297918712</t>
+          <t>6.69770754832726</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8.27493980251607</t>
+          <t>15.878019896589386</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15.118517397292807</t>
+          <t>24.926949662460494</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>8.241590054784877</t>
+          <t>9.507038119285001</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12.802529482175256</t>
+          <t>12.033369391182209</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8.612315708626177</t>
+          <t>24.956386551450247</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11.797194209551924</t>
+          <t>18.705346419332354</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>6.865568501612049</t>
+          <t>6.070895814101448</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>10.014800573189465</t>
+          <t>3.260973807954277</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>13.837923834253404</t>
+          <t>19.036665999316085</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(-4, 1)</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.959571417441657</t>
+          <t>7.424803268004906</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.969537809835439</t>
+          <t>11.005398691764558</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.580021464818268</t>
+          <t>11.22997102934696</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.363065519807341</t>
+          <t>13.601670459965058</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.905903876091378</t>
+          <t>10.455906319161745</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10.070667482031196</t>
+          <t>6.437323695394239</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.5582187651713957</t>
+          <t>5.946014332366377</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.218362279240964</t>
+          <t>10.21331736330841</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.288835844023465</t>
+          <t>13.957195744243307</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.528081851501135</t>
+          <t>14.122017103112814</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.01690681107184</t>
+          <t>9.983351346112586</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3.285543657369099</t>
+          <t>6.215769585910573</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>7.144410575163625</t>
+          <t>12.071648841299776</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8.70481057076282</t>
+          <t>10.300043677587354</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,114 +2179,114 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12.196676716138052</t>
+          <t>9.978057921572754</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>11.210681136896493</t>
+          <t>17.380098173699267</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>9.960392523948789</t>
+          <t>10.570870433925554</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.310745261277507</t>
+          <t>8.323357057352581</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>4.402009247486925</t>
+          <t>5.565403696358966</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>9.596900995083162</t>
+          <t>15.748871945511123</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(1, -10)</t>
+          <t>(8, 1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.813491977766834</t>
+          <t>5.109512486640248</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13.83073148965265</t>
+          <t>1.4103207688838408</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.294228686886266</t>
+          <t>15.675218057904688</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17.570678301355873</t>
+          <t>16.010512684254735</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21.541206419349642</t>
+          <t>14.178644304721695</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.4943332230456425</t>
+          <t>13.443733292681433</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17.75638437811357</t>
+          <t>4.431687739613041</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16.343754115376502</t>
+          <t>10.521248516594538</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>14.480857522147254</t>
+          <t>24.147753897831187</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6.877780431550169</t>
+          <t>22.481236984691293</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.143020397453572</t>
+          <t>16.232980930869804</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15.029429558191435</t>
+          <t>5.301181210058879</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17.361300325571317</t>
+          <t>18.855448088112038</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>14.473902124615572</t>
+          <t>11.892740177873145</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>13.784446190706403</t>
+          <t>10.093101584164234</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2296,114 +2296,114 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4.293645358919736</t>
+          <t>20.282503996536033</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>18.957968192795597</t>
+          <t>19.028848238147948</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>17.005257510451333</t>
+          <t>14.248660740770069</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>21.015612488166674</t>
+          <t>11.275203134240185</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>21.251171317670554</t>
+          <t>13.450352456084573</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(-2, -8)</t>
+          <t>(-10, -8)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15.026585445111358</t>
+          <t>21.639106648268136</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.772788741028334</t>
+          <t>22.882490249295284</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.9804308946121125</t>
+          <t>7.861305204422067</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13.862514560358107</t>
+          <t>21.331086388731908</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>19.301244172761198</t>
+          <t>8.579024743691104</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.510651190287197</t>
+          <t>16.16819395519555</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12.452009145062817</t>
+          <t>18.439634393518467</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13.494101155619504</t>
+          <t>15.56798886765857</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.749802270632909</t>
+          <t>5.3932599156892875</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9.474070105983621</t>
+          <t>3.2060636485535157</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7.78483318540468</t>
+          <t>18.90302240471215</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12.207277015693224</t>
+          <t>19.700120425611416</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>16.165951891914563</t>
+          <t>4.212368800587775</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>8.114418117068393</t>
+          <t>28.523526207092143</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>11.56304135263499</t>
+          <t>18.363234822613858</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.6950681382920645</t>
+          <t>23.65815614484023</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>21.678768631074128</t>
+          <t>7.252930758628882</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>12.074735364719869</t>
+          <t>24.637933929075917</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>15.224361474639146</t>
+          <t>18.837865815821843</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>20.996626713667162</t>
+          <t>15.216165249465122</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(-10, 5)</t>
+          <t>(-4, -5)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13.842779997582504</t>
+          <t>18.778250138285173</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.35033146774</t>
+          <t>16.530277668028667</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.8982900322996</t>
+          <t>2.5550232314405426</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15.143891005023495</t>
+          <t>14.250804988755139</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.33570980101643</t>
+          <t>4.328179156121685</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18.65154354131481</t>
+          <t>16.74850728668927</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5.732458296036561</t>
+          <t>15.818713738662055</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21.330664510663414</t>
+          <t>6.756797361145852</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20.025535701398546</t>
+          <t>3.3803504328219396</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>21.55576934148856</t>
+          <t>4.144507834911753</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>17.321675960874</t>
+          <t>19.20493421662075</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5.487751700994281</t>
+          <t>10.236144261588821</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>11.162477898831584</t>
+          <t>7.19471571165</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10.354713647558238</t>
+          <t>17.222581538429427</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>10.081788904758314</t>
+          <t>7.961926251211233</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>21.352900843793435</t>
+          <t>15.951709320747678</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>16.221111583979713</t>
+          <t>7.6423156457055965</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>7.506808358576844</t>
+          <t>18.046876351631166</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4.448021038989227</t>
+          <t>18.176897515069456</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>10.93824451518468</t>
+          <t>11.211227756799255</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(-6, 1)</t>
+          <t>(-1, 9)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9.555540531762384</t>
+          <t>11.421227320457778</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.766597180509068</t>
+          <t>14.342742405308092</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.8541356127545745</t>
+          <t>20.346394695557557</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.9191322734266825</t>
+          <t>4.030575278185883</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.446441846003454</t>
+          <t>23.632990591215155</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15.142096241521003</t>
+          <t>3.7758316338045304</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.263233864839512</t>
+          <t>11.204139690443249</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14.594552542200052</t>
+          <t>21.92656463594524</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.606363083507448</t>
+          <t>22.064329513921642</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>16.47901278798856</t>
+          <t>24.397743042089267</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.548715349710813</t>
+          <t>2.304045877298547</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.0575984024458729</t>
+          <t>18.322748096192267</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.443251165325771</t>
+          <t>15.49601760153985</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>6.077552900413656</t>
+          <t>4.223393026725871</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.2364013525404065</t>
+          <t>10.119604486127118</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>17.37015099970083</t>
+          <t>13.244511364242975</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>11.732954557694331</t>
+          <t>28.083417116072273</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>7.517289375764283</t>
+          <t>19.998315935509016</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>3.2944243892268004</t>
+          <t>4.454137666094282</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>9.023873360032908</t>
+          <t>21.742272952513314</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(-6, 4)</t>
+          <t>(2, 6)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.552309171185692</t>
+          <t>6.293760788032969</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12.962118524848616</t>
+          <t>9.548538871041991</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13.923459330241176</t>
+          <t>14.009251667121283</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.423372065409312</t>
+          <t>8.250048533877688</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.354931115338227</t>
+          <t>14.993286697352703</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17.69443899900313</t>
+          <t>4.913225863815747</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.110809661148006</t>
+          <t>7.803630383722747</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14.33466152155157</t>
+          <t>17.718109671831463</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14.311343954574841</t>
+          <t>21.692203201706295</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12.80935708787052</t>
+          <t>18.177103158034015</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13.150208169769085</t>
+          <t>7.785980250332991</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2.5690540434121925</t>
+          <t>13.172154900742909</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>8.038969187013619</t>
+          <t>14.928509310506415</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>11.009378782732806</t>
+          <t>2.3070221991910427</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>4.944646872045019</t>
+          <t>7.061183888552228</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>17.216589858398613</t>
+          <t>9.709385606032413</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>15.257476866823437</t>
+          <t>26.571949913529348</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5.6821164127302835</t>
+          <t>18.445212956932533</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>3.9457623565263655</t>
+          <t>5.753531056118555</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,114 +2764,114 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>6.214514766875312</t>
+          <t>18.30552513355288</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(-3, 8)</t>
+          <t>(3, -10)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8.232184623537938</t>
+          <t>21.141459983396352</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.070379222461003</t>
+          <t>17.528204331281614</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22.035868847530775</t>
+          <t>7.434237671734926</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.395383964751124</t>
+          <t>25.88721161444841</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.685341705284075</t>
+          <t>7.045813914452002</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19.779124730896395</t>
+          <t>17.50752646931589</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5.778320978346658</t>
+          <t>14.207512591689401</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12.872343987490199</t>
+          <t>5.439818648573439</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16.396620301573506</t>
+          <t>11.904882069098331</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>15.33816535503918</t>
+          <t>14.977054639028827</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>18.14774794188608</t>
+          <t>25.741769551733828</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7.992685614642391</t>
+          <t>7.96075262941338</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3.23879301349093</t>
+          <t>16.06649287523456</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>15.52564384264525</t>
+          <t>26.644345594547534</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>9.988303730798368</t>
+          <t>12.829179531323536</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27.42170736496511</t>
+          <t>12.672881551242027</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>17.363581640654264</t>
+          <t>17.47813269955892</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>9.57755724855367</t>
+          <t>11.350468354216451</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>7.667792340304858</t>
+          <t>23.088630304094675</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>5.826129893623166</t>
+          <t>16.462934329101767</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2888,107 +2888,107 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.520527110974393</t>
+          <t>10.258460708027354</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.763799393527141</t>
+          <t>9.825531230195972</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.8884026636372</t>
+          <t>8.659816599742133</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.6259189200255664</t>
+          <t>10.279587461883716</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.330218394818356</t>
+          <t>10.83939987862704</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.859173342575318</t>
+          <t>6.687853817528357</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5.959399598474281</t>
+          <t>6.528088229953557</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.677048894158329</t>
+          <t>8.104060973635137</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.273274899327934</t>
+          <t>12.732013282965733</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.287394248540312</t>
+          <t>11.212592244984156</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.38037984456144</t>
+          <t>12.761957907269462</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7.020262555175579</t>
+          <t>8.385341760154608</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>7.925850527908936</t>
+          <t>12.394791323068343</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>9.297789829918843</t>
+          <t>8.913832793440275</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4.295157523034168</t>
+          <t>1.6454755976725617</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11.653294478734338</t>
+          <t>8.640389801399726</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>10.482818563670731</t>
+          <t>18.520095690089153</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>11.760402300294409</t>
+          <t>7.879687119561234</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>6.346144051550125</t>
+          <t>12.575428047411732</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7.766882046930084</t>
+          <t>8.524485869730473</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>10.801982303294544</t>
+          <t>11.871726160875216</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,114 +424,114 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>(203957296, Omri Ben Shabat: 6,4)</t>
+          <t>(203957296, Omri Ben Shabat: -2,-3)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(206532695, Matan Vakrat: 9,1)</t>
+          <t>(206532695, Matan Vakrat: -1,-6)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(302962915, Asher  Odeh: -3,-7)</t>
+          <t>(302962915, Asher  Odeh: -8,5)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: -4,9)</t>
+          <t>(308035542, Anastasia  Kubi: 4,5)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(311177802, Christina  Uksusman: -2,-8)</t>
+          <t>(311177802, Christina  Uksusman: -10,4)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: -2,6)</t>
+          <t>(305251175, Or  Leder: -10,-6)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: 5,1)</t>
+          <t>(308051846, Eyal  Sofer: 4,7)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 2,-6)</t>
+          <t>(312049950, Molham  Peretz: -8,8)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -6,-7)</t>
+          <t>(308073899, Anan  Kirshenbaum: -1,-9)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -8,-6)</t>
+          <t>(318869187, Soaad  Leibovich: 0,3)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -3,8)</t>
+          <t>(205898513, Asaf  Braymok: 7,5)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 5,-3)</t>
+          <t>(318428158, Tal  Asulin: 2,2)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -9,-4)</t>
+          <t>(316028364, Sami  Castro: 6,8)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 3,8)</t>
+          <t>(318294931, Shalev  Afanasenko: 5,9)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 1,1)</t>
+          <t>(305487936, Avihai  Kipnis: -6,-9)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 8,1)</t>
+          <t>(313227928, Aviv  Levi: -8,-7)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -10,-8)</t>
+          <t>(205807308, Sariel  Basis: -2,-9)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -4,-5)</t>
+          <t>(315891549, Raz  Halaby: 2,5)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -1,9)</t>
+          <t>(315060103, Dan  Mshelh: 3,8)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 2,6)</t>
+          <t>(313925141, Elad   Amer: 8,5)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 3,-10)</t>
+          <t>(326598423, Ron Cohen: 5,-1)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(6, 4)</t>
+          <t>(-2, -3)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,114 +541,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.541183685682339</t>
+          <t>4.30989271675637</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.70686570340796</t>
+          <t>12.378634937651793</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16.452244582353817</t>
+          <t>13.606353865284222</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21.028143539135943</t>
+          <t>12.303521773724668</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.104612737764173</t>
+          <t>9.112201851748932</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.706199566971304</t>
+          <t>16.27777327700037</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.878019848000598</t>
+          <t>14.37928015841615</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.76040658798868</t>
+          <t>8.046576329087845</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18.977740474095334</t>
+          <t>7.142169713514112</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>14.375334900700105</t>
+          <t>13.75058491173359</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8.867402945553115</t>
+          <t>8.740269409263666</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22.53029571433957</t>
+          <t>15.718323268551936</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.728106191193419</t>
+          <t>19.37413439622778</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>6.543040510394439</t>
+          <t>7.907583226651302</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>5.3897816267416525</t>
+          <t>8.971769668762978</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>29.15508569028286</t>
+          <t>8.82396584955157</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18.820982487467667</t>
+          <t>12.123385251182032</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>11.178937340439774</t>
+          <t>13.098539648007806</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>5.4165801140789585</t>
+          <t>16.775625128895747</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>14.639900427111725</t>
+          <t>10.343181373743446</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(9, 1)</t>
+          <t>(-1, -6)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.328894406977952</t>
+          <t>3.2630251290684753</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -658,114 +658,114 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.691959932731447</t>
+          <t>16.97096883734227</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19.590561549444995</t>
+          <t>12.328532060764056</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19.700988000034148</t>
+          <t>14.466312769053298</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15.965854387098666</t>
+          <t>9.526691369352369</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.267826403832025</t>
+          <t>16.63845436335063</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13.535754486407539</t>
+          <t>19.89452960019427</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22.059434594720408</t>
+          <t>3.129298623930482</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>25.433091902827744</t>
+          <t>10.177038818959225</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14.185125252680708</t>
+          <t>13.871185969263571</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5.702035969774197</t>
+          <t>9.361339827322741</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24.32901434786461</t>
+          <t>16.79649183709907</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>12.32792302355786</t>
+          <t>19.10893446712106</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>9.033079509033996</t>
+          <t>8.64110945630289</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.367026524531033</t>
+          <t>10.148168469122067</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>28.621814133893313</t>
+          <t>3.6215567034124803</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>19.197226854617085</t>
+          <t>16.544244124383816</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>18.200346591252575</t>
+          <t>17.92572590561703</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>11.540060284731283</t>
+          <t>14.472871806699803</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>18.093928608215922</t>
+          <t>10.865379005598422</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-3, -7)</t>
+          <t>(-8, 5)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16.85199973421702</t>
+          <t>14.545668833895824</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20.53030339274948</t>
+          <t>19.44152133169512</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -775,114 +775,114 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.571862923500085</t>
+          <t>16.072666586872764</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.020138376000168</t>
+          <t>2.3030469333879244</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.533084282648861</t>
+          <t>15.628683426924354</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.453067963588468</t>
+          <t>14.01959719050185</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.844030022426413</t>
+          <t>3.5193032503593713</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.309320754523749</t>
+          <t>22.848716475773323</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5.462237380294773</t>
+          <t>9.467226586805094</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19.031203686465044</t>
+          <t>20.02825213095375</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13.19203631275038</t>
+          <t>11.855819586014313</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6.956928581814824</t>
+          <t>15.112870105480058</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>21.844896815702157</t>
+          <t>16.3642660523875</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>12.228851785088112</t>
+          <t>15.652007241603922</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19.640371173877288</t>
+          <t>13.741394958412982</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>8.876701276663464</t>
+          <t>16.700605673103233</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.312742458302667</t>
+          <t>12.382057747532059</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>22.482943954697042</t>
+          <t>12.309331663091365</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>17.400157841713305</t>
+          <t>20.620984080451553</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>7.144845549582144</t>
+          <t>14.456182993253112</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(-4, 9)</t>
+          <t>(4, 5)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16.470203787883246</t>
+          <t>10.954211092430164</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22.87181950256295</t>
+          <t>13.476359265781637</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.654871697798733</t>
+          <t>15.116859719106468</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -892,114 +892,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25.551907468381852</t>
+          <t>18.074285379570448</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.2465334181594026</t>
+          <t>19.574577157958437</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.86535519714599</t>
+          <t>2.9505497247508283</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16.504264547935698</t>
+          <t>18.509831028679944</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16.899965100803016</t>
+          <t>20.05305826037831</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17.96079424381975</t>
+          <t>6.26849171993052</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.4289013957610115</t>
+          <t>4.074949057282227</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16.06302164203394</t>
+          <t>4.124959097409756</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>20.196178652076025</t>
+          <t>4.142182803644974</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10.160521430485002</t>
+          <t>5.975988715079884</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>12.370946077802538</t>
+          <t>22.206798928676086</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14.779349262074055</t>
+          <t>18.671119512234064</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>22.044489998881378</t>
+          <t>18.477385698052572</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>17.882411321773304</t>
+          <t>2.906553101552776</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3.396148050525407</t>
+          <t>3.965978884554468</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>9.092457783167932</t>
+          <t>5.95309476579803</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>29.141864729971957</t>
+          <t>7.134112962941189</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(-2, -8)</t>
+          <t>(-10, 4)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.038401455302274</t>
+          <t>15.88920742233104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19.551176236158803</t>
+          <t>16.119207355145925</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.4567624876030472</t>
+          <t>2.715226642578805</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19.890384548425875</t>
+          <t>19.549908886675983</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1009,114 +1009,114 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19.540481442135214</t>
+          <t>10.926985867445676</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.984587598254498</t>
+          <t>18.07083764250339</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.728265628547259</t>
+          <t>6.15486624808857</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4.239817555087672</t>
+          <t>23.052915823532196</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7.123193243577903</t>
+          <t>11.399671617158257</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21.804975151421793</t>
+          <t>22.21784305848223</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11.758200434272673</t>
+          <t>14.58664716972514</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11.369035616431692</t>
+          <t>22.645328915867005</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>19.48125457271306</t>
+          <t>21.727533714847787</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>10.639649638139177</t>
+          <t>13.60267165143977</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>17.60758192344488</t>
+          <t>14.200698610203075</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>10.268682544359766</t>
+          <t>17.318916612311654</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4.385409339386197</t>
+          <t>12.535808412670612</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>24.416737054550946</t>
+          <t>19.7642235353762</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19.63001140726489</t>
+          <t>23.312507255813976</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.65540734473746</t>
+          <t>19.608864520135405</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(-2, 6)</t>
+          <t>(-10, -6)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.722043676954492</t>
+          <t>12.051971886607578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.722381542933855</t>
+          <t>12.331746954047826</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.15655440310195</t>
+          <t>11.672434510309365</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.385386661646978</t>
+          <t>23.81274861031709</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.600482676476492</t>
+          <t>12.144136027176929</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1126,114 +1126,114 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.591781114652786</t>
+          <t>27.653780221509354</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13.73264332574402</t>
+          <t>15.491444148043518</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>18.961987946748103</t>
+          <t>10.677911385146553</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>17.791295597651214</t>
+          <t>15.971264939202152</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.7351820340388446</t>
+          <t>21.012531526125848</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14.51912465146788</t>
+          <t>14.595138319281217</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.540636914200277</t>
+          <t>29.717246229612556</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>7.22864139205299</t>
+          <t>25.871046770462616</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>6.193688186637933</t>
+          <t>6.7360173282438645</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16.33151881939759</t>
+          <t>3.297554525529729</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>19.034940577898578</t>
+          <t>10.60615793144469</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11.423803875262026</t>
+          <t>18.033514984741572</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>4.3508741471383985</t>
+          <t>19.573235883753515</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>5.308180865379228</t>
+          <t>31.429635453417614</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>23.542020643364825</t>
+          <t>17.95745566147308</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(5, 1)</t>
+          <t>(4, 7)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3.949693323757518</t>
+          <t>13.06633667427263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.651908432822619</t>
+          <t>14.756278338446196</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.52748611829943</t>
+          <t>13.377238538541198</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17.4683542205505</t>
+          <t>2.9551200187675124</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.341044073745884</t>
+          <t>15.122675974049399</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11.730337296300654</t>
+          <t>19.608840718396753</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1243,114 +1243,114 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.962363643548459</t>
+          <t>12.610839815764065</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.135656250926084</t>
+          <t>24.84052329826281</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>17.3855323476323</t>
+          <t>5.929706596594863</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15.31663751337898</t>
+          <t>4.5704282617954375</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5.569429969548616</t>
+          <t>6.70117987802167</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>19.663368658014477</t>
+          <t>2.437544584514429</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.665614338665405</t>
+          <t>3.335542900495948</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4.20282065296701</t>
+          <t>23.930428535060166</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.552115078027775</t>
+          <t>20.6768745296895</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>19.363009942657943</t>
+          <t>17.116958621708317</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12.121323310115562</t>
+          <t>2.84644892618251</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>10.003261916484123</t>
+          <t>1.9607413042032893</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>7.455894140657686</t>
+          <t>6.63599991780944</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>16.368813033875913</t>
+          <t>8.44562157524181</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(2, -6)</t>
+          <t>(-8, 8)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11.808952379313693</t>
+          <t>15.41811544742737</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.869856959584265</t>
+          <t>19.253732451300554</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.659613931351428</t>
+          <t>4.416399663757588</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.687062822364208</t>
+          <t>12.876393384657021</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.700741063728838</t>
+          <t>6.536471009388235</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16.198677002481528</t>
+          <t>16.732387453250023</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.560832250612096</t>
+          <t>14.410620945569818</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1360,114 +1360,114 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.746143784641035</t>
+          <t>19.21479737616598</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11.114752740796462</t>
+          <t>12.468814379324407</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>17.72330316703581</t>
+          <t>20.47290499486062</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.292691428456626</t>
+          <t>14.432196570047832</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>14.921374807384092</t>
+          <t>18.246366157376038</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>19.887179127088835</t>
+          <t>17.458740685323274</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>8.074087866430036</t>
+          <t>18.166557104947554</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13.690516298052525</t>
+          <t>19.846724078217722</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12.546666580535687</t>
+          <t>22.753914868049687</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>8.876784962455607</t>
+          <t>10.888097250457852</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>21.274373413193093</t>
+          <t>13.949031125214164</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>14.657892364280881</t>
+          <t>20.017022910311226</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>4.649967832719618</t>
+          <t>18.5973178889906</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(-6, -7)</t>
+          <t>(-1, -9)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17.01829540809517</t>
+          <t>6.3230255519752205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23.559049526725737</t>
+          <t>4.269953075938282</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.48900762594935</t>
+          <t>21.1975609493654</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.140050577209333</t>
+          <t>17.31853681222225</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.816137684035528</t>
+          <t>19.648070818992164</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20.22774467800148</t>
+          <t>11.064522803773587</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.41694439533992</t>
+          <t>17.12339435678254</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11.48294483496183</t>
+          <t>22.678997026892837</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1477,114 +1477,114 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.9798316819079087</t>
+          <t>17.577041907109205</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>22.404969829681118</t>
+          <t>16.365276222415186</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12.830405763109749</t>
+          <t>14.326089440999537</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5.875483954566854</t>
+          <t>26.387888121541092</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>25.382077092785718</t>
+          <t>23.0661377444457</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>13.988547039228662</t>
+          <t>6.6419933633728</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17.208672289193334</t>
+          <t>8.102984557784794</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.122772637233207</t>
+          <t>1.3397434930821732</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3.9246210575079483</t>
+          <t>17.388924003178907</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>21.47469710322364</t>
+          <t>22.257408953967385</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>19.65037189319844</t>
+          <t>22.657602976602607</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>10.612242126869301</t>
+          <t>14.130099056756613</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(-8, -6)</t>
+          <t>(0, 3)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.071935829400775</t>
+          <t>7.547441340988569</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23.758853991628328</t>
+          <t>11.708551895732311</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.992676256991477</t>
+          <t>11.487524711849575</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16.43570027056015</t>
+          <t>6.660885133901338</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.532939973254936</t>
+          <t>14.897918635952651</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18.72365746874076</t>
+          <t>14.837743213265343</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18.677266345349633</t>
+          <t>6.324592264484793</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14.734343763647592</t>
+          <t>9.961901564205624</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.94242808976498</t>
+          <t>17.63276967917968</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1594,114 +1594,114 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>15.689818440075081</t>
+          <t>8.494432526911845</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>15.32847814912898</t>
+          <t>2.855326629926697</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3.0354529962299</t>
+          <t>8.631038449100448</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>21.613038308420176</t>
+          <t>9.991569377297676</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>16.674633431818467</t>
+          <t>18.95047882497901</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>22.930518906344513</t>
+          <t>17.031071432065733</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>4.051672301328409</t>
+          <t>12.83436059076473</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>4.7680892106557184</t>
+          <t>3.8973646906679553</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>20.75511209524957</t>
+          <t>6.665397842246085</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>21.7699086997139</t>
+          <t>10.046892840570619</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>17.032943626001174</t>
+          <t>8.880096837260888</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(-3, 8)</t>
+          <t>(7, 5)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11.495644933922181</t>
+          <t>12.568076741471684</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16.198968545895195</t>
+          <t>19.769889605054818</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.34821325753402</t>
+          <t>18.02261369583679</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.0197441016351374</t>
+          <t>3.6474634879364394</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16.046707413373205</t>
+          <t>20.110280602967972</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.0637034693417693</t>
+          <t>29.48625636514246</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11.658152265382396</t>
+          <t>3.8496433981971805</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19.27329980412855</t>
+          <t>22.580923466912978</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20.587776707731756</t>
+          <t>17.080141519741492</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.408720777723598</t>
+          <t>9.728987714436796</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1711,114 +1711,114 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18.117644238869964</t>
+          <t>8.660994487951312</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>13.572487453463825</t>
+          <t>3.8241774254082816</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>8.30897984445246</t>
+          <t>5.383573598456977</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>11.369704046504847</t>
+          <t>24.557855829285618</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>17.375083615526414</t>
+          <t>28.7667250358332</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25.576195141123197</t>
+          <t>20.69831956310628</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>15.419933629425115</t>
+          <t>5.353627960135595</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2.5072735535889343</t>
+          <t>6.8003977779337275</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>6.084264199731447</t>
+          <t>1.034946743678001</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>28.076631035588466</t>
+          <t>8.114680743509416</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(5, -3)</t>
+          <t>(2, 2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.52308457524964</t>
+          <t>7.032148363123512</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.912625511371892</t>
+          <t>10.290033370366608</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.783509625817794</t>
+          <t>14.979562882972312</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.856017436619986</t>
+          <t>5.183584028756541</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.657002177670472</t>
+          <t>14.933562922744741</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15.133042786979113</t>
+          <t>15.944258538583533</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.943308722075743</t>
+          <t>7.63852668199612</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6.196186365213956</t>
+          <t>16.61910140720227</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.312872469902253</t>
+          <t>12.812146892928125</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>18.876057820276248</t>
+          <t>3.2337243389334405</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17.329751374050467</t>
+          <t>7.592333965901485</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1828,114 +1828,114 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20.058945400572167</t>
+          <t>7.474848670461007</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>11.951844350509951</t>
+          <t>8.769954551916378</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>5.797232929323594</t>
+          <t>14.99670221743596</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>5.636451468504953</t>
+          <t>18.844447059436106</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>19.886412487362698</t>
+          <t>13.998540058070082</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>10.101505279135713</t>
+          <t>3.324891453495966</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>16.566532640994016</t>
+          <t>6.3480761068627505</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>11.838626670572202</t>
+          <t>7.490886737492822</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>9.653805666531682</t>
+          <t>6.203968039177984</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(-9, -4)</t>
+          <t>(6, 8)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18.28839005655915</t>
+          <t>17.485903053630196</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26.602034000245038</t>
+          <t>16.852560325593284</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.962556704774945</t>
+          <t>16.537817753646728</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14.864900250481616</t>
+          <t>3.9880198383771113</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11.86127120112629</t>
+          <t>18.592228247729835</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13.784193554076547</t>
+          <t>22.07281984988012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21.54260869217283</t>
+          <t>2.346408796693577</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12.261117935628615</t>
+          <t>18.86495615678585</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.779020085202467</t>
+          <t>27.375527469042055</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.346661930898041</t>
+          <t>10.239028646218758</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>16.892702245734014</t>
+          <t>3.246859746751666</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16.045751114483327</t>
+          <t>9.66007482652671</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1945,114 +1945,114 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23.2606906530245</t>
+          <t>1.5326289787452718</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>11.88711535224032</t>
+          <t>27.377480258665276</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>23.837145339319278</t>
+          <t>25.178483114767413</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4.3039733214939835</t>
+          <t>22.76629615061719</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5.488828051031365</t>
+          <t>5.936107174874664</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>17.705347574072615</t>
+          <t>3.6526162513532685</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18.33563896897413</t>
+          <t>4.335340614427288</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>18.86094773120587</t>
+          <t>9.77908600601964</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(3, 8)</t>
+          <t>(5, 9)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.632365064867889</t>
+          <t>15.946443668748747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.59332328596168</t>
+          <t>22.802718216791583</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20.294321110534863</t>
+          <t>18.141517959146785</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.669186351423694</t>
+          <t>5.486795037276204</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16.77376642491693</t>
+          <t>16.158923781507262</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.890985413873272</t>
+          <t>25.03909807556805</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.451688977156437</t>
+          <t>3.050444294799639</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15.730183384497803</t>
+          <t>16.993812136415745</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21.666492191885684</t>
+          <t>25.993884577442582</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>26.30054748811053</t>
+          <t>7.813222719948592</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>6.69770754832726</t>
+          <t>6.127786533125928</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15.878019896589386</t>
+          <t>8.835657674429694</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>24.926949662460494</t>
+          <t>1.6651171838413064</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2062,114 +2062,114 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>9.507038119285001</t>
+          <t>27.58292902138961</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12.033369391182209</t>
+          <t>25.64559630597335</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>24.956386551450247</t>
+          <t>24.505610207156302</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>18.705346419332354</t>
+          <t>5.8303827698644595</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>6.070895814101448</t>
+          <t>3.210456411146451</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>3.260973807954277</t>
+          <t>6.3148079773203944</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>19.036665999316085</t>
+          <t>11.992124031877028</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(-6, -9)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.424803268004906</t>
+          <t>8.164031454449232</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11.005398691764558</t>
+          <t>7.027767736205353</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.22997102934696</t>
+          <t>17.110521361853408</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13.601670459965058</t>
+          <t>22.772402418109937</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.455906319161745</t>
+          <t>17.33796026272573</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6.437323695394239</t>
+          <t>5.042945036906818</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5.946014332366377</t>
+          <t>22.654464553931405</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10.21331736330841</t>
+          <t>18.349107243034176</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.957195744243307</t>
+          <t>5.410527231787487</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>14.122017103112814</t>
+          <t>16.312498722906888</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.983351346112586</t>
+          <t>24.527197479617296</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6.215769585910573</t>
+          <t>14.011322662817882</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>12.071648841299776</t>
+          <t>23.2958824957261</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10.300043677587354</t>
+          <t>22.727471377657704</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2179,114 +2179,114 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>9.978057921572754</t>
+          <t>3.5587879289115336</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>17.380098173699267</t>
+          <t>4.261134227896227</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>10.570870433925554</t>
+          <t>21.219567813219225</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>8.323357057352581</t>
+          <t>20.13465113486301</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>5.565403696358966</t>
+          <t>28.53188285718235</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>15.748871945511123</t>
+          <t>17.153096017949963</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(8, 1)</t>
+          <t>(-8, -7)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5.109512486640248</t>
+          <t>8.318458292703639</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.4103207688838408</t>
+          <t>7.916099954184337</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.675218057904688</t>
+          <t>16.320868834219546</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.010512684254735</t>
+          <t>18.373316367546547</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.178644304721695</t>
+          <t>14.157544581998206</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13.443733292681433</t>
+          <t>3.3479121206073024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.431687739613041</t>
+          <t>20.7660429007697</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.521248516594538</t>
+          <t>16.02424655128049</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>24.147753897831187</t>
+          <t>10.356574892527048</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>22.481236984691293</t>
+          <t>17.71515762379898</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>16.232980930869804</t>
+          <t>20.92846171543788</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5.301181210058879</t>
+          <t>13.939417372231167</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.855448088112038</t>
+          <t>30.25228320980287</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11.892740177873145</t>
+          <t>22.047950564576567</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>10.093101584164234</t>
+          <t>3.981440042618646</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2296,114 +2296,114 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>20.282503996536033</t>
+          <t>6.666716809891778</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>19.028848238147948</t>
+          <t>23.106204678961262</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>14.248660740770069</t>
+          <t>21.235374314172038</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>11.275203134240185</t>
+          <t>24.893538335339287</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>13.450352456084573</t>
+          <t>17.985689221378628</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(-10, -8)</t>
+          <t>(-2, -9)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21.639106648268136</t>
+          <t>7.647925397205833</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22.882490249295284</t>
+          <t>3.804520545015847</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.861305204422067</t>
+          <t>16.46879247319553</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.331086388731908</t>
+          <t>22.187964082432188</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.579024743691104</t>
+          <t>21.059360987974305</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16.16819395519555</t>
+          <t>10.906940648949522</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18.439634393518467</t>
+          <t>24.372562467599668</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15.56798886765857</t>
+          <t>23.504551136999552</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.3932599156892875</t>
+          <t>1.02810761172204</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3.2060636485535157</t>
+          <t>15.686514758099515</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>18.90302240471215</t>
+          <t>21.9916209586778</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19.700120425611416</t>
+          <t>17.46230529898262</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.212368800587775</t>
+          <t>23.431383223186224</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>28.523526207092143</t>
+          <t>24.906488475624535</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>18.363234822613858</t>
+          <t>4.130008755210165</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23.65815614484023</t>
+          <t>6.358325166643962</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2413,114 +2413,114 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>7.252930758628882</t>
+          <t>20.43309782122959</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>24.637933929075917</t>
+          <t>25.33542531871221</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18.837865815821843</t>
+          <t>19.760009981179326</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>15.216165249465122</t>
+          <t>11.26924844114301</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(-4, -5)</t>
+          <t>(2, 5)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18.778250138285173</t>
+          <t>9.65070026625146</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16.530277668028667</t>
+          <t>14.129947459717785</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.5550232314405426</t>
+          <t>12.36878404332785</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.250804988755139</t>
+          <t>2.4257151989660297</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.328179156121685</t>
+          <t>17.886245874984557</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16.74850728668927</t>
+          <t>24.116316304330006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15.818713738662055</t>
+          <t>3.604003083256779</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.756797361145852</t>
+          <t>12.964103979831272</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.3803504328219396</t>
+          <t>20.03733994592625</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.144507834911753</t>
+          <t>3.0712595939952005</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>19.20493421662075</t>
+          <t>6.10974091623407</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10.236144261588821</t>
+          <t>4.330922276419411</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>7.19471571165</t>
+          <t>5.096460396340362</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>17.222581538429427</t>
+          <t>6.80511825321489</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>7.961926251211233</t>
+          <t>18.157122560493338</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15.951709320747678</t>
+          <t>17.050789953062058</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>7.6423156457055965</t>
+          <t>20.700498469044803</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2530,114 +2530,114 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>18.046876351631166</t>
+          <t>3.6976907474648812</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18.176897515069456</t>
+          <t>6.859962226220317</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>11.211227756799255</t>
+          <t>8.909056100924566</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(-1, 9)</t>
+          <t>(3, 8)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.421227320457778</t>
+          <t>14.57302184269758</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14.342742405308092</t>
+          <t>14.918601805189716</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.346394695557557</t>
+          <t>15.788785485290038</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.030575278185883</t>
+          <t>3.7363350160796953</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>23.632990591215155</t>
+          <t>16.741466637004862</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.7758316338045304</t>
+          <t>23.218824760335924</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11.204139690443249</t>
+          <t>2.076761339591806</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21.92656463594524</t>
+          <t>16.215434318271495</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>22.064329513921642</t>
+          <t>19.35078792103792</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24.397743042089267</t>
+          <t>7.551146066733065</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2.304045877298547</t>
+          <t>7.2670267645336715</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18.322748096192267</t>
+          <t>6.490009330510695</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>15.49601760153985</t>
+          <t>3.1825533785451245</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>4.223393026725871</t>
+          <t>3.341795088059098</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>10.119604486127118</t>
+          <t>21.19615230981418</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13.244511364242975</t>
+          <t>19.52970662824743</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>28.083417116072273</t>
+          <t>23.424616833033415</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19.998315935509016</t>
+          <t>3.888785593202785</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2647,114 +2647,114 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4.454137666094282</t>
+          <t>8.368016471202663</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>21.742272952513314</t>
+          <t>12.37526640666011</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(2, 6)</t>
+          <t>(8, 5)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6.293760788032969</t>
+          <t>14.243122909693257</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.548538871041991</t>
+          <t>19.46261613558685</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.009251667121283</t>
+          <t>23.345422952190198</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.250048533877688</t>
+          <t>5.344512616797953</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14.993286697352703</t>
+          <t>20.473084022931076</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.913225863815747</t>
+          <t>30.501599892978966</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7.803630383722747</t>
+          <t>5.142404677059883</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17.718109671831463</t>
+          <t>22.855374009196918</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>21.692203201706295</t>
+          <t>24.02983440922441</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18.177103158034015</t>
+          <t>8.885543151895702</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>7.785980250332991</t>
+          <t>1.3181981220326837</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13.172154900742909</t>
+          <t>8.749981804202761</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>14.928509310506415</t>
+          <t>4.963417085778401</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.3070221991910427</t>
+          <t>6.65363783877061</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>7.061183888552228</t>
+          <t>29.031939600133448</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>9.709385606032413</t>
+          <t>26.841447702702837</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>26.571949913529348</t>
+          <t>24.184771069806125</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18.445212956932533</t>
+          <t>7.432078252928035</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>5.753531056118555</t>
+          <t>8.176364853778118</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2764,114 +2764,114 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>18.30552513355288</t>
+          <t>7.878854625787217</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(3, -10)</t>
+          <t>(5, -1)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21.141459983396352</t>
+          <t>8.822802268477473</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17.528204331281614</t>
+          <t>10.950560448633937</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.434237671734926</t>
+          <t>19.755806077025213</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25.88721161444841</t>
+          <t>6.611836977452618</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7.045813914452002</t>
+          <t>21.103692510703723</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17.50752646931589</t>
+          <t>17.08089847534698</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.207512591689401</t>
+          <t>8.864291417971996</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.439818648573439</t>
+          <t>16.818748584893495</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.904882069098331</t>
+          <t>14.757705135915256</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>14.977054639028827</t>
+          <t>6.863514879182393</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>25.741769551733828</t>
+          <t>8.43068688044766</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7.96075262941338</t>
+          <t>4.521116929787426</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16.06649287523456</t>
+          <t>11.416898305277147</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>26.644345594547534</t>
+          <t>13.748773669491783</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>12.829179531323536</t>
+          <t>18.343490059104298</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12.672881551242027</t>
+          <t>14.609731625454904</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>17.47813269955892</t>
+          <t>12.665902190125598</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>11.350468354216451</t>
+          <t>9.009587746030766</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>23.088630304094675</t>
+          <t>10.681370325727698</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>16.462934329101767</t>
+          <t>9.047390698118553</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2888,107 +2888,107 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10.258460708027354</t>
+          <t>4.858019507101507</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.825531230195972</t>
+          <t>7.331247808216814</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.659816599742133</t>
+          <t>12.25853847977732</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.279587461883716</t>
+          <t>8.513076401644303</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.83939987862704</t>
+          <t>11.429251179427617</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.687853817528357</t>
+          <t>11.9431891764392</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.528088229953557</t>
+          <t>8.542793993281057</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.104060973635137</t>
+          <t>13.479513810399503</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.732013282965733</t>
+          <t>10.2196774882154</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11.212592244984156</t>
+          <t>3.9002070388319394</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.761957907269462</t>
+          <t>10.957677487575927</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8.385341760154608</t>
+          <t>3.4828985464993685</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12.394791323068343</t>
+          <t>13.830451801265522</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>8.913832793440275</t>
+          <t>14.215264373351326</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.6454755976725617</t>
+          <t>12.900987258362285</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8.640389801399726</t>
+          <t>11.87129540618018</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>18.520095690089153</t>
+          <t>13.458693751491824</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>7.879687119561234</t>
+          <t>8.055472744441722</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>12.575428047411732</t>
+          <t>11.432359014759758</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8.524485869730473</t>
+          <t>10.093083639671287</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>11.871726160875216</t>
+          <t>5.24315014035868</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,2573 +422,2803 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>(203957296, Omri Ben Shabat: -2,-3)</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>i\j</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(206532695, Matan Vakrat: -1,-6)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(302962915, Asher  Odeh: -8,5)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: 4,5)</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(311177802, Christina  Uksusman: -10,4)</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: -10,-6)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: 4,7)</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -8,8)</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -1,-9)</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 0,3)</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 7,5)</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 2,2)</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 6,8)</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 5,9)</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -6,-9)</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -8,-7)</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -2,-9)</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 2,5)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 3,8)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 8,5)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 5,-1)</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>school</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(-2, -3)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>(-6, 0)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4.30989271675637</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.378634937651793</t>
+          <t>18.066153092170822</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13.606353865284222</t>
+          <t>8.337512899327564</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.303521773724668</t>
+          <t>17.85263384119801</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.112201851748932</t>
+          <t>3.772236345352183</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.27777327700037</t>
+          <t>18.35952735335168</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14.37928015841615</t>
+          <t>9.996036488146535</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.046576329087845</t>
+          <t>8.14493871651305</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7.142169713514112</t>
+          <t>16.57561545522945</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13.75058491173359</t>
+          <t>11.28279113193811</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8.740269409263666</t>
+          <t>14.836590103600338</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15.718323268551936</t>
+          <t>17.412015248879836</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19.37413439622778</t>
+          <t>11.08128194616726</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7.907583226651302</t>
+          <t>8.537144762375664</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.971769668762978</t>
+          <t>15.48235039018045</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>8.82396584955157</t>
+          <t>6.365050368662722</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>12.123385251182032</t>
+          <t>17.997854278435685</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>13.098539648007806</t>
+          <t>14.465670009221071</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>16.775625128895747</t>
+          <t>11.248593003069054</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>10.343181373743446</t>
+          <t>13.761766762322592</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>20.7428699858768</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>7.427225326735591</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(-1, -6)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.2630251290684753</t>
+          <t>(7, 0)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>13.400100809499548</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.97096883734227</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12.328532060764056</t>
+          <t>18.100955831528573</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.466312769053298</t>
+          <t>9.153527051505268</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.526691369352369</t>
+          <t>17.272672744497076</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16.63845436335063</t>
+          <t>8.080730841141447</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19.89452960019427</t>
+          <t>7.538625960418525</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.129298623930482</t>
+          <t>11.484514539478896</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10.177038818959225</t>
+          <t>9.844333578778226</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.871185969263571</t>
+          <t>21.377709569084583</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9.361339827322741</t>
+          <t>7.317363180169297</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>16.79649183709907</t>
+          <t>9.323530747926378</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>19.10893446712106</t>
+          <t>17.234911369825866</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>8.64110945630289</t>
+          <t>20.352311661057918</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10.148168469122067</t>
+          <t>11.81310556416841</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.6215567034124803</t>
+          <t>20.850296831229517</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>16.544244124383816</t>
+          <t>5.526155001241158</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>17.92572590561703</t>
+          <t>3.1830688454694855</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14.472871806699803</t>
+          <t>7.95206394429738</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>10.865379005598422</t>
+          <t>15.554888319656481</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>6.455894321203753</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>8.410953087785014</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-8, 5)</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.545668833895824</t>
+          <t>(-9, 6)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19.44152133169512</t>
+          <t>7.100473059549766</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>21.508719778645958</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>16.072666586872764</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.3030469333879244</t>
+          <t>25.22420746813676</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.628683426924354</t>
+          <t>9.458085032249286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.01959719050185</t>
+          <t>18.802112862594534</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.5193032503593713</t>
+          <t>14.958630450611595</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.848716475773323</t>
+          <t>19.412095673882845</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9.467226586805094</t>
+          <t>19.767354613363935</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20.02825213095375</t>
+          <t>17.067208915881917</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11.855819586014313</t>
+          <t>19.010388001303454</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15.112870105480058</t>
+          <t>17.107806254783</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>16.3642660523875</t>
+          <t>18.960430249673674</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>15.652007241603922</t>
+          <t>4.350514839148788</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>13.741394958412982</t>
+          <t>24.820073316500768</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>16.700605673103233</t>
+          <t>4.425526944503572</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12.382057747532059</t>
+          <t>20.357164448304747</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>12.309331663091365</t>
+          <t>17.902718553879573</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20.620984080451553</t>
+          <t>17.251211953959487</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>14.456182993253112</t>
+          <t>9.023420809131746</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>20.984946434439134</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>14.249902616580371</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(4, 5)</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10.954211092430164</t>
+          <t>(5, -6)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.476359265781637</t>
+          <t>15.758970666976996</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.116859719106468</t>
+          <t>7.330529447228153</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>25.41976046066791</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>18.074285379570448</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.574577157958437</t>
+          <t>19.3201201455919</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.9505497247508283</t>
+          <t>16.25786062729304</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18.509831028679944</t>
+          <t>11.631312400432947</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20.05305826037831</t>
+          <t>7.126155951991715</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6.26849171993052</t>
+          <t>17.44748044064449</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.074949057282227</t>
+          <t>10.397514903348878</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4.124959097409756</t>
+          <t>1.7972744615959528</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.142182803644974</t>
+          <t>18.67388574399376</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>5.975988715079884</t>
+          <t>10.465836622399591</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>22.206798928676086</t>
+          <t>21.361049706850643</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>18.671119512234064</t>
+          <t>6.04784896048221</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>18.477385698052572</t>
+          <t>20.22580511987594</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.906553101552776</t>
+          <t>14.914956095800887</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3.965978884554468</t>
+          <t>8.286552123303538</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>5.95309476579803</t>
+          <t>4.458243096044576</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>7.134112962941189</t>
+          <t>24.2789331064832</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>16.4231573285634</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>8.739804875986279</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(-10, 4)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.88920742233104</t>
+          <t>(-8, -2)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.119207355145925</t>
+          <t>3.3635804983017716</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.715226642578805</t>
+          <t>19.47584055794782</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19.549908886675983</t>
+          <t>9.894770569269165</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>15.915861940622934</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10.926985867445676</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18.07083764250339</t>
+          <t>23.541060329206612</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.15486624808857</t>
+          <t>12.528666770415258</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.052915823532196</t>
+          <t>10.651971590482233</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11.399671617158257</t>
+          <t>23.645672362751572</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>22.21784305848223</t>
+          <t>12.869635332373784</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14.58664716972514</t>
+          <t>16.98937599016708</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>22.645328915867005</t>
+          <t>20.074699638402063</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>21.727533714847787</t>
+          <t>10.65790608809779</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>13.60267165143977</t>
+          <t>13.592969559052495</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>14.200698610203075</t>
+          <t>16.922937065937177</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>17.318916612311654</t>
+          <t>7.346515386156527</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>12.535808412670612</t>
+          <t>16.00741757176243</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>19.7642235353762</t>
+          <t>18.282313009966124</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23.312507255813976</t>
+          <t>12.027712973380611</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>19.608864520135405</t>
+          <t>17.048228693045115</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>18.14623862995678</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>11.479209677030388</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(-10, -6)</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.051971886607578</t>
+          <t>(9, 6)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12.331746954047826</t>
+          <t>17.981069031169962</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.672434510309365</t>
+          <t>9.130357954782115</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.81274861031709</t>
+          <t>18.232958894751054</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.144136027176929</t>
+          <t>13.401084059582594</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>26.346224630966226</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>27.653780221509354</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15.491444148043518</t>
+          <t>12.513130312379412</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.677911385146553</t>
+          <t>20.02702595300833</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>15.971264939202152</t>
+          <t>1.855904915788538</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21.012531526125848</t>
+          <t>28.07570193120469</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14.595138319281217</t>
+          <t>17.625422380171322</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>29.717246229612556</t>
+          <t>6.14661959699553</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>25.871046770462616</t>
+          <t>23.247622514811116</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>6.7360173282438645</t>
+          <t>22.3020248926791</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.297554525529729</t>
+          <t>23.356244705113962</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10.60615793144469</t>
+          <t>20.278505650205616</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>18.033514984741572</t>
+          <t>4.376623828086346</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>19.573235883753515</t>
+          <t>6.781860498500722</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>31.429635453417614</t>
+          <t>15.292295446348273</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>17.95745566147308</t>
+          <t>17.525049780225757</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2.293429691151949</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>12.472238269812452</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(4, 7)</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13.06633667427263</t>
+          <t>(1, 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.756278338446196</t>
+          <t>7.739181916317075</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.377238538541198</t>
+          <t>8.898829193970654</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9551200187675124</t>
+          <t>13.02118852625398</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.122675974049399</t>
+          <t>12.054272488670929</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19.608840718396753</t>
+          <t>13.920851179435367</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>14.125231608897883</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>12.610839815764065</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24.84052329826281</t>
+          <t>9.400238579973893</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5.929706596594863</t>
+          <t>13.739360457350262</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4.5704282617954375</t>
+          <t>12.188801693857807</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.70117987802167</t>
+          <t>9.332807456249117</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.437544584514429</t>
+          <t>12.075541902272773</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.335542900495948</t>
+          <t>13.646848545681827</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>23.930428535060166</t>
+          <t>10.059367568071973</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20.6768745296895</t>
+          <t>13.847650901006798</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>17.116958621708317</t>
+          <t>10.186045313168192</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.84644892618251</t>
+          <t>5.67410004699383</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.9607413042032893</t>
+          <t>5.735176757134676</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>6.63599991780944</t>
+          <t>10.250019238832014</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>8.44562157524181</t>
+          <t>10.908513729617395</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>9.043955009953715</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1.8008215902285465</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(-8, 8)</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15.41811544742737</t>
+          <t>(-2, -6)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19.253732451300554</t>
+          <t>9.247192250209556</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.416399663757588</t>
+          <t>15.369693860595515</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.876393384657021</t>
+          <t>20.19419780757315</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.536471009388235</t>
+          <t>7.3495905924422456</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16.732387453250023</t>
+          <t>8.513708135187773</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.410620945569818</t>
+          <t>23.163043772346203</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>8.138061396005112</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>19.21479737616598</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.468814379324407</t>
+          <t>19.86096964792061</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>20.47290499486062</t>
+          <t>6.298822584453377</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14.432196570047832</t>
+          <t>6.961602916812105</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>18.246366157376038</t>
+          <t>21.380580267564536</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>17.458740685323274</t>
+          <t>3.1967568269981093</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>18.166557104947554</t>
+          <t>14.464514754247887</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>19.846724078217722</t>
+          <t>7.5910189211764605</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>22.753914868049687</t>
+          <t>11.966196066903947</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>10.888097250457852</t>
+          <t>16.839539153177896</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>13.949031125214164</t>
+          <t>13.676194561466593</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>20.017022910311226</t>
+          <t>5.369910423152992</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>18.5973178889906</t>
+          <t>19.271026836365472</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>20.60463849138785</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>6.704888454940291</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(-1, -9)</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6.3230255519752205</t>
+          <t>(8, 7)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.269953075938282</t>
+          <t>23.02727877685634</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.1975609493654</t>
+          <t>10.226529849729834</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17.31853681222225</t>
+          <t>18.22713396075035</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19.648070818992164</t>
+          <t>15.929781571222478</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11.064522803773587</t>
+          <t>21.941559571692213</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17.12339435678254</t>
+          <t>1.8954145750287625</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22.678997026892837</t>
+          <t>10.02796081189023</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>23.615981334402242</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>17.577041907109205</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16.365276222415186</t>
+          <t>23.282764655539875</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14.326089440999537</t>
+          <t>14.234466064008577</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>26.387888121541092</t>
+          <t>4.112559688756526</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>23.0661377444457</t>
+          <t>21.740025442537686</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>6.6419933633728</t>
+          <t>14.66361915725794</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>8.102984557784794</t>
+          <t>25.272931382440863</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.3397434930821732</t>
+          <t>20.31924317501088</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17.388924003178907</t>
+          <t>4.305808347150095</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>22.257408953967385</t>
+          <t>6.362351262521336</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>22.657602976602607</t>
+          <t>16.478972660040526</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>14.130099056756613</t>
+          <t>13.669941654503319</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3.0711267808553924</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>14.668351683836832</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(0, 3)</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.547441340988569</t>
+          <t>(-4, -10)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.708551895732311</t>
+          <t>11.23790137943765</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.487524711849575</t>
+          <t>18.412303928258385</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.660885133901338</t>
+          <t>17.681412680755123</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14.897918635952651</t>
+          <t>14.70710993485295</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14.837743213265343</t>
+          <t>9.53267760600147</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.324592264484793</t>
+          <t>28.009994656228944</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9.961901564205624</t>
+          <t>15.134154189042944</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17.63276967917968</t>
+          <t>5.023709692965322</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>28.522732829251623</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>8.494432526911845</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.855326629926697</t>
+          <t>13.658783114023123</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8.631038449100448</t>
+          <t>24.856030023178402</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9.991569377297676</t>
+          <t>3.3137765845075946</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>18.95047882497901</t>
+          <t>24.60455744426827</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>17.031071432065733</t>
+          <t>9.292833425821957</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12.83436059076473</t>
+          <t>21.71927923837673</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3.8973646906679553</t>
+          <t>17.700531033810595</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>6.665397842246085</t>
+          <t>22.515324591763893</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>10.046892840570619</t>
+          <t>8.165788900221303</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>8.880096837260888</t>
+          <t>21.897715441216036</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>20.12093638342686</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>13.401954630627463</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(7, 5)</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.568076741471684</t>
+          <t>(4, -5)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.769889605054818</t>
+          <t>15.171748242454505</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18.02261369583679</t>
+          <t>8.462212282837747</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.6474634879364394</t>
+          <t>21.295553505449806</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20.110280602967972</t>
+          <t>1.4937818569827046</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>29.48625636514246</t>
+          <t>13.951210132393232</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.8496433981971805</t>
+          <t>17.28729404509999</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22.580923466912978</t>
+          <t>6.870749090509776</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17.080141519741492</t>
+          <t>7.656042826436923</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.728987714436796</t>
+          <t>17.32879520445201</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>10.42448103706077</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>8.660994487951312</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.8241774254082816</t>
+          <t>16.672827588062425</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.383573598456977</t>
+          <t>9.68292543877293</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>24.557855829285618</t>
+          <t>19.08097783085547</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>28.7667250358332</t>
+          <t>5.8113480247938885</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>20.69831956310628</t>
+          <t>18.119475734875788</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5.353627960135595</t>
+          <t>11.73093806437519</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>6.8003977779337275</t>
+          <t>9.295071725879898</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.034946743678001</t>
+          <t>2.500843648455913</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>8.114680743509416</t>
+          <t>19.79300685978358</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>10.492186917293154</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>8.568919257153182</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(2, 2)</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.032148363123512</t>
+          <t>(5, 8)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.290033370366608</t>
+          <t>18.26993724459643</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14.979562882972312</t>
+          <t>10.300425059593573</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.183584028756541</t>
+          <t>19.99682788656952</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.933562922744741</t>
+          <t>17.95076480309466</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15.944258538583533</t>
+          <t>20.021182619852468</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.63852668199612</t>
+          <t>5.8473134992699265</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16.61910140720227</t>
+          <t>11.150604653495039</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.812146892928125</t>
+          <t>18.288008855725174</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.2337243389334405</t>
+          <t>3.4164365270716353</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.592333965901485</t>
+          <t>25.736032905236957</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>16.03471731909598</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>7.474848670461007</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>8.769954551916378</t>
+          <t>22.85891994472322</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>14.99670221743596</t>
+          <t>15.23072235082706</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18.844447059436106</t>
+          <t>26.97980960299287</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>13.998540058070082</t>
+          <t>16.618161330495788</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.324891453495966</t>
+          <t>3.1385235182595634</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>6.3480761068627505</t>
+          <t>8.313676935270891</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>7.490886737492822</t>
+          <t>21.47033468849403</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>6.203968039177984</t>
+          <t>8.590200721883075</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>4.935685359861857</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>12.45047000877049</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(6, 8)</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17.485903053630196</t>
+          <t>(-3, -8)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16.852560325593284</t>
+          <t>10.396206644315804</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.537817753646728</t>
+          <t>13.132348158573913</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.9880198383771113</t>
+          <t>16.262908372774838</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18.592228247729835</t>
+          <t>11.759024636553493</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22.07281984988012</t>
+          <t>8.035351349063642</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.346408796693577</t>
+          <t>23.53600371690045</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18.86495615678585</t>
+          <t>10.374999111804353</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>27.375527469042055</t>
+          <t>3.1559823258002537</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10.239028646218758</t>
+          <t>23.98371031600367</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3.246859746751666</t>
+          <t>2.345535219139468</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9.66007482652671</t>
+          <t>9.217472029761826</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>23.453890640018827</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.5326289787452718</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>27.377480258665276</t>
+          <t>17.712511534612403</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>25.178483114767413</t>
+          <t>7.147402020058522</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>22.76629615061719</t>
+          <t>19.5773310566975</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5.936107174874664</t>
+          <t>22.10320914037733</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3.6526162513532685</t>
+          <t>17.04995784133315</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>4.335340614427288</t>
+          <t>7.204262005549732</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>9.77908600601964</t>
+          <t>22.461958468855215</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>23.89071388502226</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>11.294941744337038</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(5, 9)</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15.946443668748747</t>
+          <t>(-6, 7)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22.802718216791583</t>
+          <t>8.457834302954865</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18.141517959146785</t>
+          <t>16.80742581168645</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.486795037276204</t>
+          <t>3.90497271284566</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16.158923781507262</t>
+          <t>19.269112828614546</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25.03909807556805</t>
+          <t>13.501625533329117</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.050444294799639</t>
+          <t>19.052185084728976</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16.993812136415745</t>
+          <t>10.745194716485528</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25.993884577442582</t>
+          <t>14.708697987780424</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7.813222719948592</t>
+          <t>20.432882921367817</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>6.127786533125928</t>
+          <t>18.832097899724445</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8.835657674429694</t>
+          <t>20.280011303254724</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1.6651171838413064</t>
+          <t>15.772211704920826</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>19.24887467539186</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>27.58292902138961</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>25.64559630597335</t>
+          <t>19.4116892402673</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>24.505610207156302</t>
+          <t>2.682552709422445</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5.8303827698644595</t>
+          <t>14.25461161900877</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3.210456411146451</t>
+          <t>18.700937976829362</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>6.3148079773203944</t>
+          <t>18.594785082944878</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>11.992124031877028</t>
+          <t>4.492754831214666</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>16.491546585915117</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>10.904116733220146</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(-6, -9)</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8.164031454449232</t>
+          <t>(3, -10)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.027767736205353</t>
+          <t>13.880468772897505</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17.110521361853408</t>
+          <t>13.825710063564921</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22.772402418109937</t>
+          <t>23.77590307662597</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17.33796026272573</t>
+          <t>4.619098991126709</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.042945036906818</t>
+          <t>20.34118322509099</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22.654464553931405</t>
+          <t>24.092553827587935</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18.349107243034176</t>
+          <t>12.507296254670084</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.410527231787487</t>
+          <t>6.716013498252139</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16.312498722906888</t>
+          <t>21.41686660093562</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>24.527197479617296</t>
+          <t>8.385045731680016</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14.011322662817882</t>
+          <t>5.495580190086902</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>23.2958824957261</t>
+          <t>21.873395017718128</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>22.727471377657704</t>
+          <t>8.949679881133255</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>24.27947436350033</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>3.5587879289115336</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>4.261134227896227</t>
+          <t>26.150176762858976</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>21.219567813219225</t>
+          <t>21.550807222564224</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>20.13465113486301</t>
+          <t>17.501093707869103</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>28.53188285718235</t>
+          <t>5.042708234037712</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>17.153096017949963</t>
+          <t>25.975854594921056</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>22.058659960905292</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>11.466737754915213</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(-8, -7)</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.318458292703639</t>
+          <t>(-6, 5)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.916099954184337</t>
+          <t>7.261103153117156</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16.320868834219546</t>
+          <t>19.168751017556765</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18.373316367546547</t>
+          <t>4.491551981402288</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.157544581998206</t>
+          <t>20.31973776169073</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.3479121206073024</t>
+          <t>9.688622288594187</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>20.7660429007697</t>
+          <t>22.012984968166595</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16.02424655128049</t>
+          <t>11.841971655777476</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.356574892527048</t>
+          <t>13.903202499524513</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>17.71515762379898</t>
+          <t>18.479448142800198</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>20.92846171543788</t>
+          <t>17.068848521264613</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13.939417372231167</t>
+          <t>14.296428671876509</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>30.25228320980287</t>
+          <t>14.779476083373375</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>22.047950564576567</t>
+          <t>19.876944372134112</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.981440042618646</t>
+          <t>2.4743682225310324</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>19.66279056100635</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>6.666716809891778</t>
-        </is>
-      </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>23.106204678961262</t>
+          <t>16.252940391934906</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>21.235374314172038</t>
+          <t>14.304163546199046</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>24.893538335339287</t>
+          <t>16.047559414259588</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>17.985689221378628</t>
+          <t>7.148266441612626</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>16.04334354578747</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>9.851948641903906</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(-2, -9)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.647925397205833</t>
+          <t>(5, 5)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.804520545015847</t>
+          <t>16.126403498048298</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16.46879247319553</t>
+          <t>7.028507921352713</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>22.187964082432188</t>
+          <t>20.38119788812002</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>21.059360987974305</t>
+          <t>13.936213335558765</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.906940648949522</t>
+          <t>17.448996399208937</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.372562467599668</t>
+          <t>4.902240087584248</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23.504551136999552</t>
+          <t>6.485550506974322</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.02810761172204</t>
+          <t>16.374663782627923</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>15.686514758099515</t>
+          <t>4.956470004374708</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>21.9916209586778</t>
+          <t>19.39008980358791</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17.46230529898262</t>
+          <t>10.31802420285434</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>23.431383223186224</t>
+          <t>4.1885465737724825</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>24.906488475624535</t>
+          <t>21.154671409748065</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4.130008755210165</t>
+          <t>14.686453683058922</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>6.358325166643962</t>
+          <t>16.644922214145094</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
+          <t>13.35539934552344</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>20.43309782122959</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>25.33542531871221</t>
+          <t>3.55805500652818</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19.760009981179326</t>
+          <t>11.966756256851816</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>11.26924844114301</t>
+          <t>11.84532961350801</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2.043031738288336</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>9.213819904686503</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(2, 5)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.65070026625146</t>
+          <t>(6, 2)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.129947459717785</t>
+          <t>12.688440882482732</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.36878404332785</t>
+          <t>2.32760472361296</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.4257151989660297</t>
+          <t>17.71205852982617</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17.886245874984557</t>
+          <t>8.754227227819998</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24.116316304330006</t>
+          <t>15.127381825600866</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.604003083256779</t>
+          <t>6.2172342745751425</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.964103979831272</t>
+          <t>6.705142634065741</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20.03733994592625</t>
+          <t>13.427586093250605</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.0712595939952005</t>
+          <t>6.565840540145101</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>6.10974091623407</t>
+          <t>17.678043362631808</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4.330922276419411</t>
+          <t>7.606132168450654</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5.096460396340362</t>
+          <t>7.52756198155197</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>6.80511825321489</t>
+          <t>16.50315418875568</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>18.157122560493338</t>
+          <t>18.37271040822337</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17.050789953062058</t>
+          <t>17.62308778888928</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>20.700498469044803</t>
+          <t>15.411138592709783</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>3.406528685019736</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>3.6976907474648812</t>
-        </is>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6.859962226220317</t>
+          <t>11.831763258501253</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>8.909056100924566</t>
+          <t>12.302491587733785</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>4.205388785137432</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>8.596131449495623</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(3, 8)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.57302184269758</t>
+          <t>(2, -6)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14.918601805189716</t>
+          <t>10.659467271250303</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15.788785485290038</t>
+          <t>10.032872001613061</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.7363350160796953</t>
+          <t>18.25804331020177</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16.741466637004862</t>
+          <t>3.5239806420438153</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23.218824760335924</t>
+          <t>14.352716924495814</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.076761339591806</t>
+          <t>16.776851149121043</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16.215434318271495</t>
+          <t>8.591988009938015</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19.35078792103792</t>
+          <t>4.002251091268044</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.551146066733065</t>
+          <t>14.496607260186092</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7.2670267645336715</t>
+          <t>8.172554451613642</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6.490009330510695</t>
+          <t>2.293010415883991</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3.1825533785451245</t>
+          <t>19.557359014819887</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3.341795088059098</t>
+          <t>7.816087916039374</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>21.19615230981418</t>
+          <t>16.6956420138408</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19.52970662824743</t>
+          <t>5.401704501507287</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>23.424616833033415</t>
+          <t>20.34212530663726</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.888785593202785</t>
+          <t>14.18695220942104</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
+          <t>13.021817621352705</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>8.368016471202663</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>12.37526640666011</t>
+          <t>18.730898337516926</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>17.670717334562195</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>7.112089036919168</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(8, 5)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.243122909693257</t>
+          <t>(-3, 9)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19.46261613558685</t>
+          <t>13.080098060071428</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23.345422952190198</t>
+          <t>16.1019170007952</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.344512616797953</t>
+          <t>9.857576901996342</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>20.473084022931076</t>
+          <t>24.146947415778328</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30.501599892978966</t>
+          <t>12.79769961954727</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5.142404677059883</t>
+          <t>14.842924786308778</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>22.855374009196918</t>
+          <t>11.391744276324856</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>24.02983440922441</t>
+          <t>15.825989681792494</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.885543151895702</t>
+          <t>12.181300011826067</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.3181981220326837</t>
+          <t>25.001191907236826</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8.749981804202761</t>
+          <t>21.851574315343367</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4.963417085778401</t>
+          <t>9.658698278899418</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>6.65363783877061</t>
+          <t>22.366007686381447</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>29.031939600133448</t>
+          <t>3.8638595422784108</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26.841447702702837</t>
+          <t>21.10867035378019</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>24.184771069806125</t>
+          <t>7.25052394495071</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>7.432078252928035</t>
+          <t>11.725951933390153</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>8.176364853778118</t>
+          <t>16.348247208346685</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
+          <t>23.54494785846903</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>7.878854625787217</t>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>11.424785748628961</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>12.51532708515092</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(5, -1)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8.822802268477473</t>
+          <t>(7, 5)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.950560448633937</t>
+          <t>19.633103947887864</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19.755806077025213</t>
+          <t>7.00441944661347</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.611836977452618</t>
+          <t>21.727950299310667</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.103692510703723</t>
+          <t>14.273533480522396</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17.08089847534698</t>
+          <t>23.61353342088224</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8.864291417971996</t>
+          <t>2.804264967788595</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16.818748584893495</t>
+          <t>10.352042075973955</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>14.757705135915256</t>
+          <t>17.520667784757546</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6.863514879182393</t>
+          <t>2.713144609941369</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8.43068688044766</t>
+          <t>22.25623666000722</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4.521116929787426</t>
+          <t>14.828333905267078</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11.416898305277147</t>
+          <t>5.195976383498738</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13.748773669491783</t>
+          <t>23.104905592359493</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>18.343490059104298</t>
+          <t>17.247315307001802</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14.609731625454904</t>
+          <t>23.09432322042149</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12.665902190125598</t>
+          <t>13.559990318157514</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>9.009587746030766</t>
+          <t>2.18009322698835</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>10.681370325727698</t>
+          <t>4.453858325652611</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9.047390698118553</t>
+          <t>13.129501496291715</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>14.018485548072453</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
           <t>0.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>9.986338459682832</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>(0, 0)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4.858019507101507</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.331247808216814</t>
+          <t>7.040866288997558</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.25853847977732</t>
+          <t>10.016946399914946</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.513076401644303</t>
+          <t>11.295970033207132</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.429251179427617</t>
+          <t>11.153308436355255</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11.9431891764392</t>
+          <t>10.82778011730002</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.542793993281057</t>
+          <t>14.683396172332118</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13.479513810399503</t>
+          <t>1.7288726344401102</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10.2196774882154</t>
+          <t>6.680408321049949</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3.9002070388319394</t>
+          <t>13.895251882370333</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10.957677487575927</t>
+          <t>13.700400333090773</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>3.4828985464993685</t>
+          <t>7.778360223365738</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.830451801265522</t>
+          <t>13.97584827534784</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>14.215264373351326</t>
+          <t>10.935990159541157</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>12.900987258362285</t>
+          <t>12.059046326270781</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11.87129540618018</t>
+          <t>12.455063894087045</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>13.458693751491824</t>
+          <t>9.288393575539018</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>8.055472744441722</t>
+          <t>7.165399266228162</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>11.432359014759758</t>
+          <t>9.277750919157315</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>10.093083639671287</t>
+          <t>8.026289851694777</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>5.24315014035868</t>
+          <t>9.685575790032834</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>8.62732317369357</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(-6, 0)</t>
+          <t>(-9, 0)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -556,107 +556,107 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.066153092170822</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.337512899327564</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17.85263384119801</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.772236345352183</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18.35952735335168</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9.996036488146535</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.14493871651305</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.57561545522945</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.28279113193811</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14.836590103600338</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17.412015248879836</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>11.08128194616726</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>8.537144762375664</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15.48235039018045</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>6.365050368662722</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17.997854278435685</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>14.465670009221071</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>11.248593003069054</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>13.761766762322592</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>20.7428699858768</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>7.427225326735591</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(7, 0)</t>
+          <t>(0, 7)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13.400100809499548</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -683,102 +683,102 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18.100955831528573</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.153527051505268</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17.272672744497076</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.080730841141447</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7.538625960418525</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11.484514539478896</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9.844333578778226</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21.377709569084583</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7.317363180169297</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9.323530747926378</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>17.234911369825866</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20.352311661057918</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.81310556416841</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>20.850296831229517</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5.526155001241158</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.1830688454694855</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>7.95206394429738</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>15.554888319656481</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>6.455894321203753</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>8.410953087785014</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -790,17 +790,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(-9, 6)</t>
+          <t>(-2, -7)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.100473059549766</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.508719778645958</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -810,97 +810,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25.22420746813676</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9.458085032249286</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.802112862594534</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14.958630450611595</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.412095673882845</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>19.767354613363935</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17.067208915881917</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19.010388001303454</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17.107806254783</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>18.960430249673674</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4.350514839148788</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>24.820073316500768</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.425526944503572</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>20.357164448304747</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>17.902718553879573</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>17.251211953959487</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>9.023420809131746</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>20.984946434439134</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>14.249902616580371</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -912,22 +912,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(5, -6)</t>
+          <t>(1, -6)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15.758970666976996</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.330529447228153</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.41976046066791</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -937,92 +937,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.3201201455919</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16.25786062729304</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.631312400432947</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.126155951991715</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17.44748044064449</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.397514903348878</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.7972744615959528</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>18.67388574399376</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10.465836622399591</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>21.361049706850643</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6.04784896048221</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>20.22580511987594</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>14.914956095800887</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>8.286552123303538</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>4.458243096044576</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>24.2789331064832</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>16.4231573285634</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>8.739804875986279</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -1034,27 +1034,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-8, -2)</t>
+          <t>(9, -8)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.3635804983017716</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.47584055794782</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.894770569269165</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15.915861940622934</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1064,87 +1064,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23.541060329206612</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12.528666770415258</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10.651971590482233</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23.645672362751572</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.869635332373784</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.98937599016708</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>20.074699638402063</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>10.65790608809779</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>13.592969559052495</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16.922937065937177</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>7.346515386156527</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>16.00741757176243</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>18.282313009966124</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12.027712973380611</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>17.048228693045115</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>18.14623862995678</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>11.479209677030388</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -1156,32 +1156,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(9, 6)</t>
+          <t>(-7, 9)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.981069031169962</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.130357954782115</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.232958894751054</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.401084059582594</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26.346224630966226</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1191,82 +1191,82 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.513130312379412</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20.02702595300833</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.855904915788538</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>28.07570193120469</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17.625422380171322</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6.14661959699553</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23.247622514811116</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>22.3020248926791</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23.356244705113962</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>20.278505650205616</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4.376623828086346</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>6.781860498500722</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15.292295446348273</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>17.525049780225757</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2.293429691151949</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>12.472238269812452</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -1278,37 +1278,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(1, 1)</t>
+          <t>(-9, 8)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.739181916317075</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.898829193970654</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.02118852625398</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.054272488670929</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13.920851179435367</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.125231608897883</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1318,77 +1318,77 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.400238579973893</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13.739360457350262</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.188801693857807</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9.332807456249117</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12.075541902272773</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13.646848545681827</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>10.059367568071973</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13.847650901006798</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10.186045313168192</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5.67410004699383</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5.735176757134676</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>10.250019238832014</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>10.908513729617395</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>9.043955009953715</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.8008215902285465</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -1400,42 +1400,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(-2, -6)</t>
+          <t>(-4, -7)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.247192250209556</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.369693860595515</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.19419780757315</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.3495905924422456</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.513708135187773</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23.163043772346203</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8.138061396005112</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1445,72 +1445,72 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>19.86096964792061</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6.298822584453377</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6.961602916812105</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>21.380580267564536</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.1967568269981093</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>14.464514754247887</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>7.5910189211764605</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>11.966196066903947</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>16.839539153177896</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>13.676194561466593</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>5.369910423152992</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>19.271026836365472</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>20.60463849138785</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>6.704888454940291</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1522,47 +1522,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(8, 7)</t>
+          <t>(-10, 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23.02727877685634</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.226529849729834</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18.22713396075035</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15.929781571222478</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21.941559571692213</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.8954145750287625</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.02796081189023</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>23.615981334402242</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1572,67 +1572,67 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23.282764655539875</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14.234466064008577</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.112559688756526</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>21.740025442537686</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>14.66361915725794</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>25.272931382440863</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>20.31924317501088</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>4.305808347150095</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>6.362351262521336</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16.478972660040526</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>13.669941654503319</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>3.0711267808553924</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>14.668351683836832</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -1644,52 +1644,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(-4, -10)</t>
+          <t>(1, 3)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.23790137943765</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.412303928258385</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17.681412680755123</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14.70710993485295</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.53267760600147</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>28.009994656228944</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15.134154189042944</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.023709692965322</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>28.522732829251623</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1699,62 +1699,62 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13.658783114023123</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24.856030023178402</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3.3137765845075946</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>24.60455744426827</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9.292833425821957</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>21.71927923837673</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>17.700531033810595</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>22.515324591763893</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>8.165788900221303</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>21.897715441216036</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>20.12093638342686</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>13.401954630627463</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1766,57 +1766,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(4, -5)</t>
+          <t>(-9, -8)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15.171748242454505</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.462212282837747</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.295553505449806</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.4937818569827046</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.951210132393232</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17.28729404509999</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.870749090509776</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.656042826436923</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.32879520445201</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.42448103706077</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1826,57 +1826,57 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>16.672827588062425</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>9.68292543877293</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>19.08097783085547</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>5.8113480247938885</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>18.119475734875788</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>11.73093806437519</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>9.295071725879898</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2.500843648455913</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>19.79300685978358</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>10.492186917293154</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>8.568919257153182</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -1888,62 +1888,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(5, 8)</t>
+          <t>(-9, -3)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18.26993724459643</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.300425059593573</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19.99682788656952</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17.95076480309466</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20.021182619852468</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.8473134992699265</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11.150604653495039</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18.288008855725174</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.4164365270716353</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>25.736032905236957</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16.03471731909598</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1953,52 +1953,52 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22.85891994472322</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>15.23072235082706</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26.97980960299287</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>16.618161330495788</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.1385235182595634</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>8.313676935270891</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>21.47033468849403</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>8.590200721883075</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4.935685359861857</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>12.45047000877049</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2010,67 +2010,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(-3, -8)</t>
+          <t>(-10, -8)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10.396206644315804</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.132348158573913</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16.262908372774838</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11.759024636553493</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8.035351349063642</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23.53600371690045</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.374999111804353</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.1559823258002537</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>23.98371031600367</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.345535219139468</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9.217472029761826</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>23.453890640018827</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2080,47 +2080,47 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>17.712511534612403</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>7.147402020058522</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>19.5773310566975</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>22.10320914037733</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>17.04995784133315</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>7.204262005549732</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>22.461958468855215</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>23.89071388502226</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>11.294941744337038</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -2132,72 +2132,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(-6, 7)</t>
+          <t>(-2, 3)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.457834302954865</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16.80742581168645</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.90497271284566</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19.269112828614546</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.501625533329117</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19.052185084728976</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.745194716485528</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14.708697987780424</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20.432882921367817</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18.832097899724445</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20.280011303254724</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15.772211704920826</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19.24887467539186</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2207,42 +2207,42 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19.4116892402673</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.682552709422445</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>14.25461161900877</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>18.700937976829362</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18.594785082944878</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>4.492754831214666</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>16.491546585915117</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>10.904116733220146</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2254,77 +2254,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(3, -10)</t>
+          <t>(-7, 9)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.880468772897505</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.825710063564921</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.77590307662597</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.619098991126709</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20.34118322509099</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>24.092553827587935</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.507296254670084</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>6.716013498252139</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21.41686660093562</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.385045731680016</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.495580190086902</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>21.873395017718128</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8.949679881133255</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>24.27947436350033</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2334,37 +2334,37 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>26.150176762858976</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>21.550807222564224</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>17.501093707869103</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>5.042708234037712</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>25.975854594921056</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>22.058659960905292</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>11.466737754915213</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -2376,82 +2376,82 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(-6, 5)</t>
+          <t>(-9, -1)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.261103153117156</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.168751017556765</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.491551981402288</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>20.31973776169073</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9.688622288594187</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.012984968166595</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.841971655777476</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13.903202499524513</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>18.479448142800198</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>17.068848521264613</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14.296428671876509</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>14.779476083373375</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>19.876944372134112</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2.4743682225310324</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19.66279056100635</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2461,32 +2461,32 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>16.252940391934906</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>14.304163546199046</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>16.047559414259588</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>7.148266441612626</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>16.04334354578747</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>9.851948641903906</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -2498,87 +2498,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(5, 5)</t>
+          <t>(0, -1)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16.126403498048298</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.028507921352713</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20.38119788812002</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13.936213335558765</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17.448996399208937</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.902240087584248</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.485550506974322</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16.374663782627923</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.956470004374708</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>19.39008980358791</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10.31802420285434</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4.1885465737724825</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>21.154671409748065</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>14.686453683058922</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16.644922214145094</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>13.35539934552344</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2588,27 +2588,27 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3.55805500652818</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>11.966756256851816</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>11.84532961350801</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2.043031738288336</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>9.213819904686503</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2620,92 +2620,92 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(6, 2)</t>
+          <t>(-2, -9)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12.688440882482732</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.32760472361296</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17.71205852982617</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.754227227819998</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15.127381825600866</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6.2172342745751425</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.705142634065741</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13.427586093250605</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.565840540145101</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>17.678043362631808</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>7.606132168450654</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>7.52756198155197</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16.50315418875568</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>18.37271040822337</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17.62308778888928</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15.411138592709783</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.406528685019736</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2715,22 +2715,22 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>11.831763258501253</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>12.302491587733785</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>4.205388785137432</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>8.596131449495623</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -2742,97 +2742,97 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(2, -6)</t>
+          <t>(-7, 7)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.659467271250303</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.032872001613061</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18.25804331020177</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.5239806420438153</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14.352716924495814</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16.776851149121043</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.591988009938015</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.002251091268044</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>14.496607260186092</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.172554451613642</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2.293010415883991</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>19.557359014819887</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>7.816087916039374</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>16.6956420138408</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5.401704501507287</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>20.34212530663726</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>14.18695220942104</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>13.021817621352705</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2842,17 +2842,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>18.730898337516926</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>17.670717334562195</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>7.112089036919168</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -2864,102 +2864,102 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(-3, 9)</t>
+          <t>(-8, 3)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13.080098060071428</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16.1019170007952</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.857576901996342</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24.146947415778328</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12.79769961954727</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14.842924786308778</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11.391744276324856</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>15.825989681792494</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12.181300011826067</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>25.001191907236826</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>21.851574315343367</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>9.658698278899418</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>22.366007686381447</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3.8638595422784108</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>21.10867035378019</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>7.25052394495071</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>11.725951933390153</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>16.348247208346685</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23.54494785846903</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>11.424785748628961</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>12.51532708515092</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2986,107 +2986,107 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(7, 5)</t>
+          <t>(-8, -6)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19.633103947887864</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.00441944661347</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21.727950299310667</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>14.273533480522396</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23.61353342088224</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.804264967788595</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.352042075973955</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17.520667784757546</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.713144609941369</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>22.25623666000722</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14.828333905267078</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5.195976383498738</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23.104905592359493</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>17.247315307001802</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23.09432322042149</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>13.559990318157514</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.18009322698835</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>4.453858325652611</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13.129501496291715</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>14.018485548072453</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>9.986338459682832</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -3113,107 +3113,107 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.040866288997558</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.016946399914946</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11.295970033207132</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.153308436355255</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10.82778011730002</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14.683396172332118</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.7288726344401102</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6.680408321049949</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13.895251882370333</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13.700400333090773</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7.778360223365738</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.97584827534784</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10.935990159541157</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>12.059046326270781</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12.455063894087045</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>9.288393575539018</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>7.165399266228162</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>9.277750919157315</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8.026289851694777</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>9.685575790032834</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>8.62732317369357</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
